--- a/TableauDeBord.xlsx
+++ b/TableauDeBord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\GitHub\S3D_MyWishList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7BC9E1-0F8A-4C1A-B26F-F1838722ADA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6113DEB5-26A6-40A7-81C3-96440B2EC78C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>BOUSSETTA Nael</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Creation du Tableau de bord</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -152,16 +155,10 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -185,11 +182,298 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="37">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -468,242 +752,245 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="62.5703125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="62.5703125" style="9"/>
-    <col min="2" max="2" width="1.7109375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="62.5703125" style="9"/>
-    <col min="4" max="4" width="1.7109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="62.5703125" style="9"/>
-    <col min="6" max="6" width="1.7109375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="62.5703125" style="9"/>
-    <col min="8" max="8" width="1.7109375" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="62.5703125" style="9"/>
+    <col min="1" max="1" width="62.5703125" style="7"/>
+    <col min="2" max="2" width="1.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="62.5703125" style="7"/>
+    <col min="4" max="4" width="1.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="62.5703125" style="7"/>
+    <col min="6" max="6" width="1.7109375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="62.5703125" style="7"/>
+    <col min="8" max="8" width="1.7109375" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="62.5703125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="10"/>
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="10" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="10"/>
+      <c r="G4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="B5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="B6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="B7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="B8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="B9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="B10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="B11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="B12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="B13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="B14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="B15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="B16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="H16" s="10"/>
     </row>
     <row r="17" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="B17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="H17" s="10"/>
     </row>
     <row r="18" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="B18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="H18" s="10"/>
     </row>
     <row r="19" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="B19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="H19" s="10"/>
     </row>
     <row r="20" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="B20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="H20" s="10"/>
     </row>
     <row r="21" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="H21" s="4"/>
+      <c r="B21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="H21" s="10"/>
     </row>
     <row r="22" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="H22" s="4"/>
+      <c r="B22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="H22" s="10"/>
     </row>
     <row r="23" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="H23" s="4"/>
+      <c r="B23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="H23" s="10"/>
     </row>
     <row r="24" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="H24" s="4"/>
+      <c r="B24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="H24" s="10"/>
     </row>
     <row r="25" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="H25" s="4"/>
+      <c r="B25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="H25" s="10"/>
     </row>
     <row r="26" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="H26" s="4"/>
+      <c r="B26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="H26" s="10"/>
     </row>
     <row r="27" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="H27" s="4"/>
+      <c r="B27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="H27" s="10"/>
     </row>
     <row r="28" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="H28" s="4"/>
+      <c r="B28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="H28" s="10"/>
     </row>
     <row r="29" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="H29" s="4"/>
+      <c r="B29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="H29" s="10"/>
     </row>
     <row r="30" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="H30" s="4"/>
+      <c r="B30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="H30" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -713,6 +1000,19 @@
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B2:B30"/>
   </mergeCells>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:A80 C3:C80 E3:E80 G3:G80">
+    <cfRule type="containsBlanks" priority="5" stopIfTrue="1">
+      <formula>LEN(TRIM(A3))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="notEqual">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/TableauDeBord.xlsx
+++ b/TableauDeBord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\GitHub\S3D_MyWishList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DAEC69-9216-4D61-B9A9-B582806DA54C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E48A0F-1A2D-43C8-B46C-AF45B211D8A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>BOUSSETTA Nael</t>
   </si>
@@ -96,13 +96,16 @@
   </si>
   <si>
     <t>1/ Note Max 13</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,12 +115,6 @@
     </font>
     <font>
       <sz val="16"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -135,8 +132,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,6 +203,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -204,52 +225,68 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -540,267 +577,312 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="62.5703125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.5703125" style="11"/>
-    <col min="2" max="2" width="1.7109375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="62.5703125" style="11"/>
-    <col min="4" max="4" width="1.7109375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="62.5703125" style="11"/>
-    <col min="6" max="6" width="1.7109375" style="11" customWidth="1"/>
-    <col min="7" max="7" width="62.5703125" style="11"/>
-    <col min="8" max="8" width="1.7109375" style="11" customWidth="1"/>
-    <col min="9" max="16384" width="62.5703125" style="11"/>
+    <col min="1" max="1" width="62.5703125" style="4"/>
+    <col min="2" max="2" width="1.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="62.5703125" style="4"/>
+    <col min="4" max="4" width="1.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="62.5703125" style="4"/>
+    <col min="6" max="6" width="1.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="62.5703125" style="4"/>
+    <col min="8" max="8" width="1.7109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="1.7109375" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="62.5703125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+    </row>
+    <row r="2" spans="1:10" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="9" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="H3" s="7"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="10" t="s">
+      <c r="F4" s="7"/>
+      <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="11" t="s">
+      <c r="H4" s="7"/>
+      <c r="I4" s="9">
+        <v>44199</v>
+      </c>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="2:8" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="2:8" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="2:8" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="2:8" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="2:8" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="2:8" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="2:8" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="2:8" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="2:8" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="2:8" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="2:8" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="2:8" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="2:8" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="2:8" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="H30" s="4"/>
+      <c r="F6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="J30" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="J2:J30"/>
     <mergeCell ref="D2:D30"/>
     <mergeCell ref="F2:F30"/>
     <mergeCell ref="H2:H30"/>
-    <mergeCell ref="A1:G1"/>
     <mergeCell ref="B2:B30"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+  <conditionalFormatting sqref="A2:I1048576 A1:G1 K1:XFD1048576">
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A80 C3:C80 E3:E80 G3:G80">
-    <cfRule type="containsBlanks" priority="5" stopIfTrue="1">
+    <cfRule type="containsBlanks" priority="6" stopIfTrue="1">
       <formula>LEN(TRIM(A3))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="notEqual">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -819,60 +901,60 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.7109375" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="22.7109375" style="13"/>
+    <col min="1" max="16384" width="22.7109375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="42" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="42" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
     </row>

--- a/TableauDeBord.xlsx
+++ b/TableauDeBord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\GitHub\S3D_MyWishList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E48A0F-1A2D-43C8-B46C-AF45B211D8A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6539948E-0351-44BF-9987-AB1916DFD5CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>BOUSSETTA Nael</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Creation du GitHub</t>
   </si>
 </sst>
 </file>
@@ -245,41 +248,83 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -577,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="62.5703125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -593,295 +638,350 @@
     <col min="6" max="6" width="1.7109375" style="4" customWidth="1"/>
     <col min="7" max="7" width="62.5703125" style="4"/>
     <col min="8" max="8" width="1.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="7" customWidth="1"/>
     <col min="10" max="10" width="1.7109375" style="4" customWidth="1"/>
     <col min="11" max="16384" width="62.5703125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+    </row>
+    <row r="2" spans="1:10" s="9" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="14" t="s">
+      <c r="F2" s="15"/>
+      <c r="G2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="16" t="s">
+      <c r="H2" s="15"/>
+      <c r="I2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="7"/>
+      <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="2" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="2" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="15"/>
+      <c r="J3" s="15"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="7"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="15"/>
       <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="3" t="s">
+      <c r="F4" s="15"/>
+      <c r="G4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="15"/>
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="9">
+      <c r="H5" s="15"/>
+      <c r="I5" s="8">
         <v>44199</v>
       </c>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="J5" s="15"/>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="4" t="s">
+      <c r="B6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="J6" s="15"/>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="F7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="B8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="B9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="B10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="J10" s="15"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="B11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="J11" s="15"/>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="B12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="J12" s="15"/>
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="J13" s="7"/>
+      <c r="B13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="J13" s="15"/>
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="B14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="J14" s="15"/>
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="J15" s="7"/>
+      <c r="B15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="J15" s="15"/>
     </row>
     <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="J16" s="7"/>
+      <c r="B16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="J16" s="15"/>
     </row>
     <row r="17" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="J17" s="7"/>
+      <c r="B17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="J17" s="15"/>
     </row>
     <row r="18" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="J18" s="7"/>
+      <c r="B18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="J18" s="15"/>
     </row>
     <row r="19" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="J19" s="7"/>
+      <c r="B19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="J19" s="15"/>
     </row>
     <row r="20" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="J20" s="7"/>
+      <c r="B20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="J20" s="15"/>
     </row>
     <row r="21" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="J21" s="7"/>
+      <c r="B21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="J21" s="15"/>
     </row>
     <row r="22" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="J22" s="7"/>
+      <c r="B22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="J22" s="15"/>
     </row>
     <row r="23" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="J23" s="7"/>
+      <c r="B23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="J23" s="15"/>
     </row>
     <row r="24" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="J24" s="7"/>
+      <c r="B24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="J24" s="15"/>
     </row>
     <row r="25" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="J25" s="7"/>
+      <c r="B25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="J25" s="15"/>
     </row>
     <row r="26" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="J26" s="7"/>
+      <c r="B26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="J26" s="15"/>
     </row>
     <row r="27" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="J27" s="7"/>
+      <c r="B27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="J27" s="15"/>
     </row>
     <row r="28" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="J28" s="7"/>
+      <c r="B28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="J28" s="15"/>
     </row>
     <row r="29" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="J29" s="7"/>
+      <c r="B29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="J29" s="15"/>
     </row>
     <row r="30" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="J30" s="7"/>
+      <c r="B30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="J30" s="15"/>
+    </row>
+    <row r="31" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="J31" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="J2:J30"/>
-    <mergeCell ref="D2:D30"/>
-    <mergeCell ref="F2:F30"/>
-    <mergeCell ref="H2:H30"/>
-    <mergeCell ref="B2:B30"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J2:J31"/>
+    <mergeCell ref="D2:D31"/>
+    <mergeCell ref="F2:F31"/>
+    <mergeCell ref="H2:H31"/>
+    <mergeCell ref="B2:B31"/>
   </mergeCells>
-  <conditionalFormatting sqref="A2:I1048576 A1:G1 K1:XFD1048576">
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
+  <conditionalFormatting sqref="A2:I2 A1:G1 K1:XFD2 K5:XFD1048576 A5:I1048576">
+    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A80 C3:C80 E3:E80 G3:G80">
+  <conditionalFormatting sqref="G5:G81 E5:E81 C5:C81 A5:A81">
+    <cfRule type="containsBlanks" priority="14" stopIfTrue="1">
+      <formula>LEN(TRIM(A5))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="15" operator="notEqual">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2 J5:J1048576">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:I4 K4:XFD4">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4 C4 E4 G4">
     <cfRule type="containsBlanks" priority="6" stopIfTrue="1">
+      <formula>LEN(TRIM(A4))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="notEqual">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:XFD3 A3:I3">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3 E3 C3 A3">
+    <cfRule type="containsBlanks" priority="2" stopIfTrue="1">
       <formula>LEN(TRIM(A3))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="notEqual">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J1048576">
+  <conditionalFormatting sqref="J3">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>

--- a/TableauDeBord.xlsx
+++ b/TableauDeBord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\GitHub\S3D_MyWishList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6539948E-0351-44BF-9987-AB1916DFD5CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDB10DB-342F-4F4A-86B8-AA461735FDEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15765" yWindow="2580" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableauBord" sheetId="1" r:id="rId1"/>
@@ -55,53 +55,53 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>création de liste</t>
-  </si>
-  <si>
-    <t>ajout d'items</t>
-  </si>
-  <si>
-    <t>partage par url</t>
-  </si>
-  <si>
-    <t>Réservation de
+    <t>Niveau 1</t>
+  </si>
+  <si>
+    <t>niveau 2</t>
+  </si>
+  <si>
+    <t>présentation de la liste à date d'échéance</t>
+  </si>
+  <si>
+    <t>autres extensions</t>
+  </si>
+  <si>
+    <t>3/ Note Max 20</t>
+  </si>
+  <si>
+    <t>2/ Note Max 16</t>
+  </si>
+  <si>
+    <t>1/ Note Max 13</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Creation du GitHub</t>
+  </si>
+  <si>
+    <t>8 ajout d'items</t>
+  </si>
+  <si>
+    <t>6 création de liste</t>
+  </si>
+  <si>
+    <t>14 partage par url</t>
+  </si>
+  <si>
+    <t>3 Réservation de
 cadeaux par les participants</t>
   </si>
   <si>
-    <t>Niveau 1</t>
-  </si>
-  <si>
-    <t>niveau 2</t>
-  </si>
-  <si>
-    <t>modification/suppression de liste</t>
-  </si>
-  <si>
-    <t>ajout de message</t>
-  </si>
-  <si>
-    <t>présentation de la liste à date d'échéance</t>
-  </si>
-  <si>
-    <t>rendre une liste publique</t>
-  </si>
-  <si>
-    <t>autres extensions</t>
-  </si>
-  <si>
-    <t>3/ Note Max 20</t>
-  </si>
-  <si>
-    <t>2/ Note Max 16</t>
-  </si>
-  <si>
-    <t>1/ Note Max 13</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Creation du GitHub</t>
+    <t>4 ajout de message</t>
+  </si>
+  <si>
+    <t>9/10 modification/suppression de liste</t>
+  </si>
+  <si>
+    <t>20 rendre une liste publique</t>
   </si>
 </sst>
 </file>
@@ -154,7 +154,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,6 +212,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -228,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -242,9 +248,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -272,10 +275,16 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -624,7 +633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -638,43 +647,43 @@
     <col min="6" max="6" width="1.7109375" style="4" customWidth="1"/>
     <col min="7" max="7" width="62.5703125" style="4"/>
     <col min="8" max="8" width="1.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="6" customWidth="1"/>
     <col min="10" max="10" width="1.7109375" style="4" customWidth="1"/>
     <col min="11" max="16384" width="62.5703125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-    </row>
-    <row r="2" spans="1:10" s="9" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+    </row>
+    <row r="2" spans="1:10" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="15"/>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="15"/>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="15"/>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="15"/>
-      <c r="I2" s="14" t="s">
-        <v>23</v>
+      <c r="I2" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="J2" s="15"/>
     </row>
@@ -692,7 +701,7 @@
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H3" s="15"/>
       <c r="J3" s="15"/>
@@ -733,7 +742,7 @@
         <v>7</v>
       </c>
       <c r="H5" s="15"/>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <v>44199</v>
       </c>
       <c r="J5" s="15"/>
@@ -995,67 +1004,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D520074-4865-4F0B-B005-CC96FEC9003A}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.7109375" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="22.7109375" style="6"/>
+    <col min="1" max="16384" width="22.7109375" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="5" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="42" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="6" spans="1:3" ht="42" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>18</v>
+      <c r="B6" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/TableauDeBord.xlsx
+++ b/TableauDeBord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\GitHub\S3D_MyWishList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDB10DB-342F-4F4A-86B8-AA461735FDEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CBD729-37AC-4FCC-94AC-C191BA011AF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15765" yWindow="2580" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="2190" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableauBord" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>BOUSSETTA Nael</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>20 rendre une liste publique</t>
+  </si>
+  <si>
+    <t>MyWishList_V1</t>
   </si>
 </sst>
 </file>
@@ -275,16 +278,16 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="17" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -633,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="62.5703125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -653,284 +656,299 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:10" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="15"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="15"/>
+      <c r="F2" s="17"/>
       <c r="G2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="15"/>
+      <c r="H2" s="17"/>
       <c r="I2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="15"/>
+      <c r="J2" s="17"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="D3" s="17"/>
       <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="15"/>
+      <c r="F3" s="17"/>
       <c r="G3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="J3" s="15"/>
+      <c r="H3" s="17"/>
+      <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="15"/>
+      <c r="F4" s="17"/>
       <c r="G4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="J4" s="15"/>
+      <c r="H4" s="17"/>
+      <c r="J4" s="17"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="15"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="15"/>
+      <c r="F5" s="17"/>
       <c r="G5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="15"/>
+      <c r="H5" s="17"/>
       <c r="I5" s="7">
         <v>44199</v>
       </c>
-      <c r="J5" s="15"/>
+      <c r="J5" s="17"/>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="J6" s="15"/>
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="7">
+        <v>44199</v>
+      </c>
+      <c r="J6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="15"/>
-      <c r="D7" s="15"/>
+      <c r="B7" s="17"/>
+      <c r="D7" s="17"/>
       <c r="E7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="J7" s="15"/>
+      <c r="F7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="J8" s="15"/>
+      <c r="B8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="J8" s="17"/>
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="J9" s="15"/>
+      <c r="B9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="J9" s="17"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="J10" s="15"/>
+      <c r="B10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="J10" s="17"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="J11" s="15"/>
+      <c r="B11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="J11" s="17"/>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="J12" s="15"/>
+      <c r="B12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="J12" s="17"/>
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="J13" s="15"/>
+      <c r="B13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="J13" s="17"/>
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="J14" s="15"/>
+      <c r="B14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="J14" s="17"/>
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="J15" s="15"/>
+      <c r="B15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="J15" s="17"/>
     </row>
     <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="J16" s="15"/>
+      <c r="B16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="J16" s="17"/>
     </row>
     <row r="17" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="J17" s="15"/>
+      <c r="B17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="J17" s="17"/>
     </row>
     <row r="18" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="J18" s="15"/>
+      <c r="B18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="J18" s="17"/>
     </row>
     <row r="19" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="J19" s="15"/>
+      <c r="B19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="J19" s="17"/>
     </row>
     <row r="20" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="J20" s="15"/>
+      <c r="B20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="J20" s="17"/>
     </row>
     <row r="21" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="J21" s="15"/>
+      <c r="B21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="J21" s="17"/>
     </row>
     <row r="22" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="J22" s="15"/>
+      <c r="B22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="J22" s="17"/>
     </row>
     <row r="23" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="J23" s="15"/>
+      <c r="B23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="J23" s="17"/>
     </row>
     <row r="24" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="J24" s="15"/>
+      <c r="B24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="J24" s="17"/>
     </row>
     <row r="25" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="J25" s="15"/>
+      <c r="B25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="J25" s="17"/>
     </row>
     <row r="26" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="J26" s="15"/>
+      <c r="B26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="J26" s="17"/>
     </row>
     <row r="27" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="J27" s="15"/>
+      <c r="B27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="J27" s="17"/>
     </row>
     <row r="28" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="J28" s="15"/>
+      <c r="B28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="J28" s="17"/>
     </row>
     <row r="29" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="J29" s="15"/>
+      <c r="B29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="J29" s="17"/>
     </row>
     <row r="30" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="J30" s="15"/>
+      <c r="B30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="J30" s="17"/>
     </row>
     <row r="31" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="J31" s="15"/>
+      <c r="B31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="J31" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1004,7 +1022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D520074-4865-4F0B-B005-CC96FEC9003A}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1014,13 +1032,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>13</v>
       </c>
     </row>

--- a/TableauDeBord.xlsx
+++ b/TableauDeBord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\GitHub\S3D_MyWishList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CBD729-37AC-4FCC-94AC-C191BA011AF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DA2619-B512-46E4-9710-0DD5AD75E5EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2190" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableauBord" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>BOUSSETTA Nael</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>Creation du Tableau de bord</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Niveau 1</t>
@@ -105,6 +102,12 @@
   </si>
   <si>
     <t>MyWishList_V1</t>
+  </si>
+  <si>
+    <t>Creation de liste</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> x</t>
   </si>
 </sst>
 </file>
@@ -637,7 +640,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="62.5703125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -686,7 +689,7 @@
       </c>
       <c r="H2" s="17"/>
       <c r="I2" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J2" s="17"/>
     </row>
@@ -704,7 +707,7 @@
       </c>
       <c r="F3" s="17"/>
       <c r="G3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="17"/>
       <c r="J3" s="17"/>
@@ -764,7 +767,7 @@
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="7">
@@ -773,13 +776,25 @@
       <c r="J6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="B7" s="17"/>
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="D7" s="17"/>
       <c r="E7" s="4" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="F7" s="17"/>
+      <c r="G7" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="H7" s="17"/>
+      <c r="I7" s="7">
+        <v>44201</v>
+      </c>
       <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1023,7 +1038,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.7109375" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1033,56 +1048,56 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/TableauDeBord.xlsx
+++ b/TableauDeBord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\GitHub\S3D_MyWishList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DA2619-B512-46E4-9710-0DD5AD75E5EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22187677-875A-4AA5-94D9-EF953F163F3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>BOUSSETTA Nael</t>
   </si>
@@ -107,7 +107,7 @@
     <t>Creation de liste</t>
   </si>
   <si>
-    <t xml:space="preserve"> x</t>
+    <t>Affichage par liste</t>
   </si>
 </sst>
 </file>
@@ -639,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="62.5703125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -785,7 +785,7 @@
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="4" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F7" s="17"/>
       <c r="G7" s="4" t="s">
@@ -798,9 +798,21 @@
       <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="B8" s="17"/>
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="D8" s="17"/>
+      <c r="E8" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="F8" s="17"/>
+      <c r="G8" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="H8" s="17"/>
       <c r="J8" s="17"/>
     </row>

--- a/TableauDeBord.xlsx
+++ b/TableauDeBord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\GitHub\S3D_MyWishList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PHP\S3D_MyWishList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22187677-875A-4AA5-94D9-EF953F163F3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F18263-BABF-4920-B42A-D6A739BC1D72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableauBord" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>BOUSSETTA Nael</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>Affichage par liste</t>
+  </si>
+  <si>
+    <t>Partage d'une liste</t>
   </si>
 </sst>
 </file>
@@ -639,26 +642,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="62.5703125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="62.5546875" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="62.5703125" style="4"/>
-    <col min="2" max="2" width="1.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="62.5703125" style="4"/>
-    <col min="4" max="4" width="1.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="62.5703125" style="4"/>
-    <col min="6" max="6" width="1.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="62.5703125" style="4"/>
-    <col min="8" max="8" width="1.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="1.7109375" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="62.5703125" style="4"/>
+    <col min="1" max="1" width="62.5546875" style="4"/>
+    <col min="2" max="2" width="1.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="62.5546875" style="4"/>
+    <col min="4" max="4" width="1.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="62.5546875" style="4"/>
+    <col min="6" max="6" width="1.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="62.5546875" style="4"/>
+    <col min="8" max="8" width="1.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="1.6640625" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="62.5546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
@@ -671,7 +674,7 @@
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
     </row>
-    <row r="2" spans="1:10" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -693,7 +696,7 @@
       </c>
       <c r="J2" s="17"/>
     </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -712,7 +715,7 @@
       <c r="H3" s="17"/>
       <c r="J3" s="17"/>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -731,7 +734,7 @@
       <c r="H4" s="17"/>
       <c r="J4" s="17"/>
     </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -753,7 +756,7 @@
       </c>
       <c r="J5" s="17"/>
     </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -775,7 +778,7 @@
       </c>
       <c r="J6" s="17"/>
     </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -797,7 +800,7 @@
       </c>
       <c r="J7" s="17"/>
     </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -816,161 +819,167 @@
       <c r="H8" s="17"/>
       <c r="J8" s="17"/>
     </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="17"/>
       <c r="D9" s="17"/>
+      <c r="E9" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="F9" s="17"/>
       <c r="H9" s="17"/>
+      <c r="I9" s="7">
+        <v>44203</v>
+      </c>
       <c r="J9" s="17"/>
     </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="17"/>
       <c r="D10" s="17"/>
       <c r="F10" s="17"/>
       <c r="H10" s="17"/>
       <c r="J10" s="17"/>
     </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="17"/>
       <c r="D11" s="17"/>
       <c r="F11" s="17"/>
       <c r="H11" s="17"/>
       <c r="J11" s="17"/>
     </row>
-    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="17"/>
       <c r="D12" s="17"/>
       <c r="F12" s="17"/>
       <c r="H12" s="17"/>
       <c r="J12" s="17"/>
     </row>
-    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="17"/>
       <c r="D13" s="17"/>
       <c r="F13" s="17"/>
       <c r="H13" s="17"/>
       <c r="J13" s="17"/>
     </row>
-    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="17"/>
       <c r="D14" s="17"/>
       <c r="F14" s="17"/>
       <c r="H14" s="17"/>
       <c r="J14" s="17"/>
     </row>
-    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="17"/>
       <c r="D15" s="17"/>
       <c r="F15" s="17"/>
       <c r="H15" s="17"/>
       <c r="J15" s="17"/>
     </row>
-    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="17"/>
       <c r="D16" s="17"/>
       <c r="F16" s="17"/>
       <c r="H16" s="17"/>
       <c r="J16" s="17"/>
     </row>
-    <row r="17" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="17"/>
       <c r="D17" s="17"/>
       <c r="F17" s="17"/>
       <c r="H17" s="17"/>
       <c r="J17" s="17"/>
     </row>
-    <row r="18" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="17"/>
       <c r="D18" s="17"/>
       <c r="F18" s="17"/>
       <c r="H18" s="17"/>
       <c r="J18" s="17"/>
     </row>
-    <row r="19" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="17"/>
       <c r="D19" s="17"/>
       <c r="F19" s="17"/>
       <c r="H19" s="17"/>
       <c r="J19" s="17"/>
     </row>
-    <row r="20" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="17"/>
       <c r="D20" s="17"/>
       <c r="F20" s="17"/>
       <c r="H20" s="17"/>
       <c r="J20" s="17"/>
     </row>
-    <row r="21" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="17"/>
       <c r="D21" s="17"/>
       <c r="F21" s="17"/>
       <c r="H21" s="17"/>
       <c r="J21" s="17"/>
     </row>
-    <row r="22" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="17"/>
       <c r="D22" s="17"/>
       <c r="F22" s="17"/>
       <c r="H22" s="17"/>
       <c r="J22" s="17"/>
     </row>
-    <row r="23" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="17"/>
       <c r="D23" s="17"/>
       <c r="F23" s="17"/>
       <c r="H23" s="17"/>
       <c r="J23" s="17"/>
     </row>
-    <row r="24" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="17"/>
       <c r="D24" s="17"/>
       <c r="F24" s="17"/>
       <c r="H24" s="17"/>
       <c r="J24" s="17"/>
     </row>
-    <row r="25" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="17"/>
       <c r="D25" s="17"/>
       <c r="F25" s="17"/>
       <c r="H25" s="17"/>
       <c r="J25" s="17"/>
     </row>
-    <row r="26" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="17"/>
       <c r="D26" s="17"/>
       <c r="F26" s="17"/>
       <c r="H26" s="17"/>
       <c r="J26" s="17"/>
     </row>
-    <row r="27" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="17"/>
       <c r="D27" s="17"/>
       <c r="F27" s="17"/>
       <c r="H27" s="17"/>
       <c r="J27" s="17"/>
     </row>
-    <row r="28" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="17"/>
       <c r="D28" s="17"/>
       <c r="F28" s="17"/>
       <c r="H28" s="17"/>
       <c r="J28" s="17"/>
     </row>
-    <row r="29" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="17"/>
       <c r="D29" s="17"/>
       <c r="F29" s="17"/>
       <c r="H29" s="17"/>
       <c r="J29" s="17"/>
     </row>
-    <row r="30" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="17"/>
       <c r="D30" s="17"/>
       <c r="F30" s="17"/>
       <c r="H30" s="17"/>
       <c r="J30" s="17"/>
     </row>
-    <row r="31" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="17"/>
       <c r="D31" s="17"/>
       <c r="F31" s="17"/>
@@ -1053,12 +1062,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="22.7109375" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="22.6640625" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="22.7109375" style="5"/>
+    <col min="1" max="16384" width="22.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>14</v>
       </c>
@@ -1069,7 +1078,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
@@ -1080,7 +1089,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="63" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -1091,7 +1100,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -1099,7 +1108,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="63" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -1107,7 +1116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>23</v>
       </c>

--- a/TableauDeBord.xlsx
+++ b/TableauDeBord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PHP\S3D_MyWishList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\GitHub\S3D_MyWishList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F18263-BABF-4920-B42A-D6A739BC1D72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18201187-4CBF-486D-A56B-2F93D3424AB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableauBord" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
   <si>
     <t>BOUSSETTA Nael</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>Partage d'une liste</t>
+  </si>
+  <si>
+    <t>Separation des controleurs</t>
+  </si>
+  <si>
+    <t>V4</t>
   </si>
 </sst>
 </file>
@@ -642,26 +648,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="62.5546875" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="62.5703125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.5546875" style="4"/>
-    <col min="2" max="2" width="1.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="62.5546875" style="4"/>
-    <col min="4" max="4" width="1.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="62.5546875" style="4"/>
-    <col min="6" max="6" width="1.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="62.5546875" style="4"/>
-    <col min="8" max="8" width="1.6640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="1.6640625" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="62.5546875" style="4"/>
+    <col min="1" max="1" width="62.5703125" style="4"/>
+    <col min="2" max="2" width="1.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="62.5703125" style="4"/>
+    <col min="4" max="4" width="1.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="62.5703125" style="4"/>
+    <col min="6" max="6" width="1.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="62.5703125" style="4"/>
+    <col min="8" max="8" width="1.7109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="1.7109375" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="62.5703125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
@@ -674,7 +680,7 @@
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
     </row>
-    <row r="2" spans="1:10" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -696,7 +702,7 @@
       </c>
       <c r="J2" s="17"/>
     </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -715,7 +721,7 @@
       <c r="H3" s="17"/>
       <c r="J3" s="17"/>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -734,7 +740,7 @@
       <c r="H4" s="17"/>
       <c r="J4" s="17"/>
     </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -756,7 +762,7 @@
       </c>
       <c r="J5" s="17"/>
     </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -778,7 +784,7 @@
       </c>
       <c r="J6" s="17"/>
     </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -800,7 +806,7 @@
       </c>
       <c r="J7" s="17"/>
     </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -819,167 +825,191 @@
       <c r="H8" s="17"/>
       <c r="J8" s="17"/>
     </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="B9" s="17"/>
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="D9" s="17"/>
       <c r="E9" s="4" t="s">
         <v>27</v>
       </c>
       <c r="F9" s="17"/>
+      <c r="G9" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="H9" s="17"/>
       <c r="I9" s="7">
         <v>44203</v>
       </c>
       <c r="J9" s="17"/>
     </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="B10" s="17"/>
+      <c r="C10" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="D10" s="17"/>
+      <c r="E10" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="F10" s="17"/>
+      <c r="G10" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="H10" s="17"/>
+      <c r="I10" s="7">
+        <v>44203</v>
+      </c>
       <c r="J10" s="17"/>
     </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="17"/>
       <c r="D11" s="17"/>
       <c r="F11" s="17"/>
       <c r="H11" s="17"/>
       <c r="J11" s="17"/>
     </row>
-    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="17"/>
       <c r="D12" s="17"/>
       <c r="F12" s="17"/>
       <c r="H12" s="17"/>
       <c r="J12" s="17"/>
     </row>
-    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="17"/>
       <c r="D13" s="17"/>
       <c r="F13" s="17"/>
       <c r="H13" s="17"/>
       <c r="J13" s="17"/>
     </row>
-    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="17"/>
       <c r="D14" s="17"/>
       <c r="F14" s="17"/>
       <c r="H14" s="17"/>
       <c r="J14" s="17"/>
     </row>
-    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="17"/>
       <c r="D15" s="17"/>
       <c r="F15" s="17"/>
       <c r="H15" s="17"/>
       <c r="J15" s="17"/>
     </row>
-    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="17"/>
       <c r="D16" s="17"/>
       <c r="F16" s="17"/>
       <c r="H16" s="17"/>
       <c r="J16" s="17"/>
     </row>
-    <row r="17" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="17"/>
       <c r="D17" s="17"/>
       <c r="F17" s="17"/>
       <c r="H17" s="17"/>
       <c r="J17" s="17"/>
     </row>
-    <row r="18" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="17"/>
       <c r="D18" s="17"/>
       <c r="F18" s="17"/>
       <c r="H18" s="17"/>
       <c r="J18" s="17"/>
     </row>
-    <row r="19" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="17"/>
       <c r="D19" s="17"/>
       <c r="F19" s="17"/>
       <c r="H19" s="17"/>
       <c r="J19" s="17"/>
     </row>
-    <row r="20" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="17"/>
       <c r="D20" s="17"/>
       <c r="F20" s="17"/>
       <c r="H20" s="17"/>
       <c r="J20" s="17"/>
     </row>
-    <row r="21" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="17"/>
       <c r="D21" s="17"/>
       <c r="F21" s="17"/>
       <c r="H21" s="17"/>
       <c r="J21" s="17"/>
     </row>
-    <row r="22" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="17"/>
       <c r="D22" s="17"/>
       <c r="F22" s="17"/>
       <c r="H22" s="17"/>
       <c r="J22" s="17"/>
     </row>
-    <row r="23" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="17"/>
       <c r="D23" s="17"/>
       <c r="F23" s="17"/>
       <c r="H23" s="17"/>
       <c r="J23" s="17"/>
     </row>
-    <row r="24" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="17"/>
       <c r="D24" s="17"/>
       <c r="F24" s="17"/>
       <c r="H24" s="17"/>
       <c r="J24" s="17"/>
     </row>
-    <row r="25" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="17"/>
       <c r="D25" s="17"/>
       <c r="F25" s="17"/>
       <c r="H25" s="17"/>
       <c r="J25" s="17"/>
     </row>
-    <row r="26" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="17"/>
       <c r="D26" s="17"/>
       <c r="F26" s="17"/>
       <c r="H26" s="17"/>
       <c r="J26" s="17"/>
     </row>
-    <row r="27" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="17"/>
       <c r="D27" s="17"/>
       <c r="F27" s="17"/>
       <c r="H27" s="17"/>
       <c r="J27" s="17"/>
     </row>
-    <row r="28" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="17"/>
       <c r="D28" s="17"/>
       <c r="F28" s="17"/>
       <c r="H28" s="17"/>
       <c r="J28" s="17"/>
     </row>
-    <row r="29" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="17"/>
       <c r="D29" s="17"/>
       <c r="F29" s="17"/>
       <c r="H29" s="17"/>
       <c r="J29" s="17"/>
     </row>
-    <row r="30" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="17"/>
       <c r="D30" s="17"/>
       <c r="F30" s="17"/>
       <c r="H30" s="17"/>
       <c r="J30" s="17"/>
     </row>
-    <row r="31" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="17"/>
       <c r="D31" s="17"/>
       <c r="F31" s="17"/>
@@ -1062,12 +1092,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="22.6640625" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="22.7109375" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="22.6640625" style="5"/>
+    <col min="1" max="16384" width="22.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>14</v>
       </c>
@@ -1078,7 +1108,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
@@ -1089,7 +1119,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="63" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -1100,7 +1130,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -1108,7 +1138,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="63" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -1116,7 +1146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>23</v>
       </c>

--- a/TableauDeBord.xlsx
+++ b/TableauDeBord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\GitHub\S3D_MyWishList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5344a3cd4eb43387/Bureau/Git/S3D_MyWishList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18201187-4CBF-486D-A56B-2F93D3424AB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{18201187-4CBF-486D-A56B-2F93D3424AB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{10FB605E-194A-434E-AC76-B6AF8D3C71CF}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableauBord" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>BOUSSETTA Nael</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>V4</t>
+  </si>
+  <si>
+    <t>Modification et suppression des items</t>
+  </si>
+  <si>
+    <t>Modification des listes</t>
   </si>
 </sst>
 </file>
@@ -649,25 +655,25 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="62.5703125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="62.54296875" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="62.5703125" style="4"/>
-    <col min="2" max="2" width="1.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="62.5703125" style="4"/>
-    <col min="4" max="4" width="1.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="62.5703125" style="4"/>
-    <col min="6" max="6" width="1.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="62.5703125" style="4"/>
-    <col min="8" max="8" width="1.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="1.7109375" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="62.5703125" style="4"/>
+    <col min="1" max="1" width="62.54296875" style="4"/>
+    <col min="2" max="2" width="1.7265625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="62.54296875" style="4"/>
+    <col min="4" max="4" width="1.7265625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="62.54296875" style="4"/>
+    <col min="6" max="6" width="1.7265625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="62.54296875" style="4"/>
+    <col min="8" max="8" width="1.7265625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.26953125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="1.7265625" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="62.54296875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
@@ -680,7 +686,7 @@
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
     </row>
-    <row r="2" spans="1:10" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -702,7 +708,7 @@
       </c>
       <c r="J2" s="17"/>
     </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -721,7 +727,7 @@
       <c r="H3" s="17"/>
       <c r="J3" s="17"/>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -740,7 +746,7 @@
       <c r="H4" s="17"/>
       <c r="J4" s="17"/>
     </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -762,7 +768,7 @@
       </c>
       <c r="J5" s="17"/>
     </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -784,9 +790,9 @@
       </c>
       <c r="J6" s="17"/>
     </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="4" t="s">
@@ -806,7 +812,7 @@
       </c>
       <c r="J7" s="17"/>
     </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -825,9 +831,9 @@
       <c r="H8" s="17"/>
       <c r="J8" s="17"/>
     </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="4" t="s">
@@ -847,7 +853,7 @@
       </c>
       <c r="J9" s="17"/>
     </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
@@ -869,147 +875,147 @@
       </c>
       <c r="J10" s="17"/>
     </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="17"/>
       <c r="D11" s="17"/>
       <c r="F11" s="17"/>
       <c r="H11" s="17"/>
       <c r="J11" s="17"/>
     </row>
-    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="17"/>
       <c r="D12" s="17"/>
       <c r="F12" s="17"/>
       <c r="H12" s="17"/>
       <c r="J12" s="17"/>
     </row>
-    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="17"/>
       <c r="D13" s="17"/>
       <c r="F13" s="17"/>
       <c r="H13" s="17"/>
       <c r="J13" s="17"/>
     </row>
-    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="17"/>
       <c r="D14" s="17"/>
       <c r="F14" s="17"/>
       <c r="H14" s="17"/>
       <c r="J14" s="17"/>
     </row>
-    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="17"/>
       <c r="D15" s="17"/>
       <c r="F15" s="17"/>
       <c r="H15" s="17"/>
       <c r="J15" s="17"/>
     </row>
-    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="17"/>
       <c r="D16" s="17"/>
       <c r="F16" s="17"/>
       <c r="H16" s="17"/>
       <c r="J16" s="17"/>
     </row>
-    <row r="17" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="17"/>
       <c r="D17" s="17"/>
       <c r="F17" s="17"/>
       <c r="H17" s="17"/>
       <c r="J17" s="17"/>
     </row>
-    <row r="18" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="17"/>
       <c r="D18" s="17"/>
       <c r="F18" s="17"/>
       <c r="H18" s="17"/>
       <c r="J18" s="17"/>
     </row>
-    <row r="19" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="17"/>
       <c r="D19" s="17"/>
       <c r="F19" s="17"/>
       <c r="H19" s="17"/>
       <c r="J19" s="17"/>
     </row>
-    <row r="20" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="17"/>
       <c r="D20" s="17"/>
       <c r="F20" s="17"/>
       <c r="H20" s="17"/>
       <c r="J20" s="17"/>
     </row>
-    <row r="21" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="17"/>
       <c r="D21" s="17"/>
       <c r="F21" s="17"/>
       <c r="H21" s="17"/>
       <c r="J21" s="17"/>
     </row>
-    <row r="22" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="17"/>
       <c r="D22" s="17"/>
       <c r="F22" s="17"/>
       <c r="H22" s="17"/>
       <c r="J22" s="17"/>
     </row>
-    <row r="23" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="17"/>
       <c r="D23" s="17"/>
       <c r="F23" s="17"/>
       <c r="H23" s="17"/>
       <c r="J23" s="17"/>
     </row>
-    <row r="24" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="17"/>
       <c r="D24" s="17"/>
       <c r="F24" s="17"/>
       <c r="H24" s="17"/>
       <c r="J24" s="17"/>
     </row>
-    <row r="25" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="17"/>
       <c r="D25" s="17"/>
       <c r="F25" s="17"/>
       <c r="H25" s="17"/>
       <c r="J25" s="17"/>
     </row>
-    <row r="26" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="17"/>
       <c r="D26" s="17"/>
       <c r="F26" s="17"/>
       <c r="H26" s="17"/>
       <c r="J26" s="17"/>
     </row>
-    <row r="27" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="17"/>
       <c r="D27" s="17"/>
       <c r="F27" s="17"/>
       <c r="H27" s="17"/>
       <c r="J27" s="17"/>
     </row>
-    <row r="28" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="17"/>
       <c r="D28" s="17"/>
       <c r="F28" s="17"/>
       <c r="H28" s="17"/>
       <c r="J28" s="17"/>
     </row>
-    <row r="29" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="17"/>
       <c r="D29" s="17"/>
       <c r="F29" s="17"/>
       <c r="H29" s="17"/>
       <c r="J29" s="17"/>
     </row>
-    <row r="30" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="17"/>
       <c r="D30" s="17"/>
       <c r="F30" s="17"/>
       <c r="H30" s="17"/>
       <c r="J30" s="17"/>
     </row>
-    <row r="31" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="17"/>
       <c r="D31" s="17"/>
       <c r="F31" s="17"/>
@@ -1092,12 +1098,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="22.7109375" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="22.7265625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="22.7109375" style="5"/>
+    <col min="1" max="16384" width="22.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>14</v>
       </c>
@@ -1108,7 +1114,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
@@ -1119,7 +1125,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="63" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -1130,7 +1136,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="42" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -1138,7 +1144,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="63" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -1146,7 +1152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="42" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
         <v>23</v>
       </c>

--- a/TableauDeBord.xlsx
+++ b/TableauDeBord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5344a3cd4eb43387/Bureau/Git/S3D_MyWishList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{18201187-4CBF-486D-A56B-2F93D3424AB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{10FB605E-194A-434E-AC76-B6AF8D3C71CF}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{18201187-4CBF-486D-A56B-2F93D3424AB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6F97EC34-1EE2-4690-BBD4-F45E2ED4DAC0}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>BOUSSETTA Nael</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>Modification des listes</t>
+  </si>
+  <si>
+    <t>Suppression des listes</t>
+  </si>
+  <si>
+    <t>Affichage des items</t>
   </si>
 </sst>
 </file>
@@ -655,7 +661,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="62.54296875" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -770,7 +776,7 @@
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="4" t="s">
@@ -855,7 +861,7 @@
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="4" t="s">

--- a/TableauDeBord.xlsx
+++ b/TableauDeBord.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5344a3cd4eb43387/Bureau/Git/S3D_MyWishList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eddy\git\S3D_MyWishList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{18201187-4CBF-486D-A56B-2F93D3424AB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6F97EC34-1EE2-4690-BBD4-F45E2ED4DAC0}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="TableauBord" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>BOUSSETTA Nael</t>
   </si>
@@ -129,12 +128,15 @@
   </si>
   <si>
     <t>Affichage des items</t>
+  </si>
+  <si>
+    <t>Ajouter un message à une liste</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -318,7 +320,49 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -657,29 +701,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="62.54296875" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="62.5703125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.54296875" style="4"/>
-    <col min="2" max="2" width="1.7265625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="62.54296875" style="4"/>
-    <col min="4" max="4" width="1.7265625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="62.54296875" style="4"/>
-    <col min="6" max="6" width="1.7265625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="62.54296875" style="4"/>
-    <col min="8" max="8" width="1.7265625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="1.7265625" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="62.54296875" style="4"/>
+    <col min="1" max="1" width="62.5703125" style="4"/>
+    <col min="2" max="2" width="1.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="62.5703125" style="4"/>
+    <col min="4" max="4" width="1.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="62.5703125" style="4"/>
+    <col min="6" max="6" width="1.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="62.5703125" style="4"/>
+    <col min="8" max="8" width="1.7109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="1.7109375" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="62.5703125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
@@ -692,7 +736,7 @@
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
     </row>
-    <row r="2" spans="1:10" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -714,7 +758,7 @@
       </c>
       <c r="J2" s="17"/>
     </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -733,7 +777,7 @@
       <c r="H3" s="17"/>
       <c r="J3" s="17"/>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -752,7 +796,7 @@
       <c r="H4" s="17"/>
       <c r="J4" s="17"/>
     </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -774,7 +818,7 @@
       </c>
       <c r="J5" s="17"/>
     </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
@@ -796,7 +840,7 @@
       </c>
       <c r="J6" s="17"/>
     </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
@@ -818,7 +862,7 @@
       </c>
       <c r="J7" s="17"/>
     </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -837,7 +881,7 @@
       <c r="H8" s="17"/>
       <c r="J8" s="17"/>
     </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>31</v>
       </c>
@@ -859,7 +903,7 @@
       </c>
       <c r="J9" s="17"/>
     </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>32</v>
       </c>
@@ -881,147 +925,162 @@
       </c>
       <c r="J10" s="17"/>
     </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="B11" s="17"/>
+      <c r="C11" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D11" s="17"/>
+      <c r="E11" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="F11" s="17"/>
+      <c r="G11" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="H11" s="17"/>
+      <c r="I11" s="7">
+        <v>44206</v>
+      </c>
       <c r="J11" s="17"/>
     </row>
-    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="17"/>
       <c r="D12" s="17"/>
       <c r="F12" s="17"/>
       <c r="H12" s="17"/>
       <c r="J12" s="17"/>
     </row>
-    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="17"/>
       <c r="D13" s="17"/>
       <c r="F13" s="17"/>
       <c r="H13" s="17"/>
       <c r="J13" s="17"/>
     </row>
-    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="17"/>
       <c r="D14" s="17"/>
       <c r="F14" s="17"/>
       <c r="H14" s="17"/>
       <c r="J14" s="17"/>
     </row>
-    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="17"/>
       <c r="D15" s="17"/>
       <c r="F15" s="17"/>
       <c r="H15" s="17"/>
       <c r="J15" s="17"/>
     </row>
-    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="17"/>
       <c r="D16" s="17"/>
       <c r="F16" s="17"/>
       <c r="H16" s="17"/>
       <c r="J16" s="17"/>
     </row>
-    <row r="17" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="17"/>
       <c r="D17" s="17"/>
       <c r="F17" s="17"/>
       <c r="H17" s="17"/>
       <c r="J17" s="17"/>
     </row>
-    <row r="18" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="17"/>
       <c r="D18" s="17"/>
       <c r="F18" s="17"/>
       <c r="H18" s="17"/>
       <c r="J18" s="17"/>
     </row>
-    <row r="19" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="17"/>
       <c r="D19" s="17"/>
       <c r="F19" s="17"/>
       <c r="H19" s="17"/>
       <c r="J19" s="17"/>
     </row>
-    <row r="20" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="17"/>
       <c r="D20" s="17"/>
       <c r="F20" s="17"/>
       <c r="H20" s="17"/>
       <c r="J20" s="17"/>
     </row>
-    <row r="21" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="17"/>
       <c r="D21" s="17"/>
       <c r="F21" s="17"/>
       <c r="H21" s="17"/>
       <c r="J21" s="17"/>
     </row>
-    <row r="22" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="17"/>
       <c r="D22" s="17"/>
       <c r="F22" s="17"/>
       <c r="H22" s="17"/>
       <c r="J22" s="17"/>
     </row>
-    <row r="23" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="17"/>
       <c r="D23" s="17"/>
       <c r="F23" s="17"/>
       <c r="H23" s="17"/>
       <c r="J23" s="17"/>
     </row>
-    <row r="24" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="17"/>
       <c r="D24" s="17"/>
       <c r="F24" s="17"/>
       <c r="H24" s="17"/>
       <c r="J24" s="17"/>
     </row>
-    <row r="25" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="17"/>
       <c r="D25" s="17"/>
       <c r="F25" s="17"/>
       <c r="H25" s="17"/>
       <c r="J25" s="17"/>
     </row>
-    <row r="26" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="17"/>
       <c r="D26" s="17"/>
       <c r="F26" s="17"/>
       <c r="H26" s="17"/>
       <c r="J26" s="17"/>
     </row>
-    <row r="27" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="17"/>
       <c r="D27" s="17"/>
       <c r="F27" s="17"/>
       <c r="H27" s="17"/>
       <c r="J27" s="17"/>
     </row>
-    <row r="28" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="17"/>
       <c r="D28" s="17"/>
       <c r="F28" s="17"/>
       <c r="H28" s="17"/>
       <c r="J28" s="17"/>
     </row>
-    <row r="29" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="17"/>
       <c r="D29" s="17"/>
       <c r="F29" s="17"/>
       <c r="H29" s="17"/>
       <c r="J29" s="17"/>
     </row>
-    <row r="30" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="17"/>
       <c r="D30" s="17"/>
       <c r="F30" s="17"/>
       <c r="H30" s="17"/>
       <c r="J30" s="17"/>
     </row>
-    <row r="31" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="17"/>
       <c r="D31" s="17"/>
       <c r="F31" s="17"/>
@@ -1037,57 +1096,70 @@
     <mergeCell ref="H2:H31"/>
     <mergeCell ref="B2:B31"/>
   </mergeCells>
-  <conditionalFormatting sqref="A2:I2 A1:G1 K1:XFD2 K5:XFD1048576 A5:I1048576">
-    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
+  <conditionalFormatting sqref="A2:I2 A1:G1 K1:XFD2 K5:XFD1048576 A5:I10 A12:I1048576 A11:B11 D11:I11">
+    <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G81 E5:E81 C5:C81 A5:A81">
-    <cfRule type="containsBlanks" priority="14" stopIfTrue="1">
+  <conditionalFormatting sqref="A5:A81 C5:C10 E5:E81 G5:G81 C12:C81">
+    <cfRule type="containsBlanks" priority="17" stopIfTrue="1">
       <formula>LEN(TRIM(A5))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="15" operator="notEqual">
+    <cfRule type="cellIs" dxfId="13" priority="18" operator="notEqual">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2 J5:J1048576">
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:I4 K4:XFD4">
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4 C4 E4 G4">
-    <cfRule type="containsBlanks" priority="6" stopIfTrue="1">
+    <cfRule type="containsBlanks" priority="9" stopIfTrue="1">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="notEqual">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="notEqual">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:XFD3 A3:I3">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3 E3 C3 A3">
-    <cfRule type="containsBlanks" priority="2" stopIfTrue="1">
+    <cfRule type="containsBlanks" priority="5" stopIfTrue="1">
       <formula>LEN(TRIM(A3))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="notEqual">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="containsBlanks" priority="1" stopIfTrue="1">
+      <formula>LEN(TRIM(C11))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="notEqual">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1097,19 +1169,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D520074-4865-4F0B-B005-CC96FEC9003A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="22.7265625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="22.7109375" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="22.7265625" style="5"/>
+    <col min="1" max="16384" width="22.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>14</v>
       </c>
@@ -1120,7 +1192,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
@@ -1131,7 +1203,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="63" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -1142,7 +1214,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="42" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -1150,7 +1222,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="63" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -1158,7 +1230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="42" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>23</v>
       </c>

--- a/TableauDeBord.xlsx
+++ b/TableauDeBord.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eddy\git\S3D_MyWishList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5344a3cd4eb43387/Bureau/Git/S3D_MyWishList/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_842BB0AA252B807C6FC98388A41831C28DBF4DA1" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E04E2EAF-9989-4D3C-8758-9749CC5A9D9C}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableauBord" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>BOUSSETTA Nael</t>
   </si>
@@ -131,12 +132,15 @@
   </si>
   <si>
     <t>Ajouter un message à une liste</t>
+  </si>
+  <si>
+    <t>Réservation item</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -320,35 +324,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill>
@@ -701,29 +677,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="62.5703125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="62.54296875" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="62.5703125" style="4"/>
-    <col min="2" max="2" width="1.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="62.5703125" style="4"/>
-    <col min="4" max="4" width="1.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="62.5703125" style="4"/>
-    <col min="6" max="6" width="1.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="62.5703125" style="4"/>
-    <col min="8" max="8" width="1.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="1.7109375" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="62.5703125" style="4"/>
+    <col min="1" max="1" width="62.54296875" style="4"/>
+    <col min="2" max="2" width="1.7265625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="62.54296875" style="4"/>
+    <col min="4" max="4" width="1.7265625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="62.54296875" style="4"/>
+    <col min="6" max="6" width="1.7265625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="62.54296875" style="4"/>
+    <col min="8" max="8" width="1.7265625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.26953125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="1.7265625" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="62.54296875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
@@ -736,7 +712,7 @@
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
     </row>
-    <row r="2" spans="1:10" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -758,7 +734,7 @@
       </c>
       <c r="J2" s="17"/>
     </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -777,7 +753,7 @@
       <c r="H3" s="17"/>
       <c r="J3" s="17"/>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -796,7 +772,7 @@
       <c r="H4" s="17"/>
       <c r="J4" s="17"/>
     </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -818,7 +794,7 @@
       </c>
       <c r="J5" s="17"/>
     </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
@@ -840,7 +816,7 @@
       </c>
       <c r="J6" s="17"/>
     </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
@@ -862,7 +838,7 @@
       </c>
       <c r="J7" s="17"/>
     </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -881,7 +857,7 @@
       <c r="H8" s="17"/>
       <c r="J8" s="17"/>
     </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>31</v>
       </c>
@@ -903,7 +879,7 @@
       </c>
       <c r="J9" s="17"/>
     </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>32</v>
       </c>
@@ -925,7 +901,7 @@
       </c>
       <c r="J10" s="17"/>
     </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
@@ -947,140 +923,146 @@
       </c>
       <c r="J11" s="17"/>
     </row>
-    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="B12" s="17"/>
       <c r="D12" s="17"/>
       <c r="F12" s="17"/>
       <c r="H12" s="17"/>
+      <c r="I12" s="7">
+        <v>44208</v>
+      </c>
       <c r="J12" s="17"/>
     </row>
-    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="17"/>
       <c r="D13" s="17"/>
       <c r="F13" s="17"/>
       <c r="H13" s="17"/>
       <c r="J13" s="17"/>
     </row>
-    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="17"/>
       <c r="D14" s="17"/>
       <c r="F14" s="17"/>
       <c r="H14" s="17"/>
       <c r="J14" s="17"/>
     </row>
-    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="17"/>
       <c r="D15" s="17"/>
       <c r="F15" s="17"/>
       <c r="H15" s="17"/>
       <c r="J15" s="17"/>
     </row>
-    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="17"/>
       <c r="D16" s="17"/>
       <c r="F16" s="17"/>
       <c r="H16" s="17"/>
       <c r="J16" s="17"/>
     </row>
-    <row r="17" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="17"/>
       <c r="D17" s="17"/>
       <c r="F17" s="17"/>
       <c r="H17" s="17"/>
       <c r="J17" s="17"/>
     </row>
-    <row r="18" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="17"/>
       <c r="D18" s="17"/>
       <c r="F18" s="17"/>
       <c r="H18" s="17"/>
       <c r="J18" s="17"/>
     </row>
-    <row r="19" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="17"/>
       <c r="D19" s="17"/>
       <c r="F19" s="17"/>
       <c r="H19" s="17"/>
       <c r="J19" s="17"/>
     </row>
-    <row r="20" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="17"/>
       <c r="D20" s="17"/>
       <c r="F20" s="17"/>
       <c r="H20" s="17"/>
       <c r="J20" s="17"/>
     </row>
-    <row r="21" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="17"/>
       <c r="D21" s="17"/>
       <c r="F21" s="17"/>
       <c r="H21" s="17"/>
       <c r="J21" s="17"/>
     </row>
-    <row r="22" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="17"/>
       <c r="D22" s="17"/>
       <c r="F22" s="17"/>
       <c r="H22" s="17"/>
       <c r="J22" s="17"/>
     </row>
-    <row r="23" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="17"/>
       <c r="D23" s="17"/>
       <c r="F23" s="17"/>
       <c r="H23" s="17"/>
       <c r="J23" s="17"/>
     </row>
-    <row r="24" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="17"/>
       <c r="D24" s="17"/>
       <c r="F24" s="17"/>
       <c r="H24" s="17"/>
       <c r="J24" s="17"/>
     </row>
-    <row r="25" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="17"/>
       <c r="D25" s="17"/>
       <c r="F25" s="17"/>
       <c r="H25" s="17"/>
       <c r="J25" s="17"/>
     </row>
-    <row r="26" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="17"/>
       <c r="D26" s="17"/>
       <c r="F26" s="17"/>
       <c r="H26" s="17"/>
       <c r="J26" s="17"/>
     </row>
-    <row r="27" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="17"/>
       <c r="D27" s="17"/>
       <c r="F27" s="17"/>
       <c r="H27" s="17"/>
       <c r="J27" s="17"/>
     </row>
-    <row r="28" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="17"/>
       <c r="D28" s="17"/>
       <c r="F28" s="17"/>
       <c r="H28" s="17"/>
       <c r="J28" s="17"/>
     </row>
-    <row r="29" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="17"/>
       <c r="D29" s="17"/>
       <c r="F29" s="17"/>
       <c r="H29" s="17"/>
       <c r="J29" s="17"/>
     </row>
-    <row r="30" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="17"/>
       <c r="D30" s="17"/>
       <c r="F30" s="17"/>
       <c r="H30" s="17"/>
       <c r="J30" s="17"/>
     </row>
-    <row r="31" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="17"/>
       <c r="D31" s="17"/>
       <c r="F31" s="17"/>
@@ -1097,7 +1079,7 @@
     <mergeCell ref="B2:B31"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:I2 A1:G1 K1:XFD2 K5:XFD1048576 A5:I10 A12:I1048576 A11:B11 D11:I11">
-    <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="19" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1105,17 +1087,17 @@
     <cfRule type="containsBlanks" priority="17" stopIfTrue="1">
       <formula>LEN(TRIM(A5))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="18" operator="notEqual">
+    <cfRule type="cellIs" dxfId="9" priority="18" operator="notEqual">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2 J5:J1048576">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:I4 K4:XFD4">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1123,17 +1105,17 @@
     <cfRule type="containsBlanks" priority="9" stopIfTrue="1">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="notEqual">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="notEqual">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:XFD3 A3:I3">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1141,12 +1123,12 @@
     <cfRule type="containsBlanks" priority="5" stopIfTrue="1">
       <formula>LEN(TRIM(A3))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="notEqual">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="notEqual">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1169,19 +1151,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="22.7109375" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="22.7265625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="22.7109375" style="5"/>
+    <col min="1" max="16384" width="22.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>14</v>
       </c>
@@ -1192,7 +1174,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
@@ -1203,7 +1185,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="63" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -1214,7 +1196,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="42" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -1222,7 +1204,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="63" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -1230,7 +1212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="42" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
         <v>23</v>
       </c>

--- a/TableauDeBord.xlsx
+++ b/TableauDeBord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5344a3cd4eb43387/Bureau/Git/S3D_MyWishList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\GitHub\S3D_MyWishList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_842BB0AA252B807C6FC98388A41831C28DBF4DA1" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E04E2EAF-9989-4D3C-8758-9749CC5A9D9C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1907108-DCD8-4D67-8611-7613689B8F2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28020" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableauBord" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>BOUSSETTA Nael</t>
   </si>
@@ -135,6 +135,12 @@
   </si>
   <si>
     <t>Réservation item</t>
+  </si>
+  <si>
+    <t>Essaie correction AjoutMessage</t>
+  </si>
+  <si>
+    <t>correction bug mineur pour les items</t>
   </si>
 </sst>
 </file>
@@ -680,26 +686,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="62.54296875" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="62.5703125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.54296875" style="4"/>
-    <col min="2" max="2" width="1.7265625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="62.54296875" style="4"/>
-    <col min="4" max="4" width="1.7265625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="62.54296875" style="4"/>
-    <col min="6" max="6" width="1.7265625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="62.54296875" style="4"/>
-    <col min="8" max="8" width="1.7265625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="1.7265625" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="62.54296875" style="4"/>
+    <col min="1" max="1" width="62.5703125" style="4"/>
+    <col min="2" max="2" width="1.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="62.5703125" style="4"/>
+    <col min="4" max="4" width="1.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="62.5703125" style="4"/>
+    <col min="6" max="6" width="1.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="62.5703125" style="4"/>
+    <col min="8" max="8" width="1.7109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="1.7109375" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="62.5703125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
@@ -712,7 +718,7 @@
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
     </row>
-    <row r="2" spans="1:10" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -734,7 +740,7 @@
       </c>
       <c r="J2" s="17"/>
     </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -753,7 +759,7 @@
       <c r="H3" s="17"/>
       <c r="J3" s="17"/>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -772,7 +778,7 @@
       <c r="H4" s="17"/>
       <c r="J4" s="17"/>
     </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -794,7 +800,7 @@
       </c>
       <c r="J5" s="17"/>
     </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
@@ -816,7 +822,7 @@
       </c>
       <c r="J6" s="17"/>
     </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
@@ -838,7 +844,7 @@
       </c>
       <c r="J7" s="17"/>
     </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -857,7 +863,7 @@
       <c r="H8" s="17"/>
       <c r="J8" s="17"/>
     </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>31</v>
       </c>
@@ -879,7 +885,7 @@
       </c>
       <c r="J9" s="17"/>
     </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>32</v>
       </c>
@@ -901,7 +907,7 @@
       </c>
       <c r="J10" s="17"/>
     </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
@@ -923,146 +929,155 @@
       </c>
       <c r="J11" s="17"/>
     </row>
-    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="17"/>
       <c r="D12" s="17"/>
       <c r="F12" s="17"/>
+      <c r="G12" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="H12" s="17"/>
       <c r="I12" s="7">
         <v>44208</v>
       </c>
       <c r="J12" s="17"/>
     </row>
-    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="17"/>
       <c r="D13" s="17"/>
       <c r="F13" s="17"/>
+      <c r="G13" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="H13" s="17"/>
+      <c r="I13" s="7">
+        <v>44208</v>
+      </c>
       <c r="J13" s="17"/>
     </row>
-    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="17"/>
       <c r="D14" s="17"/>
       <c r="F14" s="17"/>
       <c r="H14" s="17"/>
       <c r="J14" s="17"/>
     </row>
-    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="17"/>
       <c r="D15" s="17"/>
       <c r="F15" s="17"/>
       <c r="H15" s="17"/>
       <c r="J15" s="17"/>
     </row>
-    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="17"/>
       <c r="D16" s="17"/>
       <c r="F16" s="17"/>
       <c r="H16" s="17"/>
       <c r="J16" s="17"/>
     </row>
-    <row r="17" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="17"/>
       <c r="D17" s="17"/>
       <c r="F17" s="17"/>
       <c r="H17" s="17"/>
       <c r="J17" s="17"/>
     </row>
-    <row r="18" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="17"/>
       <c r="D18" s="17"/>
       <c r="F18" s="17"/>
       <c r="H18" s="17"/>
       <c r="J18" s="17"/>
     </row>
-    <row r="19" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="17"/>
       <c r="D19" s="17"/>
       <c r="F19" s="17"/>
       <c r="H19" s="17"/>
       <c r="J19" s="17"/>
     </row>
-    <row r="20" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="17"/>
       <c r="D20" s="17"/>
       <c r="F20" s="17"/>
       <c r="H20" s="17"/>
       <c r="J20" s="17"/>
     </row>
-    <row r="21" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="17"/>
       <c r="D21" s="17"/>
       <c r="F21" s="17"/>
       <c r="H21" s="17"/>
       <c r="J21" s="17"/>
     </row>
-    <row r="22" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="17"/>
       <c r="D22" s="17"/>
       <c r="F22" s="17"/>
       <c r="H22" s="17"/>
       <c r="J22" s="17"/>
     </row>
-    <row r="23" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="17"/>
       <c r="D23" s="17"/>
       <c r="F23" s="17"/>
       <c r="H23" s="17"/>
       <c r="J23" s="17"/>
     </row>
-    <row r="24" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="17"/>
       <c r="D24" s="17"/>
       <c r="F24" s="17"/>
       <c r="H24" s="17"/>
       <c r="J24" s="17"/>
     </row>
-    <row r="25" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="17"/>
       <c r="D25" s="17"/>
       <c r="F25" s="17"/>
       <c r="H25" s="17"/>
       <c r="J25" s="17"/>
     </row>
-    <row r="26" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="17"/>
       <c r="D26" s="17"/>
       <c r="F26" s="17"/>
       <c r="H26" s="17"/>
       <c r="J26" s="17"/>
     </row>
-    <row r="27" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="17"/>
       <c r="D27" s="17"/>
       <c r="F27" s="17"/>
       <c r="H27" s="17"/>
       <c r="J27" s="17"/>
     </row>
-    <row r="28" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="17"/>
       <c r="D28" s="17"/>
       <c r="F28" s="17"/>
       <c r="H28" s="17"/>
       <c r="J28" s="17"/>
     </row>
-    <row r="29" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="17"/>
       <c r="D29" s="17"/>
       <c r="F29" s="17"/>
       <c r="H29" s="17"/>
       <c r="J29" s="17"/>
     </row>
-    <row r="30" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="17"/>
       <c r="D30" s="17"/>
       <c r="F30" s="17"/>
       <c r="H30" s="17"/>
       <c r="J30" s="17"/>
     </row>
-    <row r="31" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="17"/>
       <c r="D31" s="17"/>
       <c r="F31" s="17"/>
@@ -1158,12 +1173,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="22.7265625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="22.7109375" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="22.7265625" style="5"/>
+    <col min="1" max="16384" width="22.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>14</v>
       </c>
@@ -1174,7 +1189,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
@@ -1185,7 +1200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="63" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -1196,7 +1211,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="42" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -1204,7 +1219,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="63" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -1212,7 +1227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="42" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>23</v>
       </c>

--- a/TableauDeBord.xlsx
+++ b/TableauDeBord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\GitHub\S3D_MyWishList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1907108-DCD8-4D67-8611-7613689B8F2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EE981D-D34F-4607-9895-C6D7739ECE60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28020" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
   <si>
     <t>BOUSSETTA Nael</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>correction bug mineur pour les items</t>
+  </si>
+  <si>
+    <t>AjoutMessage</t>
   </si>
 </sst>
 </file>
@@ -686,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="62.5703125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -934,7 +937,13 @@
         <v>35</v>
       </c>
       <c r="B12" s="17"/>
+      <c r="C12" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="D12" s="17"/>
+      <c r="E12" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="F12" s="17"/>
       <c r="G12" s="4" t="s">
         <v>36</v>
@@ -946,8 +955,17 @@
       <c r="J12" s="17"/>
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="B13" s="17"/>
+      <c r="C13" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="D13" s="17"/>
+      <c r="E13" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="F13" s="17"/>
       <c r="G13" s="4" t="s">
         <v>37</v>
@@ -959,10 +977,25 @@
       <c r="J13" s="17"/>
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="B14" s="17"/>
+      <c r="C14" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="D14" s="17"/>
+      <c r="E14" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="F14" s="17"/>
+      <c r="G14" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="H14" s="17"/>
+      <c r="I14" s="7">
+        <v>44208</v>
+      </c>
       <c r="J14" s="17"/>
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/TableauDeBord.xlsx
+++ b/TableauDeBord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\GitHub\S3D_MyWishList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EE981D-D34F-4607-9895-C6D7739ECE60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5393C729-2426-4A19-8E9B-68C47B00BC5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28020" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26010" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableauBord" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
   <si>
     <t>BOUSSETTA Nael</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>AjoutMessage</t>
+  </si>
+  <si>
+    <t>Deconnexion</t>
   </si>
 </sst>
 </file>
@@ -689,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="62.5703125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1002,7 +1005,13 @@
       <c r="B15" s="17"/>
       <c r="D15" s="17"/>
       <c r="F15" s="17"/>
+      <c r="G15" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="H15" s="17"/>
+      <c r="I15" s="7">
+        <v>44211</v>
+      </c>
       <c r="J15" s="17"/>
     </row>
     <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/TableauDeBord.xlsx
+++ b/TableauDeBord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\GitHub\S3D_MyWishList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5393C729-2426-4A19-8E9B-68C47B00BC5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1674F0CF-B0BE-4E44-ACBB-4D00E2B8BAA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26010" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4965" yWindow="1305" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableauBord" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
   <si>
     <t>BOUSSETTA Nael</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>Deconnexion</t>
+  </si>
+  <si>
+    <t>Affichage item dans la liste</t>
+  </si>
+  <si>
+    <t>amelioration reservation</t>
   </si>
 </sst>
 </file>
@@ -693,7 +699,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="62.5703125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1018,14 +1024,26 @@
       <c r="B16" s="17"/>
       <c r="D16" s="17"/>
       <c r="F16" s="17"/>
+      <c r="G16" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="H16" s="17"/>
+      <c r="I16" s="7">
+        <v>44212</v>
+      </c>
       <c r="J16" s="17"/>
     </row>
     <row r="17" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="17"/>
       <c r="D17" s="17"/>
       <c r="F17" s="17"/>
+      <c r="G17" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="H17" s="17"/>
+      <c r="I17" s="7">
+        <v>44212</v>
+      </c>
       <c r="J17" s="17"/>
     </row>
     <row r="18" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/TableauDeBord.xlsx
+++ b/TableauDeBord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\GitHub\S3D_MyWishList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5344a3cd4eb43387/Bureau/Git/S3D_MyWishList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1674F0CF-B0BE-4E44-ACBB-4D00E2B8BAA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{1674F0CF-B0BE-4E44-ACBB-4D00E2B8BAA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{35A12F5E-89CD-4023-893B-08E3D556C1D7}"/>
   <bookViews>
-    <workbookView xWindow="4965" yWindow="1305" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableauBord" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="44">
   <si>
     <t>BOUSSETTA Nael</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>amelioration reservation</t>
+  </si>
+  <si>
+    <t>Ajout du CSS</t>
+  </si>
+  <si>
+    <t>Modif CSS</t>
   </si>
 </sst>
 </file>
@@ -698,26 +704,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="62.5703125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="62.54296875" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="62.5703125" style="4"/>
-    <col min="2" max="2" width="1.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="62.5703125" style="4"/>
-    <col min="4" max="4" width="1.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="62.5703125" style="4"/>
-    <col min="6" max="6" width="1.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="62.5703125" style="4"/>
-    <col min="8" max="8" width="1.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="1.7109375" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="62.5703125" style="4"/>
+    <col min="1" max="1" width="62.54296875" style="4"/>
+    <col min="2" max="2" width="1.7265625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="62.54296875" style="4"/>
+    <col min="4" max="4" width="1.7265625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="62.54296875" style="4"/>
+    <col min="6" max="6" width="1.7265625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="62.54296875" style="4"/>
+    <col min="8" max="8" width="1.7265625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.26953125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="1.7265625" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="62.54296875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
@@ -730,7 +736,7 @@
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
     </row>
-    <row r="2" spans="1:10" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -752,7 +758,7 @@
       </c>
       <c r="J2" s="17"/>
     </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -771,7 +777,7 @@
       <c r="H3" s="17"/>
       <c r="J3" s="17"/>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -790,7 +796,7 @@
       <c r="H4" s="17"/>
       <c r="J4" s="17"/>
     </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -812,7 +818,7 @@
       </c>
       <c r="J5" s="17"/>
     </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
@@ -834,7 +840,7 @@
       </c>
       <c r="J6" s="17"/>
     </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
@@ -856,7 +862,7 @@
       </c>
       <c r="J7" s="17"/>
     </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -875,7 +881,7 @@
       <c r="H8" s="17"/>
       <c r="J8" s="17"/>
     </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>31</v>
       </c>
@@ -897,7 +903,7 @@
       </c>
       <c r="J9" s="17"/>
     </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>32</v>
       </c>
@@ -919,7 +925,7 @@
       </c>
       <c r="J10" s="17"/>
     </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
@@ -941,7 +947,7 @@
       </c>
       <c r="J11" s="17"/>
     </row>
-    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>35</v>
       </c>
@@ -963,7 +969,7 @@
       </c>
       <c r="J12" s="17"/>
     </row>
-    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -985,9 +991,9 @@
       </c>
       <c r="J13" s="17"/>
     </row>
-    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="4" t="s">
@@ -1007,9 +1013,18 @@
       </c>
       <c r="J14" s="17"/>
     </row>
-    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="B15" s="17"/>
+      <c r="C15" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="D15" s="17"/>
+      <c r="E15" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="F15" s="17"/>
       <c r="G15" s="4" t="s">
         <v>39</v>
@@ -1020,9 +1035,18 @@
       </c>
       <c r="J15" s="17"/>
     </row>
-    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="B16" s="17"/>
+      <c r="C16" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="D16" s="17"/>
+      <c r="E16" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="F16" s="17"/>
       <c r="G16" s="4" t="s">
         <v>40</v>
@@ -1033,9 +1057,18 @@
       </c>
       <c r="J16" s="17"/>
     </row>
-    <row r="17" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="B17" s="17"/>
+      <c r="C17" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="D17" s="17"/>
+      <c r="E17" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="F17" s="17"/>
       <c r="G17" s="4" t="s">
         <v>41</v>
@@ -1046,98 +1079,98 @@
       </c>
       <c r="J17" s="17"/>
     </row>
-    <row r="18" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="17"/>
       <c r="D18" s="17"/>
       <c r="F18" s="17"/>
       <c r="H18" s="17"/>
       <c r="J18" s="17"/>
     </row>
-    <row r="19" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="17"/>
       <c r="D19" s="17"/>
       <c r="F19" s="17"/>
       <c r="H19" s="17"/>
       <c r="J19" s="17"/>
     </row>
-    <row r="20" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="17"/>
       <c r="D20" s="17"/>
       <c r="F20" s="17"/>
       <c r="H20" s="17"/>
       <c r="J20" s="17"/>
     </row>
-    <row r="21" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="17"/>
       <c r="D21" s="17"/>
       <c r="F21" s="17"/>
       <c r="H21" s="17"/>
       <c r="J21" s="17"/>
     </row>
-    <row r="22" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="17"/>
       <c r="D22" s="17"/>
       <c r="F22" s="17"/>
       <c r="H22" s="17"/>
       <c r="J22" s="17"/>
     </row>
-    <row r="23" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="17"/>
       <c r="D23" s="17"/>
       <c r="F23" s="17"/>
       <c r="H23" s="17"/>
       <c r="J23" s="17"/>
     </row>
-    <row r="24" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="17"/>
       <c r="D24" s="17"/>
       <c r="F24" s="17"/>
       <c r="H24" s="17"/>
       <c r="J24" s="17"/>
     </row>
-    <row r="25" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="17"/>
       <c r="D25" s="17"/>
       <c r="F25" s="17"/>
       <c r="H25" s="17"/>
       <c r="J25" s="17"/>
     </row>
-    <row r="26" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="17"/>
       <c r="D26" s="17"/>
       <c r="F26" s="17"/>
       <c r="H26" s="17"/>
       <c r="J26" s="17"/>
     </row>
-    <row r="27" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="17"/>
       <c r="D27" s="17"/>
       <c r="F27" s="17"/>
       <c r="H27" s="17"/>
       <c r="J27" s="17"/>
     </row>
-    <row r="28" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="17"/>
       <c r="D28" s="17"/>
       <c r="F28" s="17"/>
       <c r="H28" s="17"/>
       <c r="J28" s="17"/>
     </row>
-    <row r="29" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="17"/>
       <c r="D29" s="17"/>
       <c r="F29" s="17"/>
       <c r="H29" s="17"/>
       <c r="J29" s="17"/>
     </row>
-    <row r="30" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="17"/>
       <c r="D30" s="17"/>
       <c r="F30" s="17"/>
       <c r="H30" s="17"/>
       <c r="J30" s="17"/>
     </row>
-    <row r="31" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="17"/>
       <c r="D31" s="17"/>
       <c r="F31" s="17"/>
@@ -1233,12 +1266,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="22.7109375" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="22.7265625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="22.7109375" style="5"/>
+    <col min="1" max="16384" width="22.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>14</v>
       </c>
@@ -1249,7 +1282,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
@@ -1260,7 +1293,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="63" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -1271,7 +1304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="42" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -1279,7 +1312,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="63" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -1287,7 +1320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="42" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
         <v>23</v>
       </c>

--- a/TableauDeBord.xlsx
+++ b/TableauDeBord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5344a3cd4eb43387/Bureau/Git/S3D_MyWishList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{1674F0CF-B0BE-4E44-ACBB-4D00E2B8BAA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{35A12F5E-89CD-4023-893B-08E3D556C1D7}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{1674F0CF-B0BE-4E44-ACBB-4D00E2B8BAA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DD4A5AA0-A6B9-4030-9246-A8C1601DFD27}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="45">
   <si>
     <t>BOUSSETTA Nael</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>Modif CSS</t>
+  </si>
+  <si>
+    <t>Ajouter une image à un item</t>
   </si>
 </sst>
 </file>
@@ -704,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="62.54296875" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1080,10 +1083,16 @@
       <c r="J17" s="17"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="B18" s="17"/>
       <c r="D18" s="17"/>
       <c r="F18" s="17"/>
       <c r="H18" s="17"/>
+      <c r="I18" s="7">
+        <v>44213</v>
+      </c>
       <c r="J18" s="17"/>
     </row>
     <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">

--- a/TableauDeBord.xlsx
+++ b/TableauDeBord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5344a3cd4eb43387/Bureau/Git/S3D_MyWishList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\GitHub\S3D_MyWishList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{1674F0CF-B0BE-4E44-ACBB-4D00E2B8BAA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DD4A5AA0-A6B9-4030-9246-A8C1601DFD27}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B924EDF6-33EE-4750-86F6-FDE9BAED9D64}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4965" yWindow="1305" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableauBord" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
   <si>
     <t>BOUSSETTA Nael</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t>Ajouter une image à un item</t>
+  </si>
+  <si>
+    <t>amelioration suppression</t>
+  </si>
+  <si>
+    <t>amelioration modification</t>
   </si>
 </sst>
 </file>
@@ -707,26 +713,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="62.54296875" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="62.5703125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.54296875" style="4"/>
-    <col min="2" max="2" width="1.7265625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="62.54296875" style="4"/>
-    <col min="4" max="4" width="1.7265625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="62.54296875" style="4"/>
-    <col min="6" max="6" width="1.7265625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="62.54296875" style="4"/>
-    <col min="8" max="8" width="1.7265625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="1.7265625" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="62.54296875" style="4"/>
+    <col min="1" max="1" width="62.5703125" style="4"/>
+    <col min="2" max="2" width="1.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="62.5703125" style="4"/>
+    <col min="4" max="4" width="1.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="62.5703125" style="4"/>
+    <col min="6" max="6" width="1.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="62.5703125" style="4"/>
+    <col min="8" max="8" width="1.7109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="1.7109375" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="62.5703125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
@@ -739,7 +745,7 @@
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
     </row>
-    <row r="2" spans="1:10" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -761,7 +767,7 @@
       </c>
       <c r="J2" s="17"/>
     </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -780,7 +786,7 @@
       <c r="H3" s="17"/>
       <c r="J3" s="17"/>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -799,7 +805,7 @@
       <c r="H4" s="17"/>
       <c r="J4" s="17"/>
     </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -821,7 +827,7 @@
       </c>
       <c r="J5" s="17"/>
     </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
@@ -843,7 +849,7 @@
       </c>
       <c r="J6" s="17"/>
     </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
@@ -865,7 +871,7 @@
       </c>
       <c r="J7" s="17"/>
     </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -884,7 +890,7 @@
       <c r="H8" s="17"/>
       <c r="J8" s="17"/>
     </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>31</v>
       </c>
@@ -906,7 +912,7 @@
       </c>
       <c r="J9" s="17"/>
     </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>32</v>
       </c>
@@ -928,7 +934,7 @@
       </c>
       <c r="J10" s="17"/>
     </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
@@ -950,7 +956,7 @@
       </c>
       <c r="J11" s="17"/>
     </row>
-    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>35</v>
       </c>
@@ -972,7 +978,7 @@
       </c>
       <c r="J12" s="17"/>
     </row>
-    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -994,7 +1000,7 @@
       </c>
       <c r="J13" s="17"/>
     </row>
-    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>42</v>
       </c>
@@ -1016,7 +1022,7 @@
       </c>
       <c r="J14" s="17"/>
     </row>
-    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>6</v>
       </c>
@@ -1038,7 +1044,7 @@
       </c>
       <c r="J15" s="17"/>
     </row>
-    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>6</v>
       </c>
@@ -1060,7 +1066,7 @@
       </c>
       <c r="J16" s="17"/>
     </row>
-    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>43</v>
       </c>
@@ -1082,104 +1088,143 @@
       </c>
       <c r="J17" s="17"/>
     </row>
-    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B18" s="17"/>
+      <c r="C18" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="D18" s="17"/>
+      <c r="E18" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="F18" s="17"/>
+      <c r="G18" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="H18" s="17"/>
       <c r="I18" s="7">
         <v>44213</v>
       </c>
       <c r="J18" s="17"/>
     </row>
-    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="B19" s="17"/>
+      <c r="C19" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="D19" s="17"/>
+      <c r="E19" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="F19" s="17"/>
+      <c r="G19" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="H19" s="17"/>
+      <c r="I19" s="7">
+        <v>44214</v>
+      </c>
       <c r="J19" s="17"/>
     </row>
-    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="B20" s="17"/>
+      <c r="C20" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="D20" s="17"/>
+      <c r="E20" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="F20" s="17"/>
+      <c r="G20" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="H20" s="17"/>
+      <c r="I20" s="7">
+        <v>44214</v>
+      </c>
       <c r="J20" s="17"/>
     </row>
-    <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="17"/>
       <c r="D21" s="17"/>
       <c r="F21" s="17"/>
       <c r="H21" s="17"/>
       <c r="J21" s="17"/>
     </row>
-    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="17"/>
       <c r="D22" s="17"/>
       <c r="F22" s="17"/>
       <c r="H22" s="17"/>
       <c r="J22" s="17"/>
     </row>
-    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="17"/>
       <c r="D23" s="17"/>
       <c r="F23" s="17"/>
       <c r="H23" s="17"/>
       <c r="J23" s="17"/>
     </row>
-    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="17"/>
       <c r="D24" s="17"/>
       <c r="F24" s="17"/>
       <c r="H24" s="17"/>
       <c r="J24" s="17"/>
     </row>
-    <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="17"/>
       <c r="D25" s="17"/>
       <c r="F25" s="17"/>
       <c r="H25" s="17"/>
       <c r="J25" s="17"/>
     </row>
-    <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="17"/>
       <c r="D26" s="17"/>
       <c r="F26" s="17"/>
       <c r="H26" s="17"/>
       <c r="J26" s="17"/>
     </row>
-    <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="17"/>
       <c r="D27" s="17"/>
       <c r="F27" s="17"/>
       <c r="H27" s="17"/>
       <c r="J27" s="17"/>
     </row>
-    <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="17"/>
       <c r="D28" s="17"/>
       <c r="F28" s="17"/>
       <c r="H28" s="17"/>
       <c r="J28" s="17"/>
     </row>
-    <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="17"/>
       <c r="D29" s="17"/>
       <c r="F29" s="17"/>
       <c r="H29" s="17"/>
       <c r="J29" s="17"/>
     </row>
-    <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="17"/>
       <c r="D30" s="17"/>
       <c r="F30" s="17"/>
       <c r="H30" s="17"/>
       <c r="J30" s="17"/>
     </row>
-    <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="17"/>
       <c r="D31" s="17"/>
       <c r="F31" s="17"/>
@@ -1275,12 +1320,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="22.7265625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="22.7109375" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="22.7265625" style="5"/>
+    <col min="1" max="16384" width="22.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>14</v>
       </c>
@@ -1291,7 +1336,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
@@ -1302,7 +1347,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="63" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -1313,7 +1358,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="42" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -1321,7 +1366,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="63" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -1329,7 +1374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="42" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>23</v>
       </c>

--- a/TableauDeBord.xlsx
+++ b/TableauDeBord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\GitHub\S3D_MyWishList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PHP\S3D_MyWishList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B924EDF6-33EE-4750-86F6-FDE9BAED9D64}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4920073-57BC-46B9-9689-00B88B59B0E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4965" yWindow="1305" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableauBord" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
   <si>
     <t>BOUSSETTA Nael</t>
   </si>
@@ -168,6 +168,21 @@
   </si>
   <si>
     <t>amelioration modification</t>
+  </si>
+  <si>
+    <t>Correction de multiple erreurs pour plusieurs</t>
+  </si>
+  <si>
+    <t>personne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adaptation du site en fonction de la </t>
+  </si>
+  <si>
+    <t>connection</t>
+  </si>
+  <si>
+    <t>mise à jour du css</t>
   </si>
 </sst>
 </file>
@@ -713,26 +728,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="62.5703125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="62.5546875" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="62.5703125" style="4"/>
-    <col min="2" max="2" width="1.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="62.5703125" style="4"/>
-    <col min="4" max="4" width="1.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="62.5703125" style="4"/>
-    <col min="6" max="6" width="1.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="62.5703125" style="4"/>
-    <col min="8" max="8" width="1.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="1.7109375" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="62.5703125" style="4"/>
+    <col min="1" max="1" width="62.5546875" style="4"/>
+    <col min="2" max="2" width="1.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="62.5546875" style="4"/>
+    <col min="4" max="4" width="1.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="62.5546875" style="4"/>
+    <col min="6" max="6" width="1.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="62.5546875" style="4"/>
+    <col min="8" max="8" width="1.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="1.6640625" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="62.5546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
@@ -745,7 +760,7 @@
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
     </row>
-    <row r="2" spans="1:10" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -767,7 +782,7 @@
       </c>
       <c r="J2" s="17"/>
     </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -786,7 +801,7 @@
       <c r="H3" s="17"/>
       <c r="J3" s="17"/>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -805,7 +820,7 @@
       <c r="H4" s="17"/>
       <c r="J4" s="17"/>
     </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -827,7 +842,7 @@
       </c>
       <c r="J5" s="17"/>
     </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
@@ -849,7 +864,7 @@
       </c>
       <c r="J6" s="17"/>
     </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
@@ -871,7 +886,7 @@
       </c>
       <c r="J7" s="17"/>
     </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -890,7 +905,7 @@
       <c r="H8" s="17"/>
       <c r="J8" s="17"/>
     </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>31</v>
       </c>
@@ -912,7 +927,7 @@
       </c>
       <c r="J9" s="17"/>
     </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>32</v>
       </c>
@@ -934,7 +949,7 @@
       </c>
       <c r="J10" s="17"/>
     </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
@@ -956,7 +971,7 @@
       </c>
       <c r="J11" s="17"/>
     </row>
-    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>35</v>
       </c>
@@ -978,7 +993,7 @@
       </c>
       <c r="J12" s="17"/>
     </row>
-    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -1000,7 +1015,7 @@
       </c>
       <c r="J13" s="17"/>
     </row>
-    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>42</v>
       </c>
@@ -1022,7 +1037,7 @@
       </c>
       <c r="J14" s="17"/>
     </row>
-    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>6</v>
       </c>
@@ -1044,7 +1059,7 @@
       </c>
       <c r="J15" s="17"/>
     </row>
-    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>6</v>
       </c>
@@ -1066,7 +1081,7 @@
       </c>
       <c r="J16" s="17"/>
     </row>
-    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>43</v>
       </c>
@@ -1076,7 +1091,7 @@
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="4" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="4" t="s">
@@ -1088,7 +1103,7 @@
       </c>
       <c r="J17" s="17"/>
     </row>
-    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>44</v>
       </c>
@@ -1098,7 +1113,7 @@
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="4" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="4" t="s">
@@ -1110,7 +1125,7 @@
       </c>
       <c r="J18" s="17"/>
     </row>
-    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>6</v>
       </c>
@@ -1120,7 +1135,7 @@
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="4" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="4" t="s">
@@ -1132,7 +1147,7 @@
       </c>
       <c r="J19" s="17"/>
     </row>
-    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>6</v>
       </c>
@@ -1142,7 +1157,7 @@
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="4" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="4" t="s">
@@ -1154,77 +1169,92 @@
       </c>
       <c r="J20" s="17"/>
     </row>
-    <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="B21" s="17"/>
+      <c r="C21" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="D21" s="17"/>
+      <c r="E21" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="F21" s="17"/>
+      <c r="G21" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="H21" s="17"/>
+      <c r="I21" s="7">
+        <v>44214</v>
+      </c>
       <c r="J21" s="17"/>
     </row>
-    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="17"/>
       <c r="D22" s="17"/>
       <c r="F22" s="17"/>
       <c r="H22" s="17"/>
       <c r="J22" s="17"/>
     </row>
-    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="17"/>
       <c r="D23" s="17"/>
       <c r="F23" s="17"/>
       <c r="H23" s="17"/>
       <c r="J23" s="17"/>
     </row>
-    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="17"/>
       <c r="D24" s="17"/>
       <c r="F24" s="17"/>
       <c r="H24" s="17"/>
       <c r="J24" s="17"/>
     </row>
-    <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="17"/>
       <c r="D25" s="17"/>
       <c r="F25" s="17"/>
       <c r="H25" s="17"/>
       <c r="J25" s="17"/>
     </row>
-    <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="17"/>
       <c r="D26" s="17"/>
       <c r="F26" s="17"/>
       <c r="H26" s="17"/>
       <c r="J26" s="17"/>
     </row>
-    <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="17"/>
       <c r="D27" s="17"/>
       <c r="F27" s="17"/>
       <c r="H27" s="17"/>
       <c r="J27" s="17"/>
     </row>
-    <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="17"/>
       <c r="D28" s="17"/>
       <c r="F28" s="17"/>
       <c r="H28" s="17"/>
       <c r="J28" s="17"/>
     </row>
-    <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="17"/>
       <c r="D29" s="17"/>
       <c r="F29" s="17"/>
       <c r="H29" s="17"/>
       <c r="J29" s="17"/>
     </row>
-    <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="17"/>
       <c r="D30" s="17"/>
       <c r="F30" s="17"/>
       <c r="H30" s="17"/>
       <c r="J30" s="17"/>
     </row>
-    <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="17"/>
       <c r="D31" s="17"/>
       <c r="F31" s="17"/>
@@ -1320,12 +1350,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="22.7109375" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="22.6640625" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="22.7109375" style="5"/>
+    <col min="1" max="16384" width="22.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>14</v>
       </c>
@@ -1336,7 +1366,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
@@ -1347,7 +1377,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="63" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -1358,7 +1388,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -1366,7 +1396,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="63" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -1374,7 +1404,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>23</v>
       </c>

--- a/TableauDeBord.xlsx
+++ b/TableauDeBord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PHP\S3D_MyWishList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\GitHub\S3D_MyWishList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4920073-57BC-46B9-9689-00B88B59B0E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B84FE0A-9556-4C9D-BAF6-7CD59572C695}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableauBord" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="63">
   <si>
     <t>BOUSSETTA Nael</t>
   </si>
@@ -164,12 +164,6 @@
     <t>Ajouter une image à un item</t>
   </si>
   <si>
-    <t>amelioration suppression</t>
-  </si>
-  <si>
-    <t>amelioration modification</t>
-  </si>
-  <si>
     <t>Correction de multiple erreurs pour plusieurs</t>
   </si>
   <si>
@@ -183,6 +177,45 @@
   </si>
   <si>
     <t>mise à jour du css</t>
+  </si>
+  <si>
+    <t>changement fichier sql</t>
+  </si>
+  <si>
+    <t>grande amelioration affichage liste</t>
+  </si>
+  <si>
+    <t>amelioration affichage item</t>
+  </si>
+  <si>
+    <t>amelioration modification liste</t>
+  </si>
+  <si>
+    <t>amelioration suppression liste</t>
+  </si>
+  <si>
+    <t>amelioration modification item</t>
+  </si>
+  <si>
+    <t>amelioration suppression item</t>
+  </si>
+  <si>
+    <t>amelioration partage url</t>
+  </si>
+  <si>
+    <t>amelioration ajout message a une liste</t>
+  </si>
+  <si>
+    <t>affichage des messages ajouté</t>
+  </si>
+  <si>
+    <t>amelioration creation liste</t>
+  </si>
+  <si>
+    <t>amelioration creation item</t>
+  </si>
+  <si>
+    <t>affichage item déjà reservé</t>
   </si>
 </sst>
 </file>
@@ -362,10 +395,10 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -726,556 +759,922 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="62.5546875" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="62.5703125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.5546875" style="4"/>
-    <col min="2" max="2" width="1.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="62.5546875" style="4"/>
-    <col min="4" max="4" width="1.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="62.5546875" style="4"/>
-    <col min="6" max="6" width="1.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="62.5546875" style="4"/>
-    <col min="8" max="8" width="1.6640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="1.6640625" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="62.5546875" style="4"/>
+    <col min="1" max="1" width="62.5703125" style="4"/>
+    <col min="2" max="2" width="1.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="62.5703125" style="4"/>
+    <col min="4" max="4" width="1.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="62.5703125" style="4"/>
+    <col min="6" max="6" width="1.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="62.5703125" style="4"/>
+    <col min="8" max="8" width="1.7109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="1.7109375" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="62.5703125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-    </row>
-    <row r="2" spans="1:10" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+    </row>
+    <row r="2" spans="1:10" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17"/>
+      <c r="D2" s="16"/>
       <c r="E2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="17"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="17"/>
+      <c r="H2" s="16"/>
       <c r="I2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="17"/>
-    </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="16"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="17"/>
+      <c r="D3" s="16"/>
       <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="17"/>
+      <c r="F3" s="16"/>
       <c r="G3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="16"/>
+      <c r="J3" s="16"/>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="17"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="17"/>
+      <c r="F4" s="16"/>
       <c r="G4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="16"/>
+      <c r="J4" s="16"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="17"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="17"/>
+      <c r="F5" s="16"/>
       <c r="G5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="17"/>
+      <c r="H5" s="16"/>
       <c r="I5" s="7">
         <v>44199</v>
       </c>
-      <c r="J5" s="17"/>
-    </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="17"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="17"/>
+      <c r="F6" s="16"/>
       <c r="G6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="17"/>
+      <c r="H6" s="16"/>
       <c r="I6" s="7">
         <v>44199</v>
       </c>
-      <c r="J6" s="17"/>
-    </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="17"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="17"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="17"/>
+      <c r="F7" s="16"/>
       <c r="G7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="17"/>
+      <c r="H7" s="16"/>
       <c r="I7" s="7">
         <v>44201</v>
       </c>
-      <c r="J7" s="17"/>
-    </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="17"/>
+      <c r="F8" s="16"/>
       <c r="G8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="J8" s="17"/>
-    </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="16"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="17"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="17"/>
+      <c r="H9" s="16"/>
       <c r="I9" s="7">
         <v>44203</v>
       </c>
-      <c r="J9" s="17"/>
-    </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="17"/>
+      <c r="F10" s="16"/>
       <c r="G10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="17"/>
+      <c r="H10" s="16"/>
       <c r="I10" s="7">
         <v>44203</v>
       </c>
-      <c r="J10" s="17"/>
-    </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="17"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="17"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="17"/>
+      <c r="H11" s="16"/>
       <c r="I11" s="7">
         <v>44206</v>
       </c>
-      <c r="J11" s="17"/>
-    </row>
-    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="17"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="17"/>
+      <c r="F12" s="16"/>
       <c r="G12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="17"/>
+      <c r="H12" s="16"/>
       <c r="I12" s="7">
         <v>44208</v>
       </c>
-      <c r="J12" s="17"/>
-    </row>
-    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="17"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="17"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="17"/>
+      <c r="F13" s="16"/>
       <c r="G13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="17"/>
+      <c r="H13" s="16"/>
       <c r="I13" s="7">
         <v>44208</v>
       </c>
-      <c r="J13" s="17"/>
-    </row>
-    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="17"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="17"/>
+      <c r="F14" s="16"/>
       <c r="G14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="17"/>
+      <c r="H14" s="16"/>
       <c r="I14" s="7">
         <v>44208</v>
       </c>
-      <c r="J14" s="17"/>
-    </row>
-    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="17"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="17"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="17"/>
+      <c r="F15" s="16"/>
       <c r="G15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="17"/>
+      <c r="H15" s="16"/>
       <c r="I15" s="7">
         <v>44211</v>
       </c>
-      <c r="J15" s="17"/>
-    </row>
-    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="17"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="17"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="17"/>
+      <c r="F16" s="16"/>
       <c r="G16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="17"/>
+      <c r="H16" s="16"/>
       <c r="I16" s="7">
         <v>44212</v>
       </c>
-      <c r="J16" s="17"/>
-    </row>
-    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="17"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="17"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="17"/>
+        <v>45</v>
+      </c>
+      <c r="F17" s="16"/>
       <c r="G17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="17"/>
+      <c r="H17" s="16"/>
       <c r="I17" s="7">
         <v>44212</v>
       </c>
-      <c r="J17" s="17"/>
-    </row>
-    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="17"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="17"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="17"/>
+        <v>46</v>
+      </c>
+      <c r="F18" s="16"/>
       <c r="G18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="17"/>
+      <c r="H18" s="16"/>
       <c r="I18" s="7">
         <v>44213</v>
       </c>
-      <c r="J18" s="17"/>
-    </row>
-    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="17"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="17"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="17"/>
+        <v>47</v>
+      </c>
+      <c r="F19" s="16"/>
       <c r="G19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" s="17"/>
+        <v>55</v>
+      </c>
+      <c r="H19" s="16"/>
       <c r="I19" s="7">
         <v>44214</v>
       </c>
-      <c r="J19" s="17"/>
-    </row>
-    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="17"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="17"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="17"/>
+        <v>48</v>
+      </c>
+      <c r="F20" s="16"/>
       <c r="G20" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" s="17"/>
+        <v>56</v>
+      </c>
+      <c r="H20" s="16"/>
       <c r="I20" s="7">
         <v>44214</v>
       </c>
-      <c r="J20" s="17"/>
-    </row>
-    <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J20" s="16"/>
+    </row>
+    <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="17"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="17"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="17"/>
+        <v>49</v>
+      </c>
+      <c r="F21" s="16"/>
       <c r="G21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="17"/>
+        <v>50</v>
+      </c>
+      <c r="H21" s="16"/>
       <c r="I21" s="7">
         <v>44214</v>
       </c>
-      <c r="J21" s="17"/>
-    </row>
-    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="J22" s="17"/>
-    </row>
-    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="J23" s="17"/>
-    </row>
-    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="J24" s="17"/>
-    </row>
-    <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="J25" s="17"/>
-    </row>
-    <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="J26" s="17"/>
-    </row>
-    <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="J27" s="17"/>
-    </row>
-    <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="J28" s="17"/>
-    </row>
-    <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="J29" s="17"/>
-    </row>
-    <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="J30" s="17"/>
-    </row>
-    <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="J31" s="17"/>
+      <c r="J21" s="16"/>
+    </row>
+    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="16"/>
+      <c r="I22" s="7">
+        <v>44215</v>
+      </c>
+      <c r="J22" s="16"/>
+    </row>
+    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="7">
+        <v>44215</v>
+      </c>
+      <c r="J23" s="16"/>
+    </row>
+    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="7">
+        <v>44215</v>
+      </c>
+      <c r="J24" s="16"/>
+    </row>
+    <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="16"/>
+      <c r="G25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" s="16"/>
+      <c r="I25" s="7">
+        <v>44215</v>
+      </c>
+      <c r="J25" s="16"/>
+    </row>
+    <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="16"/>
+      <c r="G26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" s="16"/>
+      <c r="I26" s="7">
+        <v>44215</v>
+      </c>
+      <c r="J26" s="16"/>
+    </row>
+    <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="16"/>
+      <c r="C27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="16"/>
+      <c r="E27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="16"/>
+      <c r="G27" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="16"/>
+      <c r="I27" s="7">
+        <v>44215</v>
+      </c>
+      <c r="J27" s="16"/>
+    </row>
+    <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="16"/>
+      <c r="C28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="16"/>
+      <c r="E28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="16"/>
+      <c r="G28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" s="16"/>
+      <c r="I28" s="7">
+        <v>44215</v>
+      </c>
+      <c r="J28" s="16"/>
+    </row>
+    <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="16"/>
+      <c r="C29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="16"/>
+      <c r="E29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="16"/>
+      <c r="G29" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="16"/>
+      <c r="I29" s="7">
+        <v>44215</v>
+      </c>
+      <c r="J29" s="16"/>
+    </row>
+    <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="16"/>
+      <c r="C30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="16"/>
+      <c r="E30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="16"/>
+      <c r="G30" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H30" s="16"/>
+      <c r="I30" s="7">
+        <v>44215</v>
+      </c>
+      <c r="J30" s="16"/>
+    </row>
+    <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="16"/>
+      <c r="C31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="16"/>
+      <c r="E31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="16"/>
+      <c r="G31" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H31" s="16"/>
+      <c r="I31" s="7">
+        <v>44215</v>
+      </c>
+      <c r="J31" s="16"/>
+    </row>
+    <row r="32" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="16"/>
+    </row>
+    <row r="33" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="J33" s="16"/>
+    </row>
+    <row r="34" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="J34" s="16"/>
+    </row>
+    <row r="35" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="J35" s="16"/>
+    </row>
+    <row r="36" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="J36" s="16"/>
+    </row>
+    <row r="37" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="J37" s="16"/>
+    </row>
+    <row r="38" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="J38" s="16"/>
+    </row>
+    <row r="39" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="J39" s="16"/>
+    </row>
+    <row r="40" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="J40" s="16"/>
+    </row>
+    <row r="41" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="J41" s="16"/>
+    </row>
+    <row r="42" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="J42" s="16"/>
+    </row>
+    <row r="43" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="J43" s="16"/>
+    </row>
+    <row r="44" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="J44" s="16"/>
+    </row>
+    <row r="45" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="J45" s="16"/>
+    </row>
+    <row r="46" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="J46" s="16"/>
+    </row>
+    <row r="47" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="J47" s="16"/>
+    </row>
+    <row r="48" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="J48" s="16"/>
+    </row>
+    <row r="49" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="J49" s="16"/>
+    </row>
+    <row r="50" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="J50" s="16"/>
+    </row>
+    <row r="51" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="J51" s="16"/>
+    </row>
+    <row r="52" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="J52" s="16"/>
+    </row>
+    <row r="53" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="J53" s="16"/>
+    </row>
+    <row r="54" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="J54" s="16"/>
+    </row>
+    <row r="55" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="J55" s="16"/>
+    </row>
+    <row r="56" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="J56" s="16"/>
+    </row>
+    <row r="57" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="J57" s="16"/>
+    </row>
+    <row r="58" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="J58" s="16"/>
+    </row>
+    <row r="59" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="J59" s="16"/>
+    </row>
+    <row r="60" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="J60" s="16"/>
+    </row>
+    <row r="61" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="J61" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="11">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="J2:J31"/>
     <mergeCell ref="D2:D31"/>
     <mergeCell ref="F2:F31"/>
     <mergeCell ref="H2:H31"/>
     <mergeCell ref="B2:B31"/>
+    <mergeCell ref="H32:H61"/>
+    <mergeCell ref="F32:F61"/>
+    <mergeCell ref="D32:D61"/>
+    <mergeCell ref="B32:B61"/>
+    <mergeCell ref="J32:J61"/>
   </mergeCells>
-  <conditionalFormatting sqref="A2:I2 A1:G1 K1:XFD2 K5:XFD1048576 A5:I10 A12:I1048576 A11:B11 D11:I11">
+  <conditionalFormatting sqref="A2:I2 A1:G1 K1:XFD2 K5:XFD1048576 A5:I10 A11:B11 D11:I11 A12:I31 A62:I1048576 I32:I61 H32 H35:H61 G32:G61 F32 F35:F61 D32 D35:D61 B32 B35:B61 E31:E61 C31:C61 A31:A61">
     <cfRule type="cellIs" dxfId="10" priority="19" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:A81 C5:C10 E5:E81 G5:G81 C12:C81">
+  <conditionalFormatting sqref="C5:C10 G5:G81 E5:E81 C12:C81 A5:A81">
     <cfRule type="containsBlanks" priority="17" stopIfTrue="1">
       <formula>LEN(TRIM(A5))=0</formula>
     </cfRule>
@@ -1283,12 +1682,12 @@
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2 J5:J1048576">
+  <conditionalFormatting sqref="J2 J5:J32 J35:J1048576">
     <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:I4 K4:XFD4">
+  <conditionalFormatting sqref="A4:I4 K4:XFD4 H34 F34 D34 B34">
     <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>"x"</formula>
     </cfRule>
@@ -1301,12 +1700,12 @@
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
+  <conditionalFormatting sqref="J4 J34">
     <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:XFD3 A3:I3">
+  <conditionalFormatting sqref="K3:XFD3 A3:I3 H33 F33 D33 B33">
     <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"x"</formula>
     </cfRule>
@@ -1319,7 +1718,7 @@
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3">
+  <conditionalFormatting sqref="J3 J33">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"x"</formula>
     </cfRule>
@@ -1350,12 +1749,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="22.6640625" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="22.7109375" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="22.6640625" style="5"/>
+    <col min="1" max="16384" width="22.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>14</v>
       </c>
@@ -1366,7 +1765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
@@ -1377,7 +1776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="63" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -1388,7 +1787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -1396,7 +1795,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="63" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -1404,7 +1803,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>23</v>
       </c>

--- a/TableauDeBord.xlsx
+++ b/TableauDeBord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\GitHub\S3D_MyWishList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5344a3cd4eb43387/Bureau/Git/S3D_MyWishList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B84FE0A-9556-4C9D-BAF6-7CD59572C695}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="6_{723CA28B-0233-4E87-B1B4-977A5BBF5967}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{13F6E8D2-96F0-43B7-9356-5E03BD260B81}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableauBord" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="69">
   <si>
     <t>BOUSSETTA Nael</t>
   </si>
@@ -216,6 +216,24 @@
   </si>
   <si>
     <t>affichage item déjà reservé</t>
+  </si>
+  <si>
+    <t>Affichage des images</t>
+  </si>
+  <si>
+    <t>Modif création item</t>
+  </si>
+  <si>
+    <t>Modif modification item</t>
+  </si>
+  <si>
+    <t>Modif suppression item</t>
+  </si>
+  <si>
+    <t>Modif suppression liste</t>
+  </si>
+  <si>
+    <t>Modif modification liste</t>
   </si>
 </sst>
 </file>
@@ -395,10 +413,10 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -761,913 +779,913 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="62.5703125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="62.54296875" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="62.5703125" style="4"/>
-    <col min="2" max="2" width="1.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="62.5703125" style="4"/>
-    <col min="4" max="4" width="1.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="62.5703125" style="4"/>
-    <col min="6" max="6" width="1.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="62.5703125" style="4"/>
-    <col min="8" max="8" width="1.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="1.7109375" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="62.5703125" style="4"/>
+    <col min="1" max="1" width="62.54296875" style="4"/>
+    <col min="2" max="2" width="1.7265625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="62.54296875" style="4"/>
+    <col min="4" max="4" width="1.7265625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="62.54296875" style="4"/>
+    <col min="6" max="6" width="1.7265625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="62.54296875" style="4"/>
+    <col min="8" max="8" width="1.7265625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.26953125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="1.7265625" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="62.54296875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-    </row>
-    <row r="2" spans="1:10" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+    </row>
+    <row r="2" spans="1:10" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="16"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="16"/>
+      <c r="F2" s="17"/>
       <c r="G2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="16"/>
+      <c r="H2" s="17"/>
       <c r="I2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="16"/>
-    </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="17"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="16"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="16"/>
+      <c r="D3" s="17"/>
       <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="16"/>
+      <c r="F3" s="17"/>
       <c r="G3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="17"/>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="16"/>
+      <c r="F4" s="17"/>
       <c r="G4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="J4" s="16"/>
-    </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="17"/>
+      <c r="J4" s="17"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="16"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="16"/>
+      <c r="F5" s="17"/>
       <c r="G5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="16"/>
+      <c r="H5" s="17"/>
       <c r="I5" s="7">
         <v>44199</v>
       </c>
-      <c r="J5" s="16"/>
-    </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="17"/>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="16"/>
+      <c r="F6" s="17"/>
       <c r="G6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="16"/>
+      <c r="H6" s="17"/>
       <c r="I6" s="7">
         <v>44199</v>
       </c>
-      <c r="J6" s="16"/>
-    </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="16"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="17"/>
       <c r="E7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="16"/>
+      <c r="F7" s="17"/>
       <c r="G7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="16"/>
+      <c r="H7" s="17"/>
       <c r="I7" s="7">
         <v>44201</v>
       </c>
-      <c r="J7" s="16"/>
-    </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="17"/>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="16"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="16"/>
+      <c r="F8" s="17"/>
       <c r="G8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="17"/>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="16"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="16"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="16"/>
+      <c r="F9" s="17"/>
       <c r="G9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="16"/>
+      <c r="H9" s="17"/>
       <c r="I9" s="7">
         <v>44203</v>
       </c>
-      <c r="J9" s="16"/>
-    </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="16"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="16"/>
+      <c r="F10" s="17"/>
       <c r="G10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="16"/>
+      <c r="H10" s="17"/>
       <c r="I10" s="7">
         <v>44203</v>
       </c>
-      <c r="J10" s="16"/>
-    </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="16"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="16"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="16"/>
+      <c r="F11" s="17"/>
       <c r="G11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="16"/>
+      <c r="H11" s="17"/>
       <c r="I11" s="7">
         <v>44206</v>
       </c>
-      <c r="J11" s="16"/>
-    </row>
-    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="16"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="16"/>
+      <c r="F12" s="17"/>
       <c r="G12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="16"/>
+      <c r="H12" s="17"/>
       <c r="I12" s="7">
         <v>44208</v>
       </c>
-      <c r="J12" s="16"/>
-    </row>
-    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="16"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="16"/>
+      <c r="F13" s="17"/>
       <c r="G13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="16"/>
+      <c r="H13" s="17"/>
       <c r="I13" s="7">
         <v>44208</v>
       </c>
-      <c r="J13" s="16"/>
-    </row>
-    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="16"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="16"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="16"/>
+      <c r="F14" s="17"/>
       <c r="G14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="16"/>
+      <c r="H14" s="17"/>
       <c r="I14" s="7">
         <v>44208</v>
       </c>
-      <c r="J14" s="16"/>
-    </row>
-    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="16"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="16"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="16"/>
+      <c r="F15" s="17"/>
       <c r="G15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="16"/>
+      <c r="H15" s="17"/>
       <c r="I15" s="7">
         <v>44211</v>
       </c>
-      <c r="J15" s="16"/>
-    </row>
-    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="16"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="16"/>
+      <c r="D16" s="17"/>
       <c r="E16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="16"/>
+      <c r="F16" s="17"/>
       <c r="G16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="16"/>
+      <c r="H16" s="17"/>
       <c r="I16" s="7">
         <v>44212</v>
       </c>
-      <c r="J16" s="16"/>
-    </row>
-    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="16"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="16"/>
+      <c r="D17" s="17"/>
       <c r="E17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="16"/>
+      <c r="F17" s="17"/>
       <c r="G17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="16"/>
+      <c r="H17" s="17"/>
       <c r="I17" s="7">
         <v>44212</v>
       </c>
-      <c r="J17" s="16"/>
-    </row>
-    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J17" s="17"/>
+    </row>
+    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="16"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="16"/>
+      <c r="D18" s="17"/>
       <c r="E18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="16"/>
+      <c r="F18" s="17"/>
       <c r="G18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="16"/>
+      <c r="H18" s="17"/>
       <c r="I18" s="7">
         <v>44213</v>
       </c>
-      <c r="J18" s="16"/>
-    </row>
-    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="16"/>
+        <v>67</v>
+      </c>
+      <c r="B19" s="17"/>
       <c r="C19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="16"/>
+      <c r="D19" s="17"/>
       <c r="E19" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="16"/>
+      <c r="F19" s="17"/>
       <c r="G19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H19" s="16"/>
+      <c r="H19" s="17"/>
       <c r="I19" s="7">
         <v>44214</v>
       </c>
-      <c r="J19" s="16"/>
-    </row>
-    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J19" s="17"/>
+    </row>
+    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="16"/>
+        <v>68</v>
+      </c>
+      <c r="B20" s="17"/>
       <c r="C20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="16"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="16"/>
+      <c r="F20" s="17"/>
       <c r="G20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H20" s="16"/>
+      <c r="H20" s="17"/>
       <c r="I20" s="7">
         <v>44214</v>
       </c>
-      <c r="J20" s="16"/>
-    </row>
-    <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J20" s="17"/>
+    </row>
+    <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="16"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="16"/>
+      <c r="D21" s="17"/>
       <c r="E21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="16"/>
+      <c r="F21" s="17"/>
       <c r="G21" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="16"/>
+      <c r="H21" s="17"/>
       <c r="I21" s="7">
         <v>44214</v>
       </c>
-      <c r="J21" s="16"/>
-    </row>
-    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J21" s="17"/>
+    </row>
+    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="16"/>
+        <v>63</v>
+      </c>
+      <c r="B22" s="17"/>
       <c r="C22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="16"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="16"/>
+      <c r="F22" s="17"/>
       <c r="G22" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="16"/>
+      <c r="H22" s="17"/>
       <c r="I22" s="7">
         <v>44215</v>
       </c>
-      <c r="J22" s="16"/>
-    </row>
-    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J22" s="17"/>
+    </row>
+    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="16"/>
+        <v>64</v>
+      </c>
+      <c r="B23" s="17"/>
       <c r="C23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="16"/>
+      <c r="D23" s="17"/>
       <c r="E23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="16"/>
+      <c r="F23" s="17"/>
       <c r="G23" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="16"/>
+      <c r="H23" s="17"/>
       <c r="I23" s="7">
         <v>44215</v>
       </c>
-      <c r="J23" s="16"/>
-    </row>
-    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J23" s="17"/>
+    </row>
+    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="16"/>
+        <v>65</v>
+      </c>
+      <c r="B24" s="17"/>
       <c r="C24" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="16"/>
+      <c r="D24" s="17"/>
       <c r="E24" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="16"/>
+      <c r="F24" s="17"/>
       <c r="G24" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H24" s="16"/>
+      <c r="H24" s="17"/>
       <c r="I24" s="7">
         <v>44215</v>
       </c>
-      <c r="J24" s="16"/>
-    </row>
-    <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J24" s="17"/>
+    </row>
+    <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="16"/>
+        <v>66</v>
+      </c>
+      <c r="B25" s="17"/>
       <c r="C25" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="16"/>
+      <c r="D25" s="17"/>
       <c r="E25" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="16"/>
+      <c r="F25" s="17"/>
       <c r="G25" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H25" s="16"/>
+      <c r="H25" s="17"/>
       <c r="I25" s="7">
         <v>44215</v>
       </c>
-      <c r="J25" s="16"/>
-    </row>
-    <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J25" s="17"/>
+    </row>
+    <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="16"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="16"/>
+      <c r="D26" s="17"/>
       <c r="E26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="16"/>
+      <c r="F26" s="17"/>
       <c r="G26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H26" s="16"/>
+      <c r="H26" s="17"/>
       <c r="I26" s="7">
         <v>44215</v>
       </c>
-      <c r="J26" s="16"/>
-    </row>
-    <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J26" s="17"/>
+    </row>
+    <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="16"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="16"/>
+      <c r="D27" s="17"/>
       <c r="E27" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="16"/>
+      <c r="F27" s="17"/>
       <c r="G27" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="16"/>
+      <c r="H27" s="17"/>
       <c r="I27" s="7">
         <v>44215</v>
       </c>
-      <c r="J27" s="16"/>
-    </row>
-    <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J27" s="17"/>
+    </row>
+    <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="16"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="16"/>
+      <c r="D28" s="17"/>
       <c r="E28" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="16"/>
+      <c r="F28" s="17"/>
       <c r="G28" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H28" s="16"/>
+      <c r="H28" s="17"/>
       <c r="I28" s="7">
         <v>44215</v>
       </c>
-      <c r="J28" s="16"/>
-    </row>
-    <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J28" s="17"/>
+    </row>
+    <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="16"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="16"/>
+      <c r="D29" s="17"/>
       <c r="E29" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="16"/>
+      <c r="F29" s="17"/>
       <c r="G29" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H29" s="16"/>
+      <c r="H29" s="17"/>
       <c r="I29" s="7">
         <v>44215</v>
       </c>
-      <c r="J29" s="16"/>
-    </row>
-    <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J29" s="17"/>
+    </row>
+    <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="16"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="16"/>
+      <c r="D30" s="17"/>
       <c r="E30" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F30" s="16"/>
+      <c r="F30" s="17"/>
       <c r="G30" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H30" s="16"/>
+      <c r="H30" s="17"/>
       <c r="I30" s="7">
         <v>44215</v>
       </c>
-      <c r="J30" s="16"/>
-    </row>
-    <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J30" s="17"/>
+    </row>
+    <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="16"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="16"/>
+      <c r="D31" s="17"/>
       <c r="E31" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F31" s="16"/>
+      <c r="F31" s="17"/>
       <c r="G31" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H31" s="16"/>
+      <c r="H31" s="17"/>
       <c r="I31" s="7">
         <v>44215</v>
       </c>
-      <c r="J31" s="16"/>
-    </row>
-    <row r="32" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="H32" s="16"/>
+      <c r="J31" s="17"/>
+    </row>
+    <row r="32" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="H32" s="17"/>
       <c r="I32" s="7"/>
-      <c r="J32" s="16"/>
-    </row>
-    <row r="33" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="J33" s="16"/>
-    </row>
-    <row r="34" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="J34" s="16"/>
-    </row>
-    <row r="35" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="J35" s="16"/>
-    </row>
-    <row r="36" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="J36" s="16"/>
-    </row>
-    <row r="37" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="J37" s="16"/>
-    </row>
-    <row r="38" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="J38" s="16"/>
-    </row>
-    <row r="39" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="J39" s="16"/>
-    </row>
-    <row r="40" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="J40" s="16"/>
-    </row>
-    <row r="41" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="J41" s="16"/>
-    </row>
-    <row r="42" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="J42" s="16"/>
-    </row>
-    <row r="43" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="J43" s="16"/>
-    </row>
-    <row r="44" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="J44" s="16"/>
-    </row>
-    <row r="45" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="J45" s="16"/>
-    </row>
-    <row r="46" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="J46" s="16"/>
-    </row>
-    <row r="47" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="J47" s="16"/>
-    </row>
-    <row r="48" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="J48" s="16"/>
-    </row>
-    <row r="49" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="J49" s="16"/>
-    </row>
-    <row r="50" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="J50" s="16"/>
-    </row>
-    <row r="51" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="J51" s="16"/>
-    </row>
-    <row r="52" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="J52" s="16"/>
-    </row>
-    <row r="53" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="J53" s="16"/>
-    </row>
-    <row r="54" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="J54" s="16"/>
-    </row>
-    <row r="55" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="J55" s="16"/>
-    </row>
-    <row r="56" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="J56" s="16"/>
-    </row>
-    <row r="57" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="H57" s="16"/>
-      <c r="J57" s="16"/>
-    </row>
-    <row r="58" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="J58" s="16"/>
-    </row>
-    <row r="59" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="H59" s="16"/>
-      <c r="J59" s="16"/>
-    </row>
-    <row r="60" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="H60" s="16"/>
-      <c r="J60" s="16"/>
-    </row>
-    <row r="61" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="H61" s="16"/>
-      <c r="J61" s="16"/>
+      <c r="J32" s="17"/>
+    </row>
+    <row r="33" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="J33" s="17"/>
+    </row>
+    <row r="34" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="J34" s="17"/>
+    </row>
+    <row r="35" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="J35" s="17"/>
+    </row>
+    <row r="36" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="J36" s="17"/>
+    </row>
+    <row r="37" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="J37" s="17"/>
+    </row>
+    <row r="38" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="J38" s="17"/>
+    </row>
+    <row r="39" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="J39" s="17"/>
+    </row>
+    <row r="40" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="J40" s="17"/>
+    </row>
+    <row r="41" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="J41" s="17"/>
+    </row>
+    <row r="42" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="J42" s="17"/>
+    </row>
+    <row r="43" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="J43" s="17"/>
+    </row>
+    <row r="44" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="J44" s="17"/>
+    </row>
+    <row r="45" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="J45" s="17"/>
+    </row>
+    <row r="46" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="J46" s="17"/>
+    </row>
+    <row r="47" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="J47" s="17"/>
+    </row>
+    <row r="48" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="J48" s="17"/>
+    </row>
+    <row r="49" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="J49" s="17"/>
+    </row>
+    <row r="50" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="J50" s="17"/>
+    </row>
+    <row r="51" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="J51" s="17"/>
+    </row>
+    <row r="52" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="J52" s="17"/>
+    </row>
+    <row r="53" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="J53" s="17"/>
+    </row>
+    <row r="54" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="J54" s="17"/>
+    </row>
+    <row r="55" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="J55" s="17"/>
+    </row>
+    <row r="56" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="J56" s="17"/>
+    </row>
+    <row r="57" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="J57" s="17"/>
+    </row>
+    <row r="58" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="J58" s="17"/>
+    </row>
+    <row r="59" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="J59" s="17"/>
+    </row>
+    <row r="60" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="J60" s="17"/>
+    </row>
+    <row r="61" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="J61" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="H32:H61"/>
+    <mergeCell ref="F32:F61"/>
+    <mergeCell ref="D32:D61"/>
+    <mergeCell ref="B32:B61"/>
+    <mergeCell ref="J32:J61"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="J2:J31"/>
     <mergeCell ref="D2:D31"/>
     <mergeCell ref="F2:F31"/>
     <mergeCell ref="H2:H31"/>
     <mergeCell ref="B2:B31"/>
-    <mergeCell ref="H32:H61"/>
-    <mergeCell ref="F32:F61"/>
-    <mergeCell ref="D32:D61"/>
-    <mergeCell ref="B32:B61"/>
-    <mergeCell ref="J32:J61"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:I2 A1:G1 K1:XFD2 K5:XFD1048576 A5:I10 A11:B11 D11:I11 A12:I31 A62:I1048576 I32:I61 H32 H35:H61 G32:G61 F32 F35:F61 D32 D35:D61 B32 B35:B61 E31:E61 C31:C61 A31:A61">
     <cfRule type="cellIs" dxfId="10" priority="19" operator="equal">
@@ -1749,12 +1767,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="22.7109375" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="22.7265625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="22.7109375" style="5"/>
+    <col min="1" max="16384" width="22.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>14</v>
       </c>
@@ -1765,7 +1783,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
@@ -1776,7 +1794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="63" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -1787,7 +1805,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="42" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -1795,7 +1813,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="63" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -1803,7 +1821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="42" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
         <v>23</v>
       </c>

--- a/TableauDeBord.xlsx
+++ b/TableauDeBord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5344a3cd4eb43387/Bureau/Git/S3D_MyWishList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\GitHub\S3D_MyWishList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="6_{723CA28B-0233-4E87-B1B4-977A5BBF5967}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{13F6E8D2-96F0-43B7-9356-5E03BD260B81}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DA6128-70F8-4D92-AA99-E0A5A6947DF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableauBord" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="71">
   <si>
     <t>BOUSSETTA Nael</t>
   </si>
@@ -234,6 +234,12 @@
   </si>
   <si>
     <t>Modif modification liste</t>
+  </si>
+  <si>
+    <t>rendre une liste pubic</t>
+  </si>
+  <si>
+    <t>affichage des liste créer par un utilisateur</t>
   </si>
 </sst>
 </file>
@@ -413,10 +419,10 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -779,913 +785,924 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="62.54296875" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="62.5703125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.54296875" style="4"/>
-    <col min="2" max="2" width="1.7265625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="62.54296875" style="4"/>
-    <col min="4" max="4" width="1.7265625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="62.54296875" style="4"/>
-    <col min="6" max="6" width="1.7265625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="62.54296875" style="4"/>
-    <col min="8" max="8" width="1.7265625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="1.7265625" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="62.54296875" style="4"/>
+    <col min="1" max="1" width="62.5703125" style="4"/>
+    <col min="2" max="2" width="1.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="62.5703125" style="4"/>
+    <col min="4" max="4" width="1.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="62.5703125" style="4"/>
+    <col min="6" max="6" width="1.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="62.5703125" style="4"/>
+    <col min="8" max="8" width="1.7109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="1.7109375" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="62.5703125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-    </row>
-    <row r="2" spans="1:10" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+    </row>
+    <row r="2" spans="1:10" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17"/>
+      <c r="D2" s="16"/>
       <c r="E2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="17"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="17"/>
+      <c r="H2" s="16"/>
       <c r="I2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="17"/>
-    </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J2" s="16"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="17"/>
+      <c r="D3" s="16"/>
       <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="17"/>
+      <c r="F3" s="16"/>
       <c r="G3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H3" s="16"/>
+      <c r="J3" s="16"/>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="17"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="17"/>
+      <c r="F4" s="16"/>
       <c r="G4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H4" s="16"/>
+      <c r="J4" s="16"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="17"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="17"/>
+      <c r="F5" s="16"/>
       <c r="G5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="17"/>
+      <c r="H5" s="16"/>
       <c r="I5" s="7">
         <v>44199</v>
       </c>
-      <c r="J5" s="17"/>
-    </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="17"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="17"/>
+      <c r="F6" s="16"/>
       <c r="G6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="17"/>
+      <c r="H6" s="16"/>
       <c r="I6" s="7">
         <v>44199</v>
       </c>
-      <c r="J6" s="17"/>
-    </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="17"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="17"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="17"/>
+      <c r="F7" s="16"/>
       <c r="G7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="17"/>
+      <c r="H7" s="16"/>
       <c r="I7" s="7">
         <v>44201</v>
       </c>
-      <c r="J7" s="17"/>
-    </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="17"/>
+      <c r="F8" s="16"/>
       <c r="G8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="J8" s="17"/>
-    </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H8" s="16"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="17"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="17"/>
+      <c r="H9" s="16"/>
       <c r="I9" s="7">
         <v>44203</v>
       </c>
-      <c r="J9" s="17"/>
-    </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="17"/>
+      <c r="F10" s="16"/>
       <c r="G10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="17"/>
+      <c r="H10" s="16"/>
       <c r="I10" s="7">
         <v>44203</v>
       </c>
-      <c r="J10" s="17"/>
-    </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="17"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="17"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="17"/>
+      <c r="H11" s="16"/>
       <c r="I11" s="7">
         <v>44206</v>
       </c>
-      <c r="J11" s="17"/>
-    </row>
-    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="17"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="17"/>
+      <c r="F12" s="16"/>
       <c r="G12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="17"/>
+      <c r="H12" s="16"/>
       <c r="I12" s="7">
         <v>44208</v>
       </c>
-      <c r="J12" s="17"/>
-    </row>
-    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="17"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="17"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="17"/>
+      <c r="F13" s="16"/>
       <c r="G13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="17"/>
+      <c r="H13" s="16"/>
       <c r="I13" s="7">
         <v>44208</v>
       </c>
-      <c r="J13" s="17"/>
-    </row>
-    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="17"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="17"/>
+      <c r="F14" s="16"/>
       <c r="G14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="17"/>
+      <c r="H14" s="16"/>
       <c r="I14" s="7">
         <v>44208</v>
       </c>
-      <c r="J14" s="17"/>
-    </row>
-    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="17"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="17"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="17"/>
+      <c r="F15" s="16"/>
       <c r="G15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="17"/>
+      <c r="H15" s="16"/>
       <c r="I15" s="7">
         <v>44211</v>
       </c>
-      <c r="J15" s="17"/>
-    </row>
-    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="17"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="17"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="17"/>
+      <c r="F16" s="16"/>
       <c r="G16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="17"/>
+      <c r="H16" s="16"/>
       <c r="I16" s="7">
         <v>44212</v>
       </c>
-      <c r="J16" s="17"/>
-    </row>
-    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="17"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="17"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="17"/>
+      <c r="F17" s="16"/>
       <c r="G17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="17"/>
+      <c r="H17" s="16"/>
       <c r="I17" s="7">
         <v>44212</v>
       </c>
-      <c r="J17" s="17"/>
-    </row>
-    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="17"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="17"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="17"/>
+      <c r="F18" s="16"/>
       <c r="G18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="17"/>
+      <c r="H18" s="16"/>
       <c r="I18" s="7">
         <v>44213</v>
       </c>
-      <c r="J18" s="17"/>
-    </row>
-    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="17"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="17"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="17"/>
+      <c r="F19" s="16"/>
       <c r="G19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H19" s="17"/>
+      <c r="H19" s="16"/>
       <c r="I19" s="7">
         <v>44214</v>
       </c>
-      <c r="J19" s="17"/>
-    </row>
-    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="17"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="17"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="17"/>
+      <c r="F20" s="16"/>
       <c r="G20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H20" s="17"/>
+      <c r="H20" s="16"/>
       <c r="I20" s="7">
         <v>44214</v>
       </c>
-      <c r="J20" s="17"/>
-    </row>
-    <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J20" s="16"/>
+    </row>
+    <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="17"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="17"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="17"/>
+      <c r="F21" s="16"/>
       <c r="G21" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="17"/>
+      <c r="H21" s="16"/>
       <c r="I21" s="7">
         <v>44214</v>
       </c>
-      <c r="J21" s="17"/>
-    </row>
-    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J21" s="16"/>
+    </row>
+    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="17"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="17"/>
+      <c r="D22" s="16"/>
       <c r="E22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="17"/>
+      <c r="F22" s="16"/>
       <c r="G22" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="17"/>
+      <c r="H22" s="16"/>
       <c r="I22" s="7">
         <v>44215</v>
       </c>
-      <c r="J22" s="17"/>
-    </row>
-    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J22" s="16"/>
+    </row>
+    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="17"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="17"/>
+      <c r="D23" s="16"/>
       <c r="E23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="17"/>
+      <c r="F23" s="16"/>
       <c r="G23" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="17"/>
+      <c r="H23" s="16"/>
       <c r="I23" s="7">
         <v>44215</v>
       </c>
-      <c r="J23" s="17"/>
-    </row>
-    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J23" s="16"/>
+    </row>
+    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="17"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="17"/>
+      <c r="D24" s="16"/>
       <c r="E24" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="17"/>
+      <c r="F24" s="16"/>
       <c r="G24" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H24" s="17"/>
+      <c r="H24" s="16"/>
       <c r="I24" s="7">
         <v>44215</v>
       </c>
-      <c r="J24" s="17"/>
-    </row>
-    <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J24" s="16"/>
+    </row>
+    <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="17"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="17"/>
+      <c r="D25" s="16"/>
       <c r="E25" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="17"/>
+      <c r="F25" s="16"/>
       <c r="G25" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H25" s="17"/>
+      <c r="H25" s="16"/>
       <c r="I25" s="7">
         <v>44215</v>
       </c>
-      <c r="J25" s="17"/>
-    </row>
-    <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J25" s="16"/>
+    </row>
+    <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="17"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="17"/>
+      <c r="D26" s="16"/>
       <c r="E26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="17"/>
+      <c r="F26" s="16"/>
       <c r="G26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H26" s="17"/>
+      <c r="H26" s="16"/>
       <c r="I26" s="7">
         <v>44215</v>
       </c>
-      <c r="J26" s="17"/>
-    </row>
-    <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J26" s="16"/>
+    </row>
+    <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="17"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="17"/>
+      <c r="D27" s="16"/>
       <c r="E27" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="17"/>
+      <c r="F27" s="16"/>
       <c r="G27" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="17"/>
+      <c r="H27" s="16"/>
       <c r="I27" s="7">
         <v>44215</v>
       </c>
-      <c r="J27" s="17"/>
-    </row>
-    <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J27" s="16"/>
+    </row>
+    <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="17"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="17"/>
+      <c r="D28" s="16"/>
       <c r="E28" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="17"/>
+      <c r="F28" s="16"/>
       <c r="G28" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H28" s="17"/>
+      <c r="H28" s="16"/>
       <c r="I28" s="7">
         <v>44215</v>
       </c>
-      <c r="J28" s="17"/>
-    </row>
-    <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J28" s="16"/>
+    </row>
+    <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="17"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="17"/>
+      <c r="D29" s="16"/>
       <c r="E29" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="17"/>
+      <c r="F29" s="16"/>
       <c r="G29" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H29" s="17"/>
+      <c r="H29" s="16"/>
       <c r="I29" s="7">
         <v>44215</v>
       </c>
-      <c r="J29" s="17"/>
-    </row>
-    <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J29" s="16"/>
+    </row>
+    <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="17"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="17"/>
+      <c r="D30" s="16"/>
       <c r="E30" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F30" s="17"/>
+      <c r="F30" s="16"/>
       <c r="G30" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H30" s="17"/>
+      <c r="H30" s="16"/>
       <c r="I30" s="7">
         <v>44215</v>
       </c>
-      <c r="J30" s="17"/>
-    </row>
-    <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J30" s="16"/>
+    </row>
+    <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="17"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="17"/>
+      <c r="D31" s="16"/>
       <c r="E31" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F31" s="17"/>
+      <c r="F31" s="16"/>
       <c r="G31" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H31" s="17"/>
+      <c r="H31" s="16"/>
       <c r="I31" s="7">
         <v>44215</v>
       </c>
-      <c r="J31" s="17"/>
-    </row>
-    <row r="32" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="17"/>
-    </row>
-    <row r="33" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="J33" s="17"/>
-    </row>
-    <row r="34" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="J34" s="17"/>
-    </row>
-    <row r="35" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="J35" s="17"/>
-    </row>
-    <row r="36" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="J36" s="17"/>
-    </row>
-    <row r="37" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="J37" s="17"/>
-    </row>
-    <row r="38" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="J38" s="17"/>
-    </row>
-    <row r="39" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="J39" s="17"/>
-    </row>
-    <row r="40" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="J40" s="17"/>
-    </row>
-    <row r="41" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="J41" s="17"/>
-    </row>
-    <row r="42" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="J42" s="17"/>
-    </row>
-    <row r="43" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="J43" s="17"/>
-    </row>
-    <row r="44" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="J44" s="17"/>
-    </row>
-    <row r="45" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="J45" s="17"/>
-    </row>
-    <row r="46" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="J46" s="17"/>
-    </row>
-    <row r="47" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="J47" s="17"/>
-    </row>
-    <row r="48" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="J48" s="17"/>
-    </row>
-    <row r="49" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="J49" s="17"/>
-    </row>
-    <row r="50" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="J50" s="17"/>
-    </row>
-    <row r="51" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="J51" s="17"/>
-    </row>
-    <row r="52" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="J52" s="17"/>
-    </row>
-    <row r="53" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="J53" s="17"/>
-    </row>
-    <row r="54" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="J54" s="17"/>
-    </row>
-    <row r="55" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="J55" s="17"/>
-    </row>
-    <row r="56" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="J56" s="17"/>
-    </row>
-    <row r="57" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="J57" s="17"/>
-    </row>
-    <row r="58" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="J58" s="17"/>
-    </row>
-    <row r="59" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="J59" s="17"/>
-    </row>
-    <row r="60" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="J60" s="17"/>
-    </row>
-    <row r="61" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="17"/>
-      <c r="D61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="H61" s="17"/>
-      <c r="J61" s="17"/>
+      <c r="J31" s="16"/>
+    </row>
+    <row r="32" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H32" s="16"/>
+      <c r="I32" s="7">
+        <v>44215</v>
+      </c>
+      <c r="J32" s="16"/>
+    </row>
+    <row r="33" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H33" s="16"/>
+      <c r="I33" s="7">
+        <v>44215</v>
+      </c>
+      <c r="J33" s="16"/>
+    </row>
+    <row r="34" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="J34" s="16"/>
+    </row>
+    <row r="35" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="J35" s="16"/>
+    </row>
+    <row r="36" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="J36" s="16"/>
+    </row>
+    <row r="37" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="J37" s="16"/>
+    </row>
+    <row r="38" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="J38" s="16"/>
+    </row>
+    <row r="39" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="J39" s="16"/>
+    </row>
+    <row r="40" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="J40" s="16"/>
+    </row>
+    <row r="41" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="J41" s="16"/>
+    </row>
+    <row r="42" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="J42" s="16"/>
+    </row>
+    <row r="43" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="J43" s="16"/>
+    </row>
+    <row r="44" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="J44" s="16"/>
+    </row>
+    <row r="45" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="J45" s="16"/>
+    </row>
+    <row r="46" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="J46" s="16"/>
+    </row>
+    <row r="47" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="J47" s="16"/>
+    </row>
+    <row r="48" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="J48" s="16"/>
+    </row>
+    <row r="49" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="J49" s="16"/>
+    </row>
+    <row r="50" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="J50" s="16"/>
+    </row>
+    <row r="51" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="J51" s="16"/>
+    </row>
+    <row r="52" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="J52" s="16"/>
+    </row>
+    <row r="53" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="J53" s="16"/>
+    </row>
+    <row r="54" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="J54" s="16"/>
+    </row>
+    <row r="55" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="J55" s="16"/>
+    </row>
+    <row r="56" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="J56" s="16"/>
+    </row>
+    <row r="57" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="J57" s="16"/>
+    </row>
+    <row r="58" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="J58" s="16"/>
+    </row>
+    <row r="59" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="J59" s="16"/>
+    </row>
+    <row r="60" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="J60" s="16"/>
+    </row>
+    <row r="61" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="J61" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="H32:H61"/>
-    <mergeCell ref="F32:F61"/>
-    <mergeCell ref="D32:D61"/>
-    <mergeCell ref="B32:B61"/>
-    <mergeCell ref="J32:J61"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="J2:J31"/>
     <mergeCell ref="D2:D31"/>
     <mergeCell ref="F2:F31"/>
     <mergeCell ref="H2:H31"/>
     <mergeCell ref="B2:B31"/>
+    <mergeCell ref="H32:H61"/>
+    <mergeCell ref="F32:F61"/>
+    <mergeCell ref="D32:D61"/>
+    <mergeCell ref="B32:B61"/>
+    <mergeCell ref="J32:J61"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:I2 A1:G1 K1:XFD2 K5:XFD1048576 A5:I10 A11:B11 D11:I11 A12:I31 A62:I1048576 I32:I61 H32 H35:H61 G32:G61 F32 F35:F61 D32 D35:D61 B32 B35:B61 E31:E61 C31:C61 A31:A61">
     <cfRule type="cellIs" dxfId="10" priority="19" operator="equal">
@@ -1767,12 +1784,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="22.7265625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="22.7109375" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="22.7265625" style="5"/>
+    <col min="1" max="16384" width="22.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>14</v>
       </c>
@@ -1783,7 +1800,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
@@ -1794,7 +1811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="63" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -1805,7 +1822,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="42" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -1813,7 +1830,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="63" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -1821,7 +1838,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="42" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>23</v>
       </c>

--- a/TableauDeBord.xlsx
+++ b/TableauDeBord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\GitHub\S3D_MyWishList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DA6128-70F8-4D92-AA99-E0A5A6947DF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF83471F-E9F3-4446-9DF2-5D3BEBC933C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="76">
   <si>
     <t>BOUSSETTA Nael</t>
   </si>
@@ -240,6 +240,21 @@
   </si>
   <si>
     <t>affichage des liste créer par un utilisateur</t>
+  </si>
+  <si>
+    <t>createur ne peut pas voir qui a reserve avant echeance</t>
+  </si>
+  <si>
+    <t>createur ne peut pas voir les messages avant echeance</t>
+  </si>
+  <si>
+    <t>createur ne peut pas reserver ses items</t>
+  </si>
+  <si>
+    <t>affichages des liste dans l'ordre d'expiration</t>
+  </si>
+  <si>
+    <t>affichage des liste non expiré</t>
   </si>
 </sst>
 </file>
@@ -360,9 +375,38 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -372,45 +416,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -419,10 +427,55 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -785,926 +838,1042 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="62.5703125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.5703125" style="4"/>
-    <col min="2" max="2" width="1.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="62.5703125" style="4"/>
-    <col min="4" max="4" width="1.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="62.5703125" style="4"/>
-    <col min="6" max="6" width="1.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="62.5703125" style="4"/>
-    <col min="8" max="8" width="1.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="1.7109375" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="62.5703125" style="4"/>
+    <col min="1" max="1" width="62.5703125" style="14"/>
+    <col min="2" max="2" width="1.7109375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="62.5703125" style="15"/>
+    <col min="4" max="4" width="1.7109375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="62.5703125" style="15"/>
+    <col min="6" max="6" width="1.7109375" style="15" customWidth="1"/>
+    <col min="7" max="7" width="62.5703125" style="15"/>
+    <col min="8" max="8" width="1.7109375" style="15" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="16" customWidth="1"/>
+    <col min="10" max="10" width="1.7109375" style="15" customWidth="1"/>
+    <col min="11" max="16384" width="62.5703125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:10" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-    </row>
-    <row r="2" spans="1:10" s="8" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" s="13" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="13" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="16"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="4" t="s">
+      <c r="A3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="J3" s="16"/>
+      <c r="H3" s="8"/>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="3" t="s">
+      <c r="A4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="16"/>
-      <c r="J4" s="16"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="3" t="s">
+      <c r="A5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="7">
+      <c r="H5" s="8"/>
+      <c r="I5" s="20">
         <v>44199</v>
       </c>
-      <c r="J5" s="16"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="4" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="7">
+      <c r="H6" s="8"/>
+      <c r="I6" s="20">
         <v>44199</v>
       </c>
-      <c r="J6" s="16"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="4" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="7">
+      <c r="H7" s="8"/>
+      <c r="I7" s="20">
         <v>44201</v>
       </c>
-      <c r="J7" s="16"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="4" t="s">
+      <c r="A8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="J8" s="16"/>
+      <c r="H8" s="8"/>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="4" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="4" t="s">
+      <c r="F9" s="8"/>
+      <c r="G9" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="7">
+      <c r="H9" s="8"/>
+      <c r="I9" s="20">
         <v>44203</v>
       </c>
-      <c r="J9" s="16"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="4" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="7">
+      <c r="H10" s="8"/>
+      <c r="I10" s="20">
         <v>44203</v>
       </c>
-      <c r="J10" s="16"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="3" t="s">
+      <c r="A11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="7">
+      <c r="D11" s="8"/>
+      <c r="E11" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="20">
         <v>44206</v>
       </c>
-      <c r="J11" s="16"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="4" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="7">
+      <c r="H12" s="8"/>
+      <c r="I12" s="20">
         <v>44208</v>
       </c>
-      <c r="J12" s="16"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="4" t="s">
+      <c r="A13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="7">
+      <c r="H13" s="8"/>
+      <c r="I13" s="20">
         <v>44208</v>
       </c>
-      <c r="J13" s="16"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="4" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="7">
+      <c r="H14" s="8"/>
+      <c r="I14" s="20">
         <v>44208</v>
       </c>
-      <c r="J14" s="16"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="4" t="s">
+      <c r="A15" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="7">
+      <c r="H15" s="8"/>
+      <c r="I15" s="20">
         <v>44211</v>
       </c>
-      <c r="J15" s="16"/>
+      <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="4" t="s">
+      <c r="A16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="7">
+      <c r="H16" s="8"/>
+      <c r="I16" s="20">
         <v>44212</v>
       </c>
-      <c r="J16" s="16"/>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="4" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="4" t="s">
+      <c r="F17" s="8"/>
+      <c r="G17" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="7">
+      <c r="H17" s="8"/>
+      <c r="I17" s="20">
         <v>44212</v>
       </c>
-      <c r="J17" s="16"/>
+      <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="4" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" s="16"/>
-      <c r="I18" s="7">
+      <c r="F18" s="8"/>
+      <c r="G18" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="20">
         <v>44213</v>
       </c>
-      <c r="J18" s="16"/>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="4" t="s">
+      <c r="B19" s="8"/>
+      <c r="C19" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="4" t="s">
+      <c r="F19" s="8"/>
+      <c r="G19" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="7">
+      <c r="H19" s="8"/>
+      <c r="I19" s="20">
         <v>44214</v>
       </c>
-      <c r="J19" s="16"/>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="4" t="s">
+      <c r="B20" s="8"/>
+      <c r="C20" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="4" t="s">
+      <c r="F20" s="8"/>
+      <c r="G20" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="7">
+      <c r="H20" s="8"/>
+      <c r="I20" s="20">
         <v>44214</v>
       </c>
-      <c r="J20" s="16"/>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="4" t="s">
+      <c r="A21" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="4" t="s">
+      <c r="F21" s="8"/>
+      <c r="G21" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="7">
+      <c r="H21" s="8"/>
+      <c r="I21" s="20">
         <v>44214</v>
       </c>
-      <c r="J21" s="16"/>
+      <c r="J21" s="8"/>
     </row>
     <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="4" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="16"/>
-      <c r="I22" s="7">
+      <c r="H22" s="8"/>
+      <c r="I22" s="20">
         <v>44215</v>
       </c>
-      <c r="J22" s="16"/>
+      <c r="J22" s="8"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="4" t="s">
+      <c r="B23" s="8"/>
+      <c r="C23" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="16"/>
-      <c r="I23" s="7">
+      <c r="H23" s="8"/>
+      <c r="I23" s="20">
         <v>44215</v>
       </c>
-      <c r="J23" s="16"/>
+      <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="4" t="s">
+      <c r="B24" s="8"/>
+      <c r="C24" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="7">
+      <c r="H24" s="8"/>
+      <c r="I24" s="20">
         <v>44215</v>
       </c>
-      <c r="J24" s="16"/>
+      <c r="J24" s="8"/>
     </row>
     <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="4" t="s">
+      <c r="B25" s="8"/>
+      <c r="C25" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H25" s="16"/>
-      <c r="I25" s="7">
+      <c r="H25" s="8"/>
+      <c r="I25" s="20">
         <v>44215</v>
       </c>
-      <c r="J25" s="16"/>
+      <c r="J25" s="8"/>
     </row>
     <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="4" t="s">
+      <c r="A26" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="H26" s="16"/>
-      <c r="I26" s="7">
+      <c r="H26" s="8"/>
+      <c r="I26" s="20">
         <v>44215</v>
       </c>
-      <c r="J26" s="16"/>
+      <c r="J26" s="8"/>
     </row>
     <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="4" t="s">
+      <c r="A27" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="16"/>
-      <c r="I27" s="7">
+      <c r="H27" s="8"/>
+      <c r="I27" s="20">
         <v>44215</v>
       </c>
-      <c r="J27" s="16"/>
+      <c r="J27" s="8"/>
     </row>
     <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="4" t="s">
+      <c r="A28" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="H28" s="16"/>
-      <c r="I28" s="7">
+      <c r="H28" s="8"/>
+      <c r="I28" s="20">
         <v>44215</v>
       </c>
-      <c r="J28" s="16"/>
+      <c r="J28" s="8"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="4" t="s">
+      <c r="A29" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H29" s="16"/>
-      <c r="I29" s="7">
+      <c r="H29" s="8"/>
+      <c r="I29" s="20">
         <v>44215</v>
       </c>
-      <c r="J29" s="16"/>
+      <c r="J29" s="8"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="16"/>
-      <c r="E30" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="4" t="s">
+      <c r="A30" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H30" s="16"/>
-      <c r="I30" s="7">
+      <c r="H30" s="8"/>
+      <c r="I30" s="20">
         <v>44215</v>
       </c>
-      <c r="J30" s="16"/>
+      <c r="J30" s="8"/>
     </row>
     <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="4" t="s">
+      <c r="A31" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="H31" s="16"/>
-      <c r="I31" s="7">
+      <c r="H31" s="8"/>
+      <c r="I31" s="20">
         <v>44215</v>
       </c>
-      <c r="J31" s="16"/>
+      <c r="J31" s="8"/>
     </row>
     <row r="32" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="4" t="s">
+      <c r="A32" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="H32" s="16"/>
-      <c r="I32" s="7">
+      <c r="H32" s="8"/>
+      <c r="I32" s="20">
         <v>44215</v>
       </c>
-      <c r="J32" s="16"/>
-    </row>
-    <row r="33" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="4" t="s">
+      <c r="J32" s="8"/>
+    </row>
+    <row r="33" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="H33" s="16"/>
-      <c r="I33" s="7">
+      <c r="H33" s="8"/>
+      <c r="I33" s="20">
         <v>44215</v>
       </c>
-      <c r="J33" s="16"/>
-    </row>
-    <row r="34" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="J34" s="16"/>
-    </row>
-    <row r="35" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="J35" s="16"/>
-    </row>
-    <row r="36" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="J36" s="16"/>
-    </row>
-    <row r="37" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="J37" s="16"/>
-    </row>
-    <row r="38" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="J38" s="16"/>
-    </row>
-    <row r="39" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="J39" s="16"/>
-    </row>
-    <row r="40" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="J40" s="16"/>
-    </row>
-    <row r="41" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="J41" s="16"/>
-    </row>
-    <row r="42" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="J42" s="16"/>
-    </row>
-    <row r="43" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="J43" s="16"/>
-    </row>
-    <row r="44" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="J44" s="16"/>
-    </row>
-    <row r="45" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="J45" s="16"/>
-    </row>
-    <row r="46" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="J46" s="16"/>
-    </row>
-    <row r="47" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="J47" s="16"/>
-    </row>
-    <row r="48" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="J48" s="16"/>
-    </row>
-    <row r="49" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="J49" s="16"/>
-    </row>
-    <row r="50" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="J50" s="16"/>
-    </row>
-    <row r="51" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="J51" s="16"/>
-    </row>
-    <row r="52" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="J52" s="16"/>
-    </row>
-    <row r="53" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="J53" s="16"/>
-    </row>
-    <row r="54" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="J54" s="16"/>
-    </row>
-    <row r="55" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="J55" s="16"/>
-    </row>
-    <row r="56" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="J56" s="16"/>
-    </row>
-    <row r="57" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="H57" s="16"/>
-      <c r="J57" s="16"/>
-    </row>
-    <row r="58" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="J58" s="16"/>
-    </row>
-    <row r="59" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="H59" s="16"/>
-      <c r="J59" s="16"/>
-    </row>
-    <row r="60" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="H60" s="16"/>
-      <c r="J60" s="16"/>
-    </row>
-    <row r="61" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="H61" s="16"/>
-      <c r="J61" s="16"/>
+      <c r="J33" s="8"/>
+    </row>
+    <row r="34" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H34" s="8"/>
+      <c r="I34" s="20">
+        <v>44215</v>
+      </c>
+      <c r="J34" s="8"/>
+    </row>
+    <row r="35" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H35" s="8"/>
+      <c r="I35" s="20">
+        <v>44215</v>
+      </c>
+      <c r="J35" s="8"/>
+    </row>
+    <row r="36" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H36" s="8"/>
+      <c r="I36" s="20">
+        <v>44215</v>
+      </c>
+      <c r="J36" s="8"/>
+    </row>
+    <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H37" s="8"/>
+      <c r="I37" s="20">
+        <v>44215</v>
+      </c>
+      <c r="J37" s="8"/>
+    </row>
+    <row r="38" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H38" s="8"/>
+      <c r="I38" s="20">
+        <v>44215</v>
+      </c>
+      <c r="J38" s="8"/>
+    </row>
+    <row r="39" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="15"/>
+      <c r="B39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="J39" s="8"/>
+    </row>
+    <row r="40" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="15"/>
+      <c r="B40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="J40" s="8"/>
+    </row>
+    <row r="41" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="15"/>
+      <c r="B41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="J41" s="8"/>
+    </row>
+    <row r="42" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="15"/>
+      <c r="B42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="J42" s="8"/>
+    </row>
+    <row r="43" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
+      <c r="B43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="J43" s="8"/>
+    </row>
+    <row r="44" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="15"/>
+      <c r="B44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="J44" s="8"/>
+    </row>
+    <row r="45" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
+      <c r="B45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="J45" s="8"/>
+    </row>
+    <row r="46" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="15"/>
+      <c r="B46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="J46" s="8"/>
+    </row>
+    <row r="47" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="15"/>
+      <c r="B47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="J47" s="8"/>
+    </row>
+    <row r="48" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="15"/>
+      <c r="B48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="J48" s="8"/>
+    </row>
+    <row r="49" spans="2:10" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="8"/>
+    </row>
+    <row r="50" spans="2:10" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="8"/>
+    </row>
+    <row r="51" spans="2:10" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="8"/>
+    </row>
+    <row r="52" spans="2:10" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="8"/>
+    </row>
+    <row r="53" spans="2:10" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="8"/>
+    </row>
+    <row r="54" spans="2:10" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="8"/>
+    </row>
+    <row r="55" spans="2:10" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="8"/>
+    </row>
+    <row r="56" spans="2:10" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="8"/>
+    </row>
+    <row r="57" spans="2:10" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="8"/>
+    </row>
+    <row r="58" spans="2:10" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="8"/>
+    </row>
+    <row r="59" spans="2:10" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="8"/>
+    </row>
+    <row r="60" spans="2:10" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="8"/>
+    </row>
+    <row r="61" spans="2:10" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="H32:H61"/>
+    <mergeCell ref="F32:F61"/>
+    <mergeCell ref="D32:D61"/>
+    <mergeCell ref="B32:B61"/>
+    <mergeCell ref="J32:J61"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="J2:J31"/>
     <mergeCell ref="D2:D31"/>
     <mergeCell ref="F2:F31"/>
     <mergeCell ref="H2:H31"/>
     <mergeCell ref="B2:B31"/>
-    <mergeCell ref="H32:H61"/>
-    <mergeCell ref="F32:F61"/>
-    <mergeCell ref="D32:D61"/>
-    <mergeCell ref="B32:B61"/>
-    <mergeCell ref="J32:J61"/>
   </mergeCells>
-  <conditionalFormatting sqref="A2:I2 A1:G1 K1:XFD2 K5:XFD1048576 A5:I10 A11:B11 D11:I11 A12:I31 A62:I1048576 I32:I61 H32 H35:H61 G32:G61 F32 F35:F61 D32 D35:D61 B32 B35:B61 E31:E61 C31:C61 A31:A61">
+  <conditionalFormatting sqref="A2:I2 A1:G1 K1:XFD2 K5:XFD1048576 A5:I10 A11:B11 D11:I11 A12:I31 A62:I1048576 I32:I61 H32 H35:H61 G32:G61 F32 F35:F61 D32 D35:D61 B32 B35:B61 E31:E61 C31:C61 A30:A61">
     <cfRule type="cellIs" dxfId="10" priority="19" operator="equal">
       <formula>"x"</formula>
     </cfRule>
@@ -1786,60 +1955,60 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.7109375" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="22.7109375" style="5"/>
+    <col min="1" max="16384" width="22.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="42" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="42" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="42" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
     </row>

--- a/TableauDeBord.xlsx
+++ b/TableauDeBord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\GitHub\S3D_MyWishList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF83471F-E9F3-4446-9DF2-5D3BEBC933C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5495C0AB-1B55-43B5-AFA5-8539B4648A50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="80">
   <si>
     <t>BOUSSETTA Nael</t>
   </si>
@@ -255,6 +255,18 @@
   </si>
   <si>
     <t>affichage des liste non expiré</t>
+  </si>
+  <si>
+    <t>ajout message lors reservation</t>
+  </si>
+  <si>
+    <t>empeche suppression lors item reservé</t>
+  </si>
+  <si>
+    <t>empeche modification lors item reservé</t>
+  </si>
+  <si>
+    <t>affichage image item</t>
   </si>
 </sst>
 </file>
@@ -427,19 +439,10 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -476,6 +479,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -838,1040 +850,1064 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="62.5703125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.5703125" style="14"/>
-    <col min="2" max="2" width="1.7109375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="62.5703125" style="15"/>
-    <col min="4" max="4" width="1.7109375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="62.5703125" style="15"/>
-    <col min="6" max="6" width="1.7109375" style="15" customWidth="1"/>
-    <col min="7" max="7" width="62.5703125" style="15"/>
-    <col min="8" max="8" width="1.7109375" style="15" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="16" customWidth="1"/>
-    <col min="10" max="10" width="1.7109375" style="15" customWidth="1"/>
-    <col min="11" max="16384" width="62.5703125" style="15"/>
+    <col min="1" max="1" width="62.5703125" style="11"/>
+    <col min="2" max="2" width="1.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="62.5703125" style="12"/>
+    <col min="4" max="4" width="1.7109375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="62.5703125" style="12"/>
+    <col min="6" max="6" width="1.7109375" style="12" customWidth="1"/>
+    <col min="7" max="7" width="62.5703125" style="12"/>
+    <col min="8" max="8" width="1.7109375" style="12" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="1.7109375" style="12" customWidth="1"/>
+    <col min="11" max="16384" width="62.5703125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:10" s="13" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+    </row>
+    <row r="2" spans="1:10" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="11" t="s">
+      <c r="F2" s="18"/>
+      <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="12" t="s">
+      <c r="H2" s="18"/>
+      <c r="I2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="8"/>
+      <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="15" t="s">
+      <c r="A3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="J3" s="8"/>
+      <c r="H3" s="18"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="18" t="s">
+      <c r="A4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="18" t="s">
+      <c r="A5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="20">
+      <c r="H5" s="18"/>
+      <c r="I5" s="17">
         <v>44199</v>
       </c>
-      <c r="J5" s="8"/>
+      <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="15" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="G6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="20">
+      <c r="H6" s="18"/>
+      <c r="I6" s="17">
         <v>44199</v>
       </c>
-      <c r="J6" s="8"/>
+      <c r="J6" s="18"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="15" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="20">
+      <c r="H7" s="18"/>
+      <c r="I7" s="17">
         <v>44201</v>
       </c>
-      <c r="J7" s="8"/>
+      <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="15" t="s">
+      <c r="A8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="J8" s="8"/>
+      <c r="H8" s="18"/>
+      <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="15" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="15" t="s">
+      <c r="F9" s="18"/>
+      <c r="G9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="20">
+      <c r="H9" s="18"/>
+      <c r="I9" s="17">
         <v>44203</v>
       </c>
-      <c r="J9" s="8"/>
+      <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="15" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="20">
+      <c r="H10" s="18"/>
+      <c r="I10" s="17">
         <v>44203</v>
       </c>
-      <c r="J10" s="8"/>
+      <c r="J10" s="18"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="18" t="s">
+      <c r="A11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="20">
+      <c r="D11" s="18"/>
+      <c r="E11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="18"/>
+      <c r="I11" s="17">
         <v>44206</v>
       </c>
-      <c r="J11" s="8"/>
+      <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="15" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="20">
+      <c r="H12" s="18"/>
+      <c r="I12" s="17">
         <v>44208</v>
       </c>
-      <c r="J12" s="8"/>
+      <c r="J12" s="18"/>
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="15" t="s">
+      <c r="A13" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="20">
+      <c r="H13" s="18"/>
+      <c r="I13" s="17">
         <v>44208</v>
       </c>
-      <c r="J13" s="8"/>
+      <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="15" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="20">
+      <c r="H14" s="18"/>
+      <c r="I14" s="17">
         <v>44208</v>
       </c>
-      <c r="J14" s="8"/>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="15" t="s">
+      <c r="A15" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="20">
+      <c r="H15" s="18"/>
+      <c r="I15" s="17">
         <v>44211</v>
       </c>
-      <c r="J15" s="8"/>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="15" t="s">
+      <c r="A16" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="20">
+      <c r="H16" s="18"/>
+      <c r="I16" s="17">
         <v>44212</v>
       </c>
-      <c r="J16" s="8"/>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="15" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="15" t="s">
+      <c r="F17" s="18"/>
+      <c r="G17" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="20">
+      <c r="H17" s="18"/>
+      <c r="I17" s="17">
         <v>44212</v>
       </c>
-      <c r="J17" s="8"/>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="15" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="20">
+      <c r="F18" s="18"/>
+      <c r="G18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="18"/>
+      <c r="I18" s="17">
         <v>44213</v>
       </c>
-      <c r="J18" s="8"/>
+      <c r="J18" s="18"/>
     </row>
     <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="15" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="15" t="s">
+      <c r="F19" s="18"/>
+      <c r="G19" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="20">
+      <c r="H19" s="18"/>
+      <c r="I19" s="17">
         <v>44214</v>
       </c>
-      <c r="J19" s="8"/>
+      <c r="J19" s="18"/>
     </row>
     <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="15" t="s">
+      <c r="B20" s="18"/>
+      <c r="C20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="15" t="s">
+      <c r="F20" s="18"/>
+      <c r="G20" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="20">
+      <c r="H20" s="18"/>
+      <c r="I20" s="17">
         <v>44214</v>
       </c>
-      <c r="J20" s="8"/>
+      <c r="J20" s="18"/>
     </row>
     <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="15" t="s">
+      <c r="A21" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="15" t="s">
+      <c r="F21" s="18"/>
+      <c r="G21" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="20">
+      <c r="H21" s="18"/>
+      <c r="I21" s="17">
         <v>44214</v>
       </c>
-      <c r="J21" s="8"/>
+      <c r="J21" s="18"/>
     </row>
     <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="15" t="s">
+      <c r="B22" s="18"/>
+      <c r="C22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="18"/>
+      <c r="G22" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="20">
+      <c r="H22" s="18"/>
+      <c r="I22" s="17">
         <v>44215</v>
       </c>
-      <c r="J22" s="8"/>
+      <c r="J22" s="18"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="15" t="s">
+      <c r="B23" s="18"/>
+      <c r="C23" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="18"/>
+      <c r="E23" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="20">
+      <c r="H23" s="18"/>
+      <c r="I23" s="17">
         <v>44215</v>
       </c>
-      <c r="J23" s="8"/>
+      <c r="J23" s="18"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="15" t="s">
+      <c r="B24" s="18"/>
+      <c r="C24" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H24" s="8"/>
-      <c r="I24" s="20">
+      <c r="H24" s="18"/>
+      <c r="I24" s="17">
         <v>44215</v>
       </c>
-      <c r="J24" s="8"/>
+      <c r="J24" s="18"/>
     </row>
     <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="15" t="s">
+      <c r="B25" s="18"/>
+      <c r="C25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="18"/>
+      <c r="E25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="18"/>
+      <c r="G25" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H25" s="8"/>
-      <c r="I25" s="20">
+      <c r="H25" s="18"/>
+      <c r="I25" s="17">
         <v>44215</v>
       </c>
-      <c r="J25" s="8"/>
+      <c r="J25" s="18"/>
     </row>
     <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="15" t="s">
+      <c r="A26" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="18"/>
+      <c r="C26" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="18"/>
+      <c r="E26" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="18"/>
+      <c r="G26" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="20">
+      <c r="H26" s="18"/>
+      <c r="I26" s="17">
         <v>44215</v>
       </c>
-      <c r="J26" s="8"/>
+      <c r="J26" s="18"/>
     </row>
     <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="15" t="s">
+      <c r="A27" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="C27" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="18"/>
+      <c r="E27" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="18"/>
+      <c r="G27" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="20">
+      <c r="H27" s="18"/>
+      <c r="I27" s="17">
         <v>44215</v>
       </c>
-      <c r="J27" s="8"/>
+      <c r="J27" s="18"/>
     </row>
     <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="15" t="s">
+      <c r="A28" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="18"/>
+      <c r="C28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="18"/>
+      <c r="E28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="18"/>
+      <c r="G28" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="20">
+      <c r="H28" s="18"/>
+      <c r="I28" s="17">
         <v>44215</v>
       </c>
-      <c r="J28" s="8"/>
+      <c r="J28" s="18"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="15" t="s">
+      <c r="A29" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="18"/>
+      <c r="C29" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="18"/>
+      <c r="E29" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="18"/>
+      <c r="G29" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="20">
+      <c r="H29" s="18"/>
+      <c r="I29" s="17">
         <v>44215</v>
       </c>
-      <c r="J29" s="8"/>
+      <c r="J29" s="18"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="15" t="s">
+      <c r="A30" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="18"/>
+      <c r="C30" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="18"/>
+      <c r="E30" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="18"/>
+      <c r="G30" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="20">
+      <c r="H30" s="18"/>
+      <c r="I30" s="17">
         <v>44215</v>
       </c>
-      <c r="J30" s="8"/>
+      <c r="J30" s="18"/>
     </row>
     <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="15" t="s">
+      <c r="A31" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="18"/>
+      <c r="C31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="18"/>
+      <c r="E31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="18"/>
+      <c r="G31" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="H31" s="8"/>
-      <c r="I31" s="20">
+      <c r="H31" s="18"/>
+      <c r="I31" s="17">
         <v>44215</v>
       </c>
-      <c r="J31" s="8"/>
+      <c r="J31" s="18"/>
     </row>
     <row r="32" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="15" t="s">
+      <c r="A32" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="18"/>
+      <c r="C32" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="18"/>
+      <c r="E32" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="18"/>
+      <c r="G32" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="H32" s="8"/>
-      <c r="I32" s="20">
+      <c r="H32" s="18"/>
+      <c r="I32" s="17">
         <v>44215</v>
       </c>
-      <c r="J32" s="8"/>
+      <c r="J32" s="18"/>
     </row>
     <row r="33" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="15" t="s">
+      <c r="A33" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="C33" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="18"/>
+      <c r="E33" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="18"/>
+      <c r="G33" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H33" s="8"/>
-      <c r="I33" s="20">
+      <c r="H33" s="18"/>
+      <c r="I33" s="17">
         <v>44215</v>
       </c>
-      <c r="J33" s="8"/>
+      <c r="J33" s="18"/>
     </row>
     <row r="34" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="15" t="s">
+      <c r="A34" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="18"/>
+      <c r="C34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="18"/>
+      <c r="E34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="18"/>
+      <c r="G34" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="H34" s="8"/>
-      <c r="I34" s="20">
+      <c r="H34" s="18"/>
+      <c r="I34" s="17">
         <v>44215</v>
       </c>
-      <c r="J34" s="8"/>
+      <c r="J34" s="18"/>
     </row>
     <row r="35" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="15" t="s">
+      <c r="A35" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="18"/>
+      <c r="C35" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="18"/>
+      <c r="E35" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="18"/>
+      <c r="G35" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="H35" s="8"/>
-      <c r="I35" s="20">
+      <c r="H35" s="18"/>
+      <c r="I35" s="17">
         <v>44215</v>
       </c>
-      <c r="J35" s="8"/>
+      <c r="J35" s="18"/>
     </row>
     <row r="36" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="15" t="s">
+      <c r="A36" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="18"/>
+      <c r="C36" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="18"/>
+      <c r="E36" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="18"/>
+      <c r="G36" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="H36" s="8"/>
-      <c r="I36" s="20">
+      <c r="H36" s="18"/>
+      <c r="I36" s="17">
         <v>44215</v>
       </c>
-      <c r="J36" s="8"/>
+      <c r="J36" s="18"/>
     </row>
     <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="15" t="s">
+      <c r="A37" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="18"/>
+      <c r="C37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="18"/>
+      <c r="E37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="18"/>
+      <c r="G37" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="H37" s="8"/>
-      <c r="I37" s="20">
+      <c r="H37" s="18"/>
+      <c r="I37" s="17">
         <v>44215</v>
       </c>
-      <c r="J37" s="8"/>
+      <c r="J37" s="18"/>
     </row>
     <row r="38" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F38" s="8"/>
-      <c r="G38" s="15" t="s">
+      <c r="A38" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="18"/>
+      <c r="C38" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="18"/>
+      <c r="E38" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="18"/>
+      <c r="G38" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="H38" s="8"/>
-      <c r="I38" s="20">
+      <c r="H38" s="18"/>
+      <c r="I38" s="17">
         <v>44215</v>
       </c>
-      <c r="J38" s="8"/>
+      <c r="J38" s="18"/>
     </row>
     <row r="39" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="J39" s="8"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H39" s="18"/>
+      <c r="I39" s="17">
+        <v>44215</v>
+      </c>
+      <c r="J39" s="18"/>
     </row>
     <row r="40" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="J40" s="8"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H40" s="18"/>
+      <c r="I40" s="17">
+        <v>44215</v>
+      </c>
+      <c r="J40" s="18"/>
     </row>
     <row r="41" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="J41" s="8"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H41" s="18"/>
+      <c r="I41" s="17">
+        <v>44215</v>
+      </c>
+      <c r="J41" s="18"/>
     </row>
     <row r="42" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="J42" s="8"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H42" s="18"/>
+      <c r="I42" s="17">
+        <v>44215</v>
+      </c>
+      <c r="J42" s="18"/>
     </row>
     <row r="43" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="J43" s="8"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="J43" s="18"/>
     </row>
     <row r="44" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="J44" s="8"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="J44" s="18"/>
     </row>
     <row r="45" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-      <c r="B45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="J45" s="8"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="J45" s="18"/>
     </row>
     <row r="46" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
-      <c r="B46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="J46" s="8"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="J46" s="18"/>
     </row>
     <row r="47" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
-      <c r="B47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="J47" s="8"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="J47" s="18"/>
     </row>
     <row r="48" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
-      <c r="B48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="J48" s="8"/>
-    </row>
-    <row r="49" spans="2:10" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="8"/>
-    </row>
-    <row r="50" spans="2:10" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="8"/>
-    </row>
-    <row r="51" spans="2:10" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="8"/>
-    </row>
-    <row r="52" spans="2:10" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="8"/>
-    </row>
-    <row r="53" spans="2:10" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="8"/>
-    </row>
-    <row r="54" spans="2:10" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="8"/>
-    </row>
-    <row r="55" spans="2:10" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="8"/>
-    </row>
-    <row r="56" spans="2:10" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="8"/>
-    </row>
-    <row r="57" spans="2:10" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="8"/>
-    </row>
-    <row r="58" spans="2:10" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="8"/>
-    </row>
-    <row r="59" spans="2:10" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="8"/>
-    </row>
-    <row r="60" spans="2:10" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="8"/>
-    </row>
-    <row r="61" spans="2:10" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="8"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="J48" s="18"/>
+    </row>
+    <row r="49" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="18"/>
+    </row>
+    <row r="50" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="18"/>
+    </row>
+    <row r="51" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="18"/>
+    </row>
+    <row r="52" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="18"/>
+    </row>
+    <row r="53" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="18"/>
+    </row>
+    <row r="54" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="18"/>
+    </row>
+    <row r="55" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="18"/>
+    </row>
+    <row r="56" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="18"/>
+    </row>
+    <row r="57" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="18"/>
+    </row>
+    <row r="58" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="18"/>
+    </row>
+    <row r="59" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="18"/>
+    </row>
+    <row r="60" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="18"/>
+    </row>
+    <row r="61" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="H32:H61"/>
-    <mergeCell ref="F32:F61"/>
-    <mergeCell ref="D32:D61"/>
-    <mergeCell ref="B32:B61"/>
-    <mergeCell ref="J32:J61"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="J2:J31"/>
     <mergeCell ref="D2:D31"/>
     <mergeCell ref="F2:F31"/>
     <mergeCell ref="H2:H31"/>
     <mergeCell ref="B2:B31"/>
+    <mergeCell ref="H32:H61"/>
+    <mergeCell ref="F32:F61"/>
+    <mergeCell ref="D32:D61"/>
+    <mergeCell ref="B32:B61"/>
+    <mergeCell ref="J32:J61"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:I2 A1:G1 K1:XFD2 K5:XFD1048576 A5:I10 A11:B11 D11:I11 A12:I31 A62:I1048576 I32:I61 H32 H35:H61 G32:G61 F32 F35:F61 D32 D35:D61 B32 B35:B61 E31:E61 C31:C61 A30:A61">
     <cfRule type="cellIs" dxfId="10" priority="19" operator="equal">

--- a/TableauDeBord.xlsx
+++ b/TableauDeBord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\GitHub\S3D_MyWishList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5495C0AB-1B55-43B5-AFA5-8539B4648A50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1B1BD2-11B4-44A8-8D60-9009F27BC287}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="81">
   <si>
     <t>BOUSSETTA Nael</t>
   </si>
@@ -267,6 +267,9 @@
   </si>
   <si>
     <t>affichage image item</t>
+  </si>
+  <si>
+    <t>Liste des createurs</t>
   </si>
 </sst>
 </file>
@@ -481,13 +484,13 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -850,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C47" sqref="C46:C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="62.5703125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -870,1044 +873,1090 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:10" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="18"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="18"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="20"/>
       <c r="I2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="18"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="18"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="18"/>
+      <c r="F3" s="20"/>
       <c r="G3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="H3" s="20"/>
+      <c r="J3" s="20"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="18"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="18"/>
+      <c r="F4" s="20"/>
       <c r="G4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="J4" s="18"/>
+      <c r="H4" s="20"/>
+      <c r="J4" s="20"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="18"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="18"/>
+      <c r="F5" s="20"/>
       <c r="G5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="18"/>
+      <c r="H5" s="20"/>
       <c r="I5" s="17">
         <v>44199</v>
       </c>
-      <c r="J5" s="18"/>
+      <c r="J5" s="20"/>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="18"/>
+      <c r="D6" s="20"/>
       <c r="E6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="18"/>
+      <c r="F6" s="20"/>
       <c r="G6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="18"/>
+      <c r="H6" s="20"/>
       <c r="I6" s="17">
         <v>44199</v>
       </c>
-      <c r="J6" s="18"/>
+      <c r="J6" s="20"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="18"/>
+      <c r="D7" s="20"/>
       <c r="E7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="18"/>
+      <c r="F7" s="20"/>
       <c r="G7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="18"/>
+      <c r="H7" s="20"/>
       <c r="I7" s="17">
         <v>44201</v>
       </c>
-      <c r="J7" s="18"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="18"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="18"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="18"/>
-      <c r="J8" s="18"/>
+      <c r="H8" s="20"/>
+      <c r="J8" s="20"/>
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="18"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="18"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="18"/>
+      <c r="F9" s="20"/>
       <c r="G9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="18"/>
+      <c r="H9" s="20"/>
       <c r="I9" s="17">
         <v>44203</v>
       </c>
-      <c r="J9" s="18"/>
+      <c r="J9" s="20"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="18"/>
+      <c r="D10" s="20"/>
       <c r="E10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="18"/>
+      <c r="F10" s="20"/>
       <c r="G10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="18"/>
+      <c r="H10" s="20"/>
       <c r="I10" s="17">
         <v>44203</v>
       </c>
-      <c r="J10" s="18"/>
+      <c r="J10" s="20"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="18"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="18"/>
+      <c r="D11" s="20"/>
       <c r="E11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="18"/>
+      <c r="F11" s="20"/>
       <c r="G11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="18"/>
+      <c r="H11" s="20"/>
       <c r="I11" s="17">
         <v>44206</v>
       </c>
-      <c r="J11" s="18"/>
+      <c r="J11" s="20"/>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="18"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="18"/>
+      <c r="F12" s="20"/>
       <c r="G12" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="18"/>
+      <c r="H12" s="20"/>
       <c r="I12" s="17">
         <v>44208</v>
       </c>
-      <c r="J12" s="18"/>
+      <c r="J12" s="20"/>
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="18"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="18"/>
+      <c r="D13" s="20"/>
       <c r="E13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="18"/>
+      <c r="F13" s="20"/>
       <c r="G13" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="18"/>
+      <c r="H13" s="20"/>
       <c r="I13" s="17">
         <v>44208</v>
       </c>
-      <c r="J13" s="18"/>
+      <c r="J13" s="20"/>
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="18"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="18"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="18"/>
+      <c r="F14" s="20"/>
       <c r="G14" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="18"/>
+      <c r="H14" s="20"/>
       <c r="I14" s="17">
         <v>44208</v>
       </c>
-      <c r="J14" s="18"/>
+      <c r="J14" s="20"/>
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="18"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="18"/>
+      <c r="D15" s="20"/>
       <c r="E15" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="18"/>
+      <c r="F15" s="20"/>
       <c r="G15" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="18"/>
+      <c r="H15" s="20"/>
       <c r="I15" s="17">
         <v>44211</v>
       </c>
-      <c r="J15" s="18"/>
+      <c r="J15" s="20"/>
     </row>
     <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="18"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="18"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="18"/>
+      <c r="F16" s="20"/>
       <c r="G16" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="18"/>
+      <c r="H16" s="20"/>
       <c r="I16" s="17">
         <v>44212</v>
       </c>
-      <c r="J16" s="18"/>
+      <c r="J16" s="20"/>
     </row>
     <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="18"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="18"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="18"/>
+      <c r="F17" s="20"/>
       <c r="G17" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="18"/>
+      <c r="H17" s="20"/>
       <c r="I17" s="17">
         <v>44212</v>
       </c>
-      <c r="J17" s="18"/>
+      <c r="J17" s="20"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="18"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="18"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="18"/>
+      <c r="F18" s="20"/>
       <c r="G18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="18"/>
+      <c r="H18" s="20"/>
       <c r="I18" s="17">
         <v>44213</v>
       </c>
-      <c r="J18" s="18"/>
+      <c r="J18" s="20"/>
     </row>
     <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="18"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="18"/>
+      <c r="D19" s="20"/>
       <c r="E19" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="18"/>
+      <c r="F19" s="20"/>
       <c r="G19" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H19" s="18"/>
+      <c r="H19" s="20"/>
       <c r="I19" s="17">
         <v>44214</v>
       </c>
-      <c r="J19" s="18"/>
+      <c r="J19" s="20"/>
     </row>
     <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="18"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="18"/>
+      <c r="D20" s="20"/>
       <c r="E20" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="18"/>
+      <c r="F20" s="20"/>
       <c r="G20" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="H20" s="18"/>
+      <c r="H20" s="20"/>
       <c r="I20" s="17">
         <v>44214</v>
       </c>
-      <c r="J20" s="18"/>
+      <c r="J20" s="20"/>
     </row>
     <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="18"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="18"/>
+      <c r="D21" s="20"/>
       <c r="E21" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="18"/>
+      <c r="F21" s="20"/>
       <c r="G21" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="18"/>
+      <c r="H21" s="20"/>
       <c r="I21" s="17">
         <v>44214</v>
       </c>
-      <c r="J21" s="18"/>
+      <c r="J21" s="20"/>
     </row>
     <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="18"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="18"/>
+      <c r="D22" s="20"/>
       <c r="E22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="18"/>
+      <c r="F22" s="20"/>
       <c r="G22" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="18"/>
+      <c r="H22" s="20"/>
       <c r="I22" s="17">
         <v>44215</v>
       </c>
-      <c r="J22" s="18"/>
+      <c r="J22" s="20"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="18"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="18"/>
+      <c r="D23" s="20"/>
       <c r="E23" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="18"/>
+      <c r="F23" s="20"/>
       <c r="G23" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="18"/>
+      <c r="H23" s="20"/>
       <c r="I23" s="17">
         <v>44215</v>
       </c>
-      <c r="J23" s="18"/>
+      <c r="J23" s="20"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="18"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="18"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="20"/>
       <c r="G24" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H24" s="18"/>
+      <c r="H24" s="20"/>
       <c r="I24" s="17">
         <v>44215</v>
       </c>
-      <c r="J24" s="18"/>
+      <c r="J24" s="20"/>
     </row>
     <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="18"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="18"/>
+      <c r="D25" s="20"/>
       <c r="E25" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="18"/>
+      <c r="F25" s="20"/>
       <c r="G25" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H25" s="18"/>
+      <c r="H25" s="20"/>
       <c r="I25" s="17">
         <v>44215</v>
       </c>
-      <c r="J25" s="18"/>
+      <c r="J25" s="20"/>
     </row>
     <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="18"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="18"/>
+      <c r="D26" s="20"/>
       <c r="E26" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="20"/>
       <c r="G26" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="H26" s="18"/>
+      <c r="H26" s="20"/>
       <c r="I26" s="17">
         <v>44215</v>
       </c>
-      <c r="J26" s="18"/>
+      <c r="J26" s="20"/>
     </row>
     <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="18"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="18"/>
+      <c r="D27" s="20"/>
       <c r="E27" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="18"/>
+      <c r="F27" s="20"/>
       <c r="G27" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="18"/>
+      <c r="H27" s="20"/>
       <c r="I27" s="17">
         <v>44215</v>
       </c>
-      <c r="J27" s="18"/>
+      <c r="J27" s="20"/>
     </row>
     <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="18"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="18"/>
+      <c r="D28" s="20"/>
       <c r="E28" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="18"/>
+      <c r="F28" s="20"/>
       <c r="G28" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="H28" s="18"/>
+      <c r="H28" s="20"/>
       <c r="I28" s="17">
         <v>44215</v>
       </c>
-      <c r="J28" s="18"/>
+      <c r="J28" s="20"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="18"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="18"/>
+      <c r="D29" s="20"/>
       <c r="E29" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="18"/>
+      <c r="F29" s="20"/>
       <c r="G29" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H29" s="18"/>
+      <c r="H29" s="20"/>
       <c r="I29" s="17">
         <v>44215</v>
       </c>
-      <c r="J29" s="18"/>
+      <c r="J29" s="20"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="18"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="18"/>
+      <c r="D30" s="20"/>
       <c r="E30" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F30" s="18"/>
+      <c r="F30" s="20"/>
       <c r="G30" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="H30" s="18"/>
+      <c r="H30" s="20"/>
       <c r="I30" s="17">
         <v>44215</v>
       </c>
-      <c r="J30" s="18"/>
+      <c r="J30" s="20"/>
     </row>
     <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="18"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="18"/>
+      <c r="D31" s="20"/>
       <c r="E31" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F31" s="18"/>
+      <c r="F31" s="20"/>
       <c r="G31" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="H31" s="18"/>
+      <c r="H31" s="20"/>
       <c r="I31" s="17">
         <v>44215</v>
       </c>
-      <c r="J31" s="18"/>
+      <c r="J31" s="20"/>
     </row>
     <row r="32" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="18"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="18"/>
+      <c r="D32" s="20"/>
       <c r="E32" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F32" s="18"/>
+      <c r="F32" s="20"/>
       <c r="G32" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="H32" s="18"/>
+      <c r="H32" s="20"/>
       <c r="I32" s="17">
         <v>44215</v>
       </c>
-      <c r="J32" s="18"/>
+      <c r="J32" s="20"/>
     </row>
     <row r="33" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="18"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="18"/>
+      <c r="D33" s="20"/>
       <c r="E33" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F33" s="18"/>
+      <c r="F33" s="20"/>
       <c r="G33" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H33" s="18"/>
+      <c r="H33" s="20"/>
       <c r="I33" s="17">
         <v>44215</v>
       </c>
-      <c r="J33" s="18"/>
+      <c r="J33" s="20"/>
     </row>
     <row r="34" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="18"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="18"/>
+      <c r="D34" s="20"/>
       <c r="E34" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="18"/>
+      <c r="F34" s="20"/>
       <c r="G34" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="H34" s="18"/>
+      <c r="H34" s="20"/>
       <c r="I34" s="17">
         <v>44215</v>
       </c>
-      <c r="J34" s="18"/>
+      <c r="J34" s="20"/>
     </row>
     <row r="35" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="18"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="18"/>
+      <c r="D35" s="20"/>
       <c r="E35" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="18"/>
+      <c r="F35" s="20"/>
       <c r="G35" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="H35" s="18"/>
+      <c r="H35" s="20"/>
       <c r="I35" s="17">
         <v>44215</v>
       </c>
-      <c r="J35" s="18"/>
+      <c r="J35" s="20"/>
     </row>
     <row r="36" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="18"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="18"/>
+      <c r="D36" s="20"/>
       <c r="E36" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F36" s="18"/>
+      <c r="F36" s="20"/>
       <c r="G36" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="H36" s="18"/>
+      <c r="H36" s="20"/>
       <c r="I36" s="17">
         <v>44215</v>
       </c>
-      <c r="J36" s="18"/>
+      <c r="J36" s="20"/>
     </row>
     <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="18"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="18"/>
+      <c r="D37" s="20"/>
       <c r="E37" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F37" s="18"/>
+      <c r="F37" s="20"/>
       <c r="G37" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="H37" s="18"/>
+      <c r="H37" s="20"/>
       <c r="I37" s="17">
         <v>44215</v>
       </c>
-      <c r="J37" s="18"/>
+      <c r="J37" s="20"/>
     </row>
     <row r="38" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="18"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="18"/>
+      <c r="D38" s="20"/>
       <c r="E38" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F38" s="18"/>
+      <c r="F38" s="20"/>
       <c r="G38" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="H38" s="18"/>
+      <c r="H38" s="20"/>
       <c r="I38" s="17">
         <v>44215</v>
       </c>
-      <c r="J38" s="18"/>
+      <c r="J38" s="20"/>
     </row>
     <row r="39" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="F39" s="18"/>
+      <c r="A39" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="20"/>
+      <c r="C39" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="20"/>
+      <c r="E39" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="20"/>
       <c r="G39" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="H39" s="18"/>
+      <c r="H39" s="20"/>
       <c r="I39" s="17">
         <v>44215</v>
       </c>
-      <c r="J39" s="18"/>
+      <c r="J39" s="20"/>
     </row>
     <row r="40" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="F40" s="18"/>
+      <c r="A40" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="20"/>
+      <c r="C40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="20"/>
+      <c r="E40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="20"/>
       <c r="G40" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="H40" s="18"/>
+      <c r="H40" s="20"/>
       <c r="I40" s="17">
         <v>44215</v>
       </c>
-      <c r="J40" s="18"/>
+      <c r="J40" s="20"/>
     </row>
     <row r="41" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="F41" s="18"/>
+      <c r="A41" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="20"/>
+      <c r="C41" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="20"/>
+      <c r="E41" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="20"/>
       <c r="G41" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H41" s="18"/>
+      <c r="H41" s="20"/>
       <c r="I41" s="17">
         <v>44215</v>
       </c>
-      <c r="J41" s="18"/>
+      <c r="J41" s="20"/>
     </row>
     <row r="42" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="F42" s="18"/>
+      <c r="A42" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="20"/>
+      <c r="C42" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="20"/>
+      <c r="E42" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" s="20"/>
       <c r="G42" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="H42" s="18"/>
+      <c r="H42" s="20"/>
       <c r="I42" s="17">
         <v>44215</v>
       </c>
-      <c r="J42" s="18"/>
+      <c r="J42" s="20"/>
     </row>
     <row r="43" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="J43" s="18"/>
+      <c r="A43" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="20"/>
+      <c r="C43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="20"/>
+      <c r="E43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" s="20"/>
+      <c r="G43" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="17">
+        <v>44215</v>
+      </c>
+      <c r="J43" s="20"/>
     </row>
     <row r="44" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
-      <c r="B44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="J44" s="18"/>
+      <c r="B44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="J44" s="20"/>
     </row>
     <row r="45" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
-      <c r="B45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="J45" s="18"/>
+      <c r="B45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="J45" s="20"/>
     </row>
     <row r="46" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
-      <c r="B46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="J46" s="18"/>
+      <c r="B46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="J46" s="20"/>
     </row>
     <row r="47" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
-      <c r="B47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="J47" s="18"/>
+      <c r="B47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="J47" s="20"/>
     </row>
     <row r="48" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
-      <c r="B48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="J48" s="18"/>
+      <c r="B48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="J48" s="20"/>
     </row>
     <row r="49" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="H49" s="18"/>
+      <c r="B49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="H49" s="20"/>
       <c r="I49" s="13"/>
-      <c r="J49" s="18"/>
+      <c r="J49" s="20"/>
     </row>
     <row r="50" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="H50" s="18"/>
+      <c r="B50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="H50" s="20"/>
       <c r="I50" s="13"/>
-      <c r="J50" s="18"/>
+      <c r="J50" s="20"/>
     </row>
     <row r="51" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="H51" s="18"/>
+      <c r="B51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="H51" s="20"/>
       <c r="I51" s="13"/>
-      <c r="J51" s="18"/>
+      <c r="J51" s="20"/>
     </row>
     <row r="52" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="H52" s="18"/>
+      <c r="B52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="H52" s="20"/>
       <c r="I52" s="13"/>
-      <c r="J52" s="18"/>
+      <c r="J52" s="20"/>
     </row>
     <row r="53" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="H53" s="18"/>
+      <c r="B53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="H53" s="20"/>
       <c r="I53" s="13"/>
-      <c r="J53" s="18"/>
+      <c r="J53" s="20"/>
     </row>
     <row r="54" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="H54" s="18"/>
+      <c r="B54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="H54" s="20"/>
       <c r="I54" s="13"/>
-      <c r="J54" s="18"/>
+      <c r="J54" s="20"/>
     </row>
     <row r="55" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="H55" s="18"/>
+      <c r="B55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="H55" s="20"/>
       <c r="I55" s="13"/>
-      <c r="J55" s="18"/>
+      <c r="J55" s="20"/>
     </row>
     <row r="56" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="H56" s="18"/>
+      <c r="B56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="H56" s="20"/>
       <c r="I56" s="13"/>
-      <c r="J56" s="18"/>
+      <c r="J56" s="20"/>
     </row>
     <row r="57" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="H57" s="18"/>
+      <c r="B57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="H57" s="20"/>
       <c r="I57" s="13"/>
-      <c r="J57" s="18"/>
+      <c r="J57" s="20"/>
     </row>
     <row r="58" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="H58" s="18"/>
+      <c r="B58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="H58" s="20"/>
       <c r="I58" s="13"/>
-      <c r="J58" s="18"/>
+      <c r="J58" s="20"/>
     </row>
     <row r="59" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="H59" s="18"/>
+      <c r="B59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="H59" s="20"/>
       <c r="I59" s="13"/>
-      <c r="J59" s="18"/>
+      <c r="J59" s="20"/>
     </row>
     <row r="60" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="H60" s="18"/>
+      <c r="B60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="H60" s="20"/>
       <c r="I60" s="13"/>
-      <c r="J60" s="18"/>
+      <c r="J60" s="20"/>
     </row>
     <row r="61" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="H61" s="18"/>
+      <c r="B61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="H61" s="20"/>
       <c r="I61" s="13"/>
-      <c r="J61" s="18"/>
+      <c r="J61" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="H32:H61"/>
+    <mergeCell ref="F32:F61"/>
+    <mergeCell ref="D32:D61"/>
+    <mergeCell ref="B32:B61"/>
+    <mergeCell ref="J32:J61"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="J2:J31"/>
     <mergeCell ref="D2:D31"/>
     <mergeCell ref="F2:F31"/>
     <mergeCell ref="H2:H31"/>
     <mergeCell ref="B2:B31"/>
-    <mergeCell ref="H32:H61"/>
-    <mergeCell ref="F32:F61"/>
-    <mergeCell ref="D32:D61"/>
-    <mergeCell ref="B32:B61"/>
-    <mergeCell ref="J32:J61"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:I2 A1:G1 K1:XFD2 K5:XFD1048576 A5:I10 A11:B11 D11:I11 A12:I31 A62:I1048576 I32:I61 H32 H35:H61 G32:G61 F32 F35:F61 D32 D35:D61 B32 B35:B61 E31:E61 C31:C61 A30:A61">
     <cfRule type="cellIs" dxfId="10" priority="19" operator="equal">

--- a/TableauDeBord.xlsx
+++ b/TableauDeBord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\GitHub\S3D_MyWishList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5344a3cd4eb43387/Bureau/Git/S3D_MyWishList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1B1BD2-11B4-44A8-8D60-9009F27BC287}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{EB1B1BD2-11B4-44A8-8D60-9009F27BC287}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{339ED997-47E5-43B2-950F-83BE62724538}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableauBord" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="83">
   <si>
     <t>BOUSSETTA Nael</t>
   </si>
@@ -270,6 +270,12 @@
   </si>
   <si>
     <t>Liste des createurs</t>
+  </si>
+  <si>
+    <t>Modification compte</t>
+  </si>
+  <si>
+    <t>Suppression compte</t>
   </si>
 </sst>
 </file>
@@ -484,13 +490,13 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -853,1110 +859,1124 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C47" sqref="C46:C47"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="62.5703125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="62.54296875" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="62.5703125" style="11"/>
-    <col min="2" max="2" width="1.7109375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="62.5703125" style="12"/>
-    <col min="4" max="4" width="1.7109375" style="12" customWidth="1"/>
-    <col min="5" max="5" width="62.5703125" style="12"/>
-    <col min="6" max="6" width="1.7109375" style="12" customWidth="1"/>
-    <col min="7" max="7" width="62.5703125" style="12"/>
-    <col min="8" max="8" width="1.7109375" style="12" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="13" customWidth="1"/>
-    <col min="10" max="10" width="1.7109375" style="12" customWidth="1"/>
-    <col min="11" max="16384" width="62.5703125" style="12"/>
+    <col min="1" max="1" width="62.54296875" style="11"/>
+    <col min="2" max="2" width="1.7265625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="62.54296875" style="12"/>
+    <col min="4" max="4" width="1.7265625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="62.54296875" style="12"/>
+    <col min="6" max="6" width="1.7265625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="62.54296875" style="12"/>
+    <col min="8" max="8" width="1.7265625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="10.26953125" style="13" customWidth="1"/>
+    <col min="10" max="10" width="1.7265625" style="12" customWidth="1"/>
+    <col min="11" max="16384" width="62.54296875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-    </row>
-    <row r="2" spans="1:10" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+    </row>
+    <row r="2" spans="1:10" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="20"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="20"/>
+      <c r="F2" s="18"/>
       <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="20"/>
+      <c r="H2" s="18"/>
       <c r="I2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="20"/>
-    </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="20"/>
+      <c r="D3" s="18"/>
       <c r="E3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="20"/>
+      <c r="F3" s="18"/>
       <c r="G3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="J3" s="20"/>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="18"/>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="20"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="20"/>
+      <c r="F4" s="18"/>
       <c r="G4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="J4" s="20"/>
-    </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="18"/>
+      <c r="J4" s="18"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="20"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="20"/>
+      <c r="F5" s="18"/>
       <c r="G5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="20"/>
+      <c r="H5" s="18"/>
       <c r="I5" s="17">
         <v>44199</v>
       </c>
-      <c r="J5" s="20"/>
-    </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="20"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="20"/>
+      <c r="F6" s="18"/>
       <c r="G6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="20"/>
+      <c r="H6" s="18"/>
       <c r="I6" s="17">
         <v>44199</v>
       </c>
-      <c r="J6" s="20"/>
-    </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="20"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="20"/>
+      <c r="F7" s="18"/>
       <c r="G7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="20"/>
+      <c r="H7" s="18"/>
       <c r="I7" s="17">
         <v>44201</v>
       </c>
-      <c r="J7" s="20"/>
-    </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="20"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="20"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="20"/>
+      <c r="F8" s="18"/>
       <c r="G8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="20"/>
-      <c r="J8" s="20"/>
-    </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="18"/>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="20"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="20"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="20"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="18"/>
       <c r="I9" s="17">
         <v>44203</v>
       </c>
-      <c r="J9" s="20"/>
-    </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="18"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="20"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="20"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="20"/>
+      <c r="F10" s="18"/>
       <c r="G10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="20"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="17">
         <v>44203</v>
       </c>
-      <c r="J10" s="20"/>
-    </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J10" s="18"/>
+    </row>
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="20"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="20"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="20"/>
+      <c r="F11" s="18"/>
       <c r="G11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="20"/>
+      <c r="H11" s="18"/>
       <c r="I11" s="17">
         <v>44206</v>
       </c>
-      <c r="J11" s="20"/>
-    </row>
-    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="18"/>
+    </row>
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="20"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="20"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="20"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="20"/>
+      <c r="H12" s="18"/>
       <c r="I12" s="17">
         <v>44208</v>
       </c>
-      <c r="J12" s="20"/>
-    </row>
-    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="18"/>
+    </row>
+    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="20"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="20"/>
+      <c r="D13" s="18"/>
       <c r="E13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="20"/>
+      <c r="F13" s="18"/>
       <c r="G13" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="20"/>
+      <c r="H13" s="18"/>
       <c r="I13" s="17">
         <v>44208</v>
       </c>
-      <c r="J13" s="20"/>
-    </row>
-    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="18"/>
+    </row>
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="20"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="20"/>
+      <c r="D14" s="18"/>
       <c r="E14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="20"/>
+      <c r="F14" s="18"/>
       <c r="G14" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="20"/>
+      <c r="H14" s="18"/>
       <c r="I14" s="17">
         <v>44208</v>
       </c>
-      <c r="J14" s="20"/>
-    </row>
-    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J14" s="18"/>
+    </row>
+    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="20"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="20"/>
+      <c r="D15" s="18"/>
       <c r="E15" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="20"/>
+      <c r="F15" s="18"/>
       <c r="G15" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="20"/>
+      <c r="H15" s="18"/>
       <c r="I15" s="17">
         <v>44211</v>
       </c>
-      <c r="J15" s="20"/>
-    </row>
-    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J15" s="18"/>
+    </row>
+    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="20"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="20"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="20"/>
+      <c r="F16" s="18"/>
       <c r="G16" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="20"/>
+      <c r="H16" s="18"/>
       <c r="I16" s="17">
         <v>44212</v>
       </c>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="18"/>
+    </row>
+    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="20"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="20"/>
+      <c r="D17" s="18"/>
       <c r="E17" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="20"/>
+      <c r="F17" s="18"/>
       <c r="G17" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="20"/>
+      <c r="H17" s="18"/>
       <c r="I17" s="17">
         <v>44212</v>
       </c>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J17" s="18"/>
+    </row>
+    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="20"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="20"/>
+      <c r="D18" s="18"/>
       <c r="E18" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="20"/>
+      <c r="F18" s="18"/>
       <c r="G18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="20"/>
+      <c r="H18" s="18"/>
       <c r="I18" s="17">
         <v>44213</v>
       </c>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J18" s="18"/>
+    </row>
+    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="20"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="20"/>
+      <c r="D19" s="18"/>
       <c r="E19" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="20"/>
+      <c r="F19" s="18"/>
       <c r="G19" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H19" s="20"/>
+      <c r="H19" s="18"/>
       <c r="I19" s="17">
         <v>44214</v>
       </c>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J19" s="18"/>
+    </row>
+    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="20"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="20"/>
+      <c r="D20" s="18"/>
       <c r="E20" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="20"/>
+      <c r="F20" s="18"/>
       <c r="G20" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="H20" s="20"/>
+      <c r="H20" s="18"/>
       <c r="I20" s="17">
         <v>44214</v>
       </c>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J20" s="18"/>
+    </row>
+    <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="20"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="20"/>
+      <c r="D21" s="18"/>
       <c r="E21" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="20"/>
+      <c r="F21" s="18"/>
       <c r="G21" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="20"/>
+      <c r="H21" s="18"/>
       <c r="I21" s="17">
         <v>44214</v>
       </c>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J21" s="18"/>
+    </row>
+    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="20"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="20"/>
+      <c r="D22" s="18"/>
       <c r="E22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="20"/>
+      <c r="F22" s="18"/>
       <c r="G22" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="20"/>
+      <c r="H22" s="18"/>
       <c r="I22" s="17">
         <v>44215</v>
       </c>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J22" s="18"/>
+    </row>
+    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="20"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="20"/>
+      <c r="D23" s="18"/>
       <c r="E23" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="20"/>
+      <c r="F23" s="18"/>
       <c r="G23" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="20"/>
+      <c r="H23" s="18"/>
       <c r="I23" s="17">
         <v>44215</v>
       </c>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J23" s="18"/>
+    </row>
+    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="20"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="20"/>
+      <c r="D24" s="18"/>
       <c r="E24" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="20"/>
+      <c r="F24" s="18"/>
       <c r="G24" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H24" s="20"/>
+      <c r="H24" s="18"/>
       <c r="I24" s="17">
         <v>44215</v>
       </c>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J24" s="18"/>
+    </row>
+    <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="20"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="20"/>
+      <c r="D25" s="18"/>
       <c r="E25" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="20"/>
+      <c r="F25" s="18"/>
       <c r="G25" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H25" s="20"/>
+      <c r="H25" s="18"/>
       <c r="I25" s="17">
         <v>44215</v>
       </c>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J25" s="18"/>
+    </row>
+    <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="20"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="20"/>
+      <c r="D26" s="18"/>
       <c r="E26" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="20"/>
+      <c r="F26" s="18"/>
       <c r="G26" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="H26" s="20"/>
+      <c r="H26" s="18"/>
       <c r="I26" s="17">
         <v>44215</v>
       </c>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J26" s="18"/>
+    </row>
+    <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="20"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="20"/>
+      <c r="D27" s="18"/>
       <c r="E27" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="20"/>
+      <c r="F27" s="18"/>
       <c r="G27" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="20"/>
+      <c r="H27" s="18"/>
       <c r="I27" s="17">
         <v>44215</v>
       </c>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J27" s="18"/>
+    </row>
+    <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="20"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="20"/>
+      <c r="D28" s="18"/>
       <c r="E28" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="20"/>
+      <c r="F28" s="18"/>
       <c r="G28" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="H28" s="20"/>
+      <c r="H28" s="18"/>
       <c r="I28" s="17">
         <v>44215</v>
       </c>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J28" s="18"/>
+    </row>
+    <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="20"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="20"/>
+      <c r="D29" s="18"/>
       <c r="E29" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="20"/>
+      <c r="F29" s="18"/>
       <c r="G29" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H29" s="20"/>
+      <c r="H29" s="18"/>
       <c r="I29" s="17">
         <v>44215</v>
       </c>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J29" s="18"/>
+    </row>
+    <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="20"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="20"/>
+      <c r="D30" s="18"/>
       <c r="E30" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F30" s="20"/>
+      <c r="F30" s="18"/>
       <c r="G30" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="H30" s="20"/>
+      <c r="H30" s="18"/>
       <c r="I30" s="17">
         <v>44215</v>
       </c>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J30" s="18"/>
+    </row>
+    <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="20"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="20"/>
+      <c r="D31" s="18"/>
       <c r="E31" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F31" s="20"/>
+      <c r="F31" s="18"/>
       <c r="G31" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="H31" s="20"/>
+      <c r="H31" s="18"/>
       <c r="I31" s="17">
         <v>44215</v>
       </c>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="18"/>
+    </row>
+    <row r="32" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="20"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="20"/>
+      <c r="D32" s="18"/>
       <c r="E32" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F32" s="20"/>
+      <c r="F32" s="18"/>
       <c r="G32" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="H32" s="20"/>
+      <c r="H32" s="18"/>
       <c r="I32" s="17">
         <v>44215</v>
       </c>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J32" s="18"/>
+    </row>
+    <row r="33" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="20"/>
+      <c r="B33" s="18"/>
       <c r="C33" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="20"/>
+      <c r="D33" s="18"/>
       <c r="E33" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F33" s="20"/>
+      <c r="F33" s="18"/>
       <c r="G33" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H33" s="20"/>
+      <c r="H33" s="18"/>
       <c r="I33" s="17">
         <v>44215</v>
       </c>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J33" s="18"/>
+    </row>
+    <row r="34" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="20"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="20"/>
+      <c r="D34" s="18"/>
       <c r="E34" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="20"/>
+      <c r="F34" s="18"/>
       <c r="G34" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="H34" s="20"/>
+      <c r="H34" s="18"/>
       <c r="I34" s="17">
         <v>44215</v>
       </c>
-      <c r="J34" s="20"/>
-    </row>
-    <row r="35" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J34" s="18"/>
+    </row>
+    <row r="35" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="20"/>
+      <c r="B35" s="18"/>
       <c r="C35" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="20"/>
+      <c r="D35" s="18"/>
       <c r="E35" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="20"/>
+      <c r="F35" s="18"/>
       <c r="G35" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="H35" s="20"/>
+      <c r="H35" s="18"/>
       <c r="I35" s="17">
         <v>44215</v>
       </c>
-      <c r="J35" s="20"/>
-    </row>
-    <row r="36" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J35" s="18"/>
+    </row>
+    <row r="36" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="20"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="20"/>
+      <c r="D36" s="18"/>
       <c r="E36" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F36" s="20"/>
+      <c r="F36" s="18"/>
       <c r="G36" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="H36" s="20"/>
+      <c r="H36" s="18"/>
       <c r="I36" s="17">
         <v>44215</v>
       </c>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J36" s="18"/>
+    </row>
+    <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="20"/>
+      <c r="B37" s="18"/>
       <c r="C37" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="20"/>
+      <c r="D37" s="18"/>
       <c r="E37" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F37" s="20"/>
+      <c r="F37" s="18"/>
       <c r="G37" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="H37" s="20"/>
+      <c r="H37" s="18"/>
       <c r="I37" s="17">
         <v>44215</v>
       </c>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J37" s="18"/>
+    </row>
+    <row r="38" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="20"/>
+      <c r="B38" s="18"/>
       <c r="C38" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="20"/>
+      <c r="D38" s="18"/>
       <c r="E38" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F38" s="20"/>
+      <c r="F38" s="18"/>
       <c r="G38" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="H38" s="20"/>
+      <c r="H38" s="18"/>
       <c r="I38" s="17">
         <v>44215</v>
       </c>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J38" s="18"/>
+    </row>
+    <row r="39" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="20"/>
+      <c r="B39" s="18"/>
       <c r="C39" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="20"/>
+      <c r="D39" s="18"/>
       <c r="E39" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="20"/>
+      <c r="F39" s="18"/>
       <c r="G39" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="H39" s="20"/>
+      <c r="H39" s="18"/>
       <c r="I39" s="17">
         <v>44215</v>
       </c>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J39" s="18"/>
+    </row>
+    <row r="40" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="20"/>
+      <c r="B40" s="18"/>
       <c r="C40" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="20"/>
+      <c r="D40" s="18"/>
       <c r="E40" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F40" s="20"/>
+      <c r="F40" s="18"/>
       <c r="G40" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="H40" s="20"/>
+      <c r="H40" s="18"/>
       <c r="I40" s="17">
         <v>44215</v>
       </c>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J40" s="18"/>
+    </row>
+    <row r="41" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="20"/>
+      <c r="B41" s="18"/>
       <c r="C41" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="20"/>
+      <c r="D41" s="18"/>
       <c r="E41" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F41" s="20"/>
+      <c r="F41" s="18"/>
       <c r="G41" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H41" s="20"/>
+      <c r="H41" s="18"/>
       <c r="I41" s="17">
         <v>44215</v>
       </c>
-      <c r="J41" s="20"/>
-    </row>
-    <row r="42" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J41" s="18"/>
+    </row>
+    <row r="42" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="18"/>
       <c r="C42" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="20"/>
+      <c r="D42" s="18"/>
       <c r="E42" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F42" s="20"/>
+      <c r="F42" s="18"/>
       <c r="G42" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="H42" s="20"/>
+      <c r="H42" s="18"/>
       <c r="I42" s="17">
         <v>44215</v>
       </c>
-      <c r="J42" s="20"/>
-    </row>
-    <row r="43" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J42" s="18"/>
+    </row>
+    <row r="43" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43" s="20"/>
+        <v>81</v>
+      </c>
+      <c r="B43" s="18"/>
       <c r="C43" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="20"/>
+      <c r="D43" s="18"/>
       <c r="E43" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F43" s="20"/>
+      <c r="F43" s="18"/>
       <c r="G43" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="H43" s="20"/>
+      <c r="H43" s="18"/>
       <c r="I43" s="17">
         <v>44215</v>
       </c>
-      <c r="J43" s="20"/>
-    </row>
-    <row r="44" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="J44" s="20"/>
-    </row>
-    <row r="45" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J43" s="18"/>
+    </row>
+    <row r="44" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="18"/>
+      <c r="C44" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="18"/>
+      <c r="E44" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="18"/>
+      <c r="G44" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44" s="18"/>
+      <c r="I44" s="17">
+        <v>44216</v>
+      </c>
+      <c r="J44" s="18"/>
+    </row>
+    <row r="45" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="12"/>
-      <c r="B45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="J45" s="20"/>
-    </row>
-    <row r="46" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="J45" s="18"/>
+    </row>
+    <row r="46" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="12"/>
-      <c r="B46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="J46" s="20"/>
-    </row>
-    <row r="47" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="J46" s="18"/>
+    </row>
+    <row r="47" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="12"/>
-      <c r="B47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="J47" s="20"/>
-    </row>
-    <row r="48" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="J47" s="18"/>
+    </row>
+    <row r="48" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="12"/>
-      <c r="B48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="J48" s="20"/>
-    </row>
-    <row r="49" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="H49" s="20"/>
+      <c r="B48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="J48" s="18"/>
+    </row>
+    <row r="49" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="H49" s="18"/>
       <c r="I49" s="13"/>
-      <c r="J49" s="20"/>
-    </row>
-    <row r="50" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="H50" s="20"/>
+      <c r="J49" s="18"/>
+    </row>
+    <row r="50" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="H50" s="18"/>
       <c r="I50" s="13"/>
-      <c r="J50" s="20"/>
-    </row>
-    <row r="51" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="H51" s="20"/>
+      <c r="J50" s="18"/>
+    </row>
+    <row r="51" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="H51" s="18"/>
       <c r="I51" s="13"/>
-      <c r="J51" s="20"/>
-    </row>
-    <row r="52" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="H52" s="20"/>
+      <c r="J51" s="18"/>
+    </row>
+    <row r="52" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="H52" s="18"/>
       <c r="I52" s="13"/>
-      <c r="J52" s="20"/>
-    </row>
-    <row r="53" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="H53" s="20"/>
+      <c r="J52" s="18"/>
+    </row>
+    <row r="53" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="H53" s="18"/>
       <c r="I53" s="13"/>
-      <c r="J53" s="20"/>
-    </row>
-    <row r="54" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="H54" s="20"/>
+      <c r="J53" s="18"/>
+    </row>
+    <row r="54" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="H54" s="18"/>
       <c r="I54" s="13"/>
-      <c r="J54" s="20"/>
-    </row>
-    <row r="55" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="H55" s="20"/>
+      <c r="J54" s="18"/>
+    </row>
+    <row r="55" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="H55" s="18"/>
       <c r="I55" s="13"/>
-      <c r="J55" s="20"/>
-    </row>
-    <row r="56" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="H56" s="20"/>
+      <c r="J55" s="18"/>
+    </row>
+    <row r="56" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="H56" s="18"/>
       <c r="I56" s="13"/>
-      <c r="J56" s="20"/>
-    </row>
-    <row r="57" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="H57" s="20"/>
+      <c r="J56" s="18"/>
+    </row>
+    <row r="57" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="H57" s="18"/>
       <c r="I57" s="13"/>
-      <c r="J57" s="20"/>
-    </row>
-    <row r="58" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="H58" s="20"/>
+      <c r="J57" s="18"/>
+    </row>
+    <row r="58" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="H58" s="18"/>
       <c r="I58" s="13"/>
-      <c r="J58" s="20"/>
-    </row>
-    <row r="59" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="H59" s="20"/>
+      <c r="J58" s="18"/>
+    </row>
+    <row r="59" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="H59" s="18"/>
       <c r="I59" s="13"/>
-      <c r="J59" s="20"/>
-    </row>
-    <row r="60" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="H60" s="20"/>
+      <c r="J59" s="18"/>
+    </row>
+    <row r="60" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="H60" s="18"/>
       <c r="I60" s="13"/>
-      <c r="J60" s="20"/>
-    </row>
-    <row r="61" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="H61" s="20"/>
+      <c r="J60" s="18"/>
+    </row>
+    <row r="61" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="H61" s="18"/>
       <c r="I61" s="13"/>
-      <c r="J61" s="20"/>
+      <c r="J61" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="H32:H61"/>
-    <mergeCell ref="F32:F61"/>
-    <mergeCell ref="D32:D61"/>
-    <mergeCell ref="B32:B61"/>
-    <mergeCell ref="J32:J61"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="J2:J31"/>
     <mergeCell ref="D2:D31"/>
     <mergeCell ref="F2:F31"/>
     <mergeCell ref="H2:H31"/>
     <mergeCell ref="B2:B31"/>
+    <mergeCell ref="H32:H61"/>
+    <mergeCell ref="F32:F61"/>
+    <mergeCell ref="D32:D61"/>
+    <mergeCell ref="B32:B61"/>
+    <mergeCell ref="J32:J61"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:I2 A1:G1 K1:XFD2 K5:XFD1048576 A5:I10 A11:B11 D11:I11 A12:I31 A62:I1048576 I32:I61 H32 H35:H61 G32:G61 F32 F35:F61 D32 D35:D61 B32 B35:B61 E31:E61 C31:C61 A30:A61">
     <cfRule type="cellIs" dxfId="10" priority="19" operator="equal">
@@ -2038,12 +2058,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="22.7109375" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="22.7265625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="22.7109375" style="1"/>
+    <col min="1" max="16384" width="22.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -2054,7 +2074,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -2065,7 +2085,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="63" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -2076,7 +2096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="42" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -2084,7 +2104,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="63" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -2092,7 +2112,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="42" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>23</v>
       </c>

--- a/TableauDeBord.xlsx
+++ b/TableauDeBord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5344a3cd4eb43387/Bureau/Git/S3D_MyWishList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PHP\S3D_MyWishList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{EB1B1BD2-11B4-44A8-8D60-9009F27BC287}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{339ED997-47E5-43B2-950F-83BE62724538}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61AEAD6-7979-45A8-892F-BC939F50FF8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableauBord" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="84">
   <si>
     <t>BOUSSETTA Nael</t>
   </si>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t>Suppression compte</t>
+  </si>
+  <si>
+    <t>Fonctionnalité Uploader Image</t>
   </si>
 </sst>
 </file>
@@ -490,13 +493,13 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -859,1124 +862,1124 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="62.54296875" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="62.5546875" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="62.54296875" style="11"/>
-    <col min="2" max="2" width="1.7265625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="62.54296875" style="12"/>
-    <col min="4" max="4" width="1.7265625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="62.54296875" style="12"/>
-    <col min="6" max="6" width="1.7265625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="62.54296875" style="12"/>
-    <col min="8" max="8" width="1.7265625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" style="13" customWidth="1"/>
-    <col min="10" max="10" width="1.7265625" style="12" customWidth="1"/>
-    <col min="11" max="16384" width="62.54296875" style="12"/>
+    <col min="1" max="1" width="62.5546875" style="11"/>
+    <col min="2" max="2" width="1.77734375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="62.5546875" style="12"/>
+    <col min="4" max="4" width="1.77734375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="62.5546875" style="12"/>
+    <col min="6" max="6" width="1.77734375" style="12" customWidth="1"/>
+    <col min="7" max="7" width="62.5546875" style="12"/>
+    <col min="8" max="8" width="1.77734375" style="12" customWidth="1"/>
+    <col min="9" max="9" width="10.21875" style="13" customWidth="1"/>
+    <col min="10" max="10" width="1.77734375" style="12" customWidth="1"/>
+    <col min="11" max="16384" width="62.5546875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-    </row>
-    <row r="2" spans="1:10" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+    </row>
+    <row r="2" spans="1:10" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="18"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="18"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="20"/>
       <c r="I2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="18"/>
-    </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J2" s="20"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="18"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="18"/>
+      <c r="F3" s="20"/>
       <c r="G3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H3" s="20"/>
+      <c r="J3" s="20"/>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="18"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="18"/>
+      <c r="F4" s="20"/>
       <c r="G4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="J4" s="18"/>
-    </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H4" s="20"/>
+      <c r="J4" s="20"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="18"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="18"/>
+      <c r="F5" s="20"/>
       <c r="G5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="18"/>
+      <c r="H5" s="20"/>
       <c r="I5" s="17">
         <v>44199</v>
       </c>
-      <c r="J5" s="18"/>
-    </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J5" s="20"/>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="18"/>
+      <c r="D6" s="20"/>
       <c r="E6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="18"/>
+      <c r="F6" s="20"/>
       <c r="G6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="18"/>
+      <c r="H6" s="20"/>
       <c r="I6" s="17">
         <v>44199</v>
       </c>
-      <c r="J6" s="18"/>
-    </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J6" s="20"/>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="18"/>
+      <c r="D7" s="20"/>
       <c r="E7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="18"/>
+      <c r="F7" s="20"/>
       <c r="G7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="18"/>
+      <c r="H7" s="20"/>
       <c r="I7" s="17">
         <v>44201</v>
       </c>
-      <c r="J7" s="18"/>
-    </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J7" s="20"/>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="18"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="18"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="18"/>
-      <c r="J8" s="18"/>
-    </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H8" s="20"/>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="18"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="18"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="18"/>
+      <c r="F9" s="20"/>
       <c r="G9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="18"/>
+      <c r="H9" s="20"/>
       <c r="I9" s="17">
         <v>44203</v>
       </c>
-      <c r="J9" s="18"/>
-    </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J9" s="20"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="18"/>
+      <c r="D10" s="20"/>
       <c r="E10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="18"/>
+      <c r="F10" s="20"/>
       <c r="G10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="18"/>
+      <c r="H10" s="20"/>
       <c r="I10" s="17">
         <v>44203</v>
       </c>
-      <c r="J10" s="18"/>
-    </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J10" s="20"/>
+    </row>
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="18"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="18"/>
+      <c r="D11" s="20"/>
       <c r="E11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="18"/>
+      <c r="F11" s="20"/>
       <c r="G11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="18"/>
+      <c r="H11" s="20"/>
       <c r="I11" s="17">
         <v>44206</v>
       </c>
-      <c r="J11" s="18"/>
-    </row>
-    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J11" s="20"/>
+    </row>
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="18"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="18"/>
+      <c r="F12" s="20"/>
       <c r="G12" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="18"/>
+      <c r="H12" s="20"/>
       <c r="I12" s="17">
         <v>44208</v>
       </c>
-      <c r="J12" s="18"/>
-    </row>
-    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J12" s="20"/>
+    </row>
+    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="18"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="18"/>
+      <c r="D13" s="20"/>
       <c r="E13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="18"/>
+      <c r="F13" s="20"/>
       <c r="G13" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="18"/>
+      <c r="H13" s="20"/>
       <c r="I13" s="17">
         <v>44208</v>
       </c>
-      <c r="J13" s="18"/>
-    </row>
-    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J13" s="20"/>
+    </row>
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="18"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="18"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="18"/>
+      <c r="F14" s="20"/>
       <c r="G14" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="18"/>
+      <c r="H14" s="20"/>
       <c r="I14" s="17">
         <v>44208</v>
       </c>
-      <c r="J14" s="18"/>
-    </row>
-    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J14" s="20"/>
+    </row>
+    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="18"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="18"/>
+      <c r="D15" s="20"/>
       <c r="E15" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="18"/>
+      <c r="F15" s="20"/>
       <c r="G15" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="18"/>
+      <c r="H15" s="20"/>
       <c r="I15" s="17">
         <v>44211</v>
       </c>
-      <c r="J15" s="18"/>
-    </row>
-    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J15" s="20"/>
+    </row>
+    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="18"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="18"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="18"/>
+      <c r="F16" s="20"/>
       <c r="G16" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="18"/>
+      <c r="H16" s="20"/>
       <c r="I16" s="17">
         <v>44212</v>
       </c>
-      <c r="J16" s="18"/>
-    </row>
-    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J16" s="20"/>
+    </row>
+    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="18"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="18"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="18"/>
+      <c r="F17" s="20"/>
       <c r="G17" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="18"/>
+      <c r="H17" s="20"/>
       <c r="I17" s="17">
         <v>44212</v>
       </c>
-      <c r="J17" s="18"/>
-    </row>
-    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J17" s="20"/>
+    </row>
+    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="18"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="18"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="18"/>
+      <c r="F18" s="20"/>
       <c r="G18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="18"/>
+      <c r="H18" s="20"/>
       <c r="I18" s="17">
         <v>44213</v>
       </c>
-      <c r="J18" s="18"/>
-    </row>
-    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J18" s="20"/>
+    </row>
+    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="18"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="18"/>
+      <c r="D19" s="20"/>
       <c r="E19" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="18"/>
+      <c r="F19" s="20"/>
       <c r="G19" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H19" s="18"/>
+      <c r="H19" s="20"/>
       <c r="I19" s="17">
         <v>44214</v>
       </c>
-      <c r="J19" s="18"/>
-    </row>
-    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J19" s="20"/>
+    </row>
+    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="18"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="18"/>
+      <c r="D20" s="20"/>
       <c r="E20" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="18"/>
+      <c r="F20" s="20"/>
       <c r="G20" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="H20" s="18"/>
+      <c r="H20" s="20"/>
       <c r="I20" s="17">
         <v>44214</v>
       </c>
-      <c r="J20" s="18"/>
-    </row>
-    <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J20" s="20"/>
+    </row>
+    <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="18"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="18"/>
+      <c r="D21" s="20"/>
       <c r="E21" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="18"/>
+      <c r="F21" s="20"/>
       <c r="G21" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="18"/>
+      <c r="H21" s="20"/>
       <c r="I21" s="17">
         <v>44214</v>
       </c>
-      <c r="J21" s="18"/>
-    </row>
-    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J21" s="20"/>
+    </row>
+    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="18"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="18"/>
+      <c r="D22" s="20"/>
       <c r="E22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="18"/>
+      <c r="F22" s="20"/>
       <c r="G22" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="18"/>
+      <c r="H22" s="20"/>
       <c r="I22" s="17">
         <v>44215</v>
       </c>
-      <c r="J22" s="18"/>
-    </row>
-    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J22" s="20"/>
+    </row>
+    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="18"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="18"/>
+      <c r="D23" s="20"/>
       <c r="E23" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="18"/>
+      <c r="F23" s="20"/>
       <c r="G23" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="18"/>
+      <c r="H23" s="20"/>
       <c r="I23" s="17">
         <v>44215</v>
       </c>
-      <c r="J23" s="18"/>
-    </row>
-    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J23" s="20"/>
+    </row>
+    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="18"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="18"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="20"/>
       <c r="G24" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H24" s="18"/>
+      <c r="H24" s="20"/>
       <c r="I24" s="17">
         <v>44215</v>
       </c>
-      <c r="J24" s="18"/>
-    </row>
-    <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J24" s="20"/>
+    </row>
+    <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="18"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="18"/>
+      <c r="D25" s="20"/>
       <c r="E25" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="18"/>
+      <c r="F25" s="20"/>
       <c r="G25" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H25" s="18"/>
+      <c r="H25" s="20"/>
       <c r="I25" s="17">
         <v>44215</v>
       </c>
-      <c r="J25" s="18"/>
-    </row>
-    <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="18"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="18"/>
+      <c r="D26" s="20"/>
       <c r="E26" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="20"/>
       <c r="G26" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="H26" s="18"/>
+      <c r="H26" s="20"/>
       <c r="I26" s="17">
         <v>44215</v>
       </c>
-      <c r="J26" s="18"/>
-    </row>
-    <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J26" s="20"/>
+    </row>
+    <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="18"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="18"/>
+      <c r="D27" s="20"/>
       <c r="E27" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="18"/>
+      <c r="F27" s="20"/>
       <c r="G27" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="18"/>
+      <c r="H27" s="20"/>
       <c r="I27" s="17">
         <v>44215</v>
       </c>
-      <c r="J27" s="18"/>
-    </row>
-    <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J27" s="20"/>
+    </row>
+    <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="18"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="18"/>
+      <c r="D28" s="20"/>
       <c r="E28" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="18"/>
+      <c r="F28" s="20"/>
       <c r="G28" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="H28" s="18"/>
+      <c r="H28" s="20"/>
       <c r="I28" s="17">
         <v>44215</v>
       </c>
-      <c r="J28" s="18"/>
-    </row>
-    <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J28" s="20"/>
+    </row>
+    <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="18"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="18"/>
+      <c r="D29" s="20"/>
       <c r="E29" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="18"/>
+      <c r="F29" s="20"/>
       <c r="G29" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H29" s="18"/>
+      <c r="H29" s="20"/>
       <c r="I29" s="17">
         <v>44215</v>
       </c>
-      <c r="J29" s="18"/>
-    </row>
-    <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J29" s="20"/>
+    </row>
+    <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="18"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="18"/>
+      <c r="D30" s="20"/>
       <c r="E30" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F30" s="18"/>
+      <c r="F30" s="20"/>
       <c r="G30" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="H30" s="18"/>
+      <c r="H30" s="20"/>
       <c r="I30" s="17">
         <v>44215</v>
       </c>
-      <c r="J30" s="18"/>
-    </row>
-    <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J30" s="20"/>
+    </row>
+    <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="18"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="18"/>
+      <c r="D31" s="20"/>
       <c r="E31" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F31" s="18"/>
+      <c r="F31" s="20"/>
       <c r="G31" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="H31" s="18"/>
+      <c r="H31" s="20"/>
       <c r="I31" s="17">
         <v>44215</v>
       </c>
-      <c r="J31" s="18"/>
-    </row>
-    <row r="32" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J31" s="20"/>
+    </row>
+    <row r="32" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="18"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="18"/>
+      <c r="D32" s="20"/>
       <c r="E32" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F32" s="18"/>
+      <c r="F32" s="20"/>
       <c r="G32" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="H32" s="18"/>
+      <c r="H32" s="20"/>
       <c r="I32" s="17">
         <v>44215</v>
       </c>
-      <c r="J32" s="18"/>
-    </row>
-    <row r="33" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J32" s="20"/>
+    </row>
+    <row r="33" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="18"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="18"/>
+      <c r="D33" s="20"/>
       <c r="E33" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F33" s="18"/>
+      <c r="F33" s="20"/>
       <c r="G33" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H33" s="18"/>
+      <c r="H33" s="20"/>
       <c r="I33" s="17">
         <v>44215</v>
       </c>
-      <c r="J33" s="18"/>
-    </row>
-    <row r="34" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J33" s="20"/>
+    </row>
+    <row r="34" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="18"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="18"/>
+      <c r="D34" s="20"/>
       <c r="E34" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="18"/>
+      <c r="F34" s="20"/>
       <c r="G34" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="H34" s="18"/>
+      <c r="H34" s="20"/>
       <c r="I34" s="17">
         <v>44215</v>
       </c>
-      <c r="J34" s="18"/>
-    </row>
-    <row r="35" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J34" s="20"/>
+    </row>
+    <row r="35" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="18"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="18"/>
+      <c r="D35" s="20"/>
       <c r="E35" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="18"/>
+      <c r="F35" s="20"/>
       <c r="G35" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="H35" s="18"/>
+      <c r="H35" s="20"/>
       <c r="I35" s="17">
         <v>44215</v>
       </c>
-      <c r="J35" s="18"/>
-    </row>
-    <row r="36" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J35" s="20"/>
+    </row>
+    <row r="36" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="18"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="18"/>
+      <c r="D36" s="20"/>
       <c r="E36" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F36" s="18"/>
+      <c r="F36" s="20"/>
       <c r="G36" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="H36" s="18"/>
+      <c r="H36" s="20"/>
       <c r="I36" s="17">
         <v>44215</v>
       </c>
-      <c r="J36" s="18"/>
-    </row>
-    <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J36" s="20"/>
+    </row>
+    <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="18"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="18"/>
+      <c r="D37" s="20"/>
       <c r="E37" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F37" s="18"/>
+      <c r="F37" s="20"/>
       <c r="G37" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="H37" s="18"/>
+      <c r="H37" s="20"/>
       <c r="I37" s="17">
         <v>44215</v>
       </c>
-      <c r="J37" s="18"/>
-    </row>
-    <row r="38" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J37" s="20"/>
+    </row>
+    <row r="38" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="18"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="18"/>
+      <c r="D38" s="20"/>
       <c r="E38" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F38" s="18"/>
+      <c r="F38" s="20"/>
       <c r="G38" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="H38" s="18"/>
+      <c r="H38" s="20"/>
       <c r="I38" s="17">
         <v>44215</v>
       </c>
-      <c r="J38" s="18"/>
-    </row>
-    <row r="39" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J38" s="20"/>
+    </row>
+    <row r="39" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="18"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="18"/>
+      <c r="D39" s="20"/>
       <c r="E39" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="18"/>
+      <c r="F39" s="20"/>
       <c r="G39" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="H39" s="18"/>
+      <c r="H39" s="20"/>
       <c r="I39" s="17">
         <v>44215</v>
       </c>
-      <c r="J39" s="18"/>
-    </row>
-    <row r="40" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J39" s="20"/>
+    </row>
+    <row r="40" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="18"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="18"/>
+      <c r="D40" s="20"/>
       <c r="E40" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F40" s="18"/>
+      <c r="F40" s="20"/>
       <c r="G40" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="H40" s="18"/>
+      <c r="H40" s="20"/>
       <c r="I40" s="17">
         <v>44215</v>
       </c>
-      <c r="J40" s="18"/>
-    </row>
-    <row r="41" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J40" s="20"/>
+    </row>
+    <row r="41" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="18"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="18"/>
+      <c r="D41" s="20"/>
       <c r="E41" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F41" s="18"/>
+      <c r="F41" s="20"/>
       <c r="G41" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H41" s="18"/>
+      <c r="H41" s="20"/>
       <c r="I41" s="17">
         <v>44215</v>
       </c>
-      <c r="J41" s="18"/>
-    </row>
-    <row r="42" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J41" s="20"/>
+    </row>
+    <row r="42" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="18"/>
+      <c r="B42" s="20"/>
       <c r="C42" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="18"/>
+      <c r="D42" s="20"/>
       <c r="E42" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F42" s="18"/>
+      <c r="F42" s="20"/>
       <c r="G42" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="H42" s="18"/>
+      <c r="H42" s="20"/>
       <c r="I42" s="17">
         <v>44215</v>
       </c>
-      <c r="J42" s="18"/>
-    </row>
-    <row r="43" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J42" s="20"/>
+    </row>
+    <row r="43" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B43" s="18"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="18"/>
+      <c r="D43" s="20"/>
       <c r="E43" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F43" s="18"/>
+      <c r="F43" s="20"/>
       <c r="G43" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="H43" s="18"/>
+      <c r="H43" s="20"/>
       <c r="I43" s="17">
         <v>44215</v>
       </c>
-      <c r="J43" s="18"/>
-    </row>
-    <row r="44" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J43" s="20"/>
+    </row>
+    <row r="44" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="18"/>
+      <c r="B44" s="20"/>
       <c r="C44" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D44" s="18"/>
+      <c r="D44" s="20"/>
       <c r="E44" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F44" s="18"/>
+        <v>83</v>
+      </c>
+      <c r="F44" s="20"/>
       <c r="G44" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H44" s="18"/>
+      <c r="H44" s="20"/>
       <c r="I44" s="17">
         <v>44216</v>
       </c>
-      <c r="J44" s="18"/>
-    </row>
-    <row r="45" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J44" s="20"/>
+    </row>
+    <row r="45" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="12"/>
-      <c r="B45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="J45" s="18"/>
-    </row>
-    <row r="46" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="J45" s="20"/>
+    </row>
+    <row r="46" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12"/>
-      <c r="B46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="J46" s="18"/>
-    </row>
-    <row r="47" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="J46" s="20"/>
+    </row>
+    <row r="47" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12"/>
-      <c r="B47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="J47" s="18"/>
-    </row>
-    <row r="48" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="J47" s="20"/>
+    </row>
+    <row r="48" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="12"/>
-      <c r="B48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="J48" s="18"/>
-    </row>
-    <row r="49" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="H49" s="18"/>
+      <c r="B48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="J48" s="20"/>
+    </row>
+    <row r="49" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="H49" s="20"/>
       <c r="I49" s="13"/>
-      <c r="J49" s="18"/>
-    </row>
-    <row r="50" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="H50" s="18"/>
+      <c r="J49" s="20"/>
+    </row>
+    <row r="50" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="H50" s="20"/>
       <c r="I50" s="13"/>
-      <c r="J50" s="18"/>
-    </row>
-    <row r="51" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="H51" s="18"/>
+      <c r="J50" s="20"/>
+    </row>
+    <row r="51" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="H51" s="20"/>
       <c r="I51" s="13"/>
-      <c r="J51" s="18"/>
-    </row>
-    <row r="52" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="H52" s="18"/>
+      <c r="J51" s="20"/>
+    </row>
+    <row r="52" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="H52" s="20"/>
       <c r="I52" s="13"/>
-      <c r="J52" s="18"/>
-    </row>
-    <row r="53" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="H53" s="18"/>
+      <c r="J52" s="20"/>
+    </row>
+    <row r="53" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="H53" s="20"/>
       <c r="I53" s="13"/>
-      <c r="J53" s="18"/>
-    </row>
-    <row r="54" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="H54" s="18"/>
+      <c r="J53" s="20"/>
+    </row>
+    <row r="54" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="H54" s="20"/>
       <c r="I54" s="13"/>
-      <c r="J54" s="18"/>
-    </row>
-    <row r="55" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="H55" s="18"/>
+      <c r="J54" s="20"/>
+    </row>
+    <row r="55" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="H55" s="20"/>
       <c r="I55" s="13"/>
-      <c r="J55" s="18"/>
-    </row>
-    <row r="56" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="H56" s="18"/>
+      <c r="J55" s="20"/>
+    </row>
+    <row r="56" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="H56" s="20"/>
       <c r="I56" s="13"/>
-      <c r="J56" s="18"/>
-    </row>
-    <row r="57" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="H57" s="18"/>
+      <c r="J56" s="20"/>
+    </row>
+    <row r="57" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="H57" s="20"/>
       <c r="I57" s="13"/>
-      <c r="J57" s="18"/>
-    </row>
-    <row r="58" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="H58" s="18"/>
+      <c r="J57" s="20"/>
+    </row>
+    <row r="58" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="H58" s="20"/>
       <c r="I58" s="13"/>
-      <c r="J58" s="18"/>
-    </row>
-    <row r="59" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="H59" s="18"/>
+      <c r="J58" s="20"/>
+    </row>
+    <row r="59" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="H59" s="20"/>
       <c r="I59" s="13"/>
-      <c r="J59" s="18"/>
-    </row>
-    <row r="60" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="H60" s="18"/>
+      <c r="J59" s="20"/>
+    </row>
+    <row r="60" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="H60" s="20"/>
       <c r="I60" s="13"/>
-      <c r="J60" s="18"/>
-    </row>
-    <row r="61" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="H61" s="18"/>
+      <c r="J60" s="20"/>
+    </row>
+    <row r="61" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="H61" s="20"/>
       <c r="I61" s="13"/>
-      <c r="J61" s="18"/>
+      <c r="J61" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="H32:H61"/>
+    <mergeCell ref="F32:F61"/>
+    <mergeCell ref="D32:D61"/>
+    <mergeCell ref="B32:B61"/>
+    <mergeCell ref="J32:J61"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="J2:J31"/>
     <mergeCell ref="D2:D31"/>
     <mergeCell ref="F2:F31"/>
     <mergeCell ref="H2:H31"/>
     <mergeCell ref="B2:B31"/>
-    <mergeCell ref="H32:H61"/>
-    <mergeCell ref="F32:F61"/>
-    <mergeCell ref="D32:D61"/>
-    <mergeCell ref="B32:B61"/>
-    <mergeCell ref="J32:J61"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:I2 A1:G1 K1:XFD2 K5:XFD1048576 A5:I10 A11:B11 D11:I11 A12:I31 A62:I1048576 I32:I61 H32 H35:H61 G32:G61 F32 F35:F61 D32 D35:D61 B32 B35:B61 E31:E61 C31:C61 A30:A61">
     <cfRule type="cellIs" dxfId="10" priority="19" operator="equal">
@@ -2058,12 +2061,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="22.7265625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="22.77734375" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="22.7265625" style="1"/>
+    <col min="1" max="16384" width="22.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -2074,7 +2077,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -2085,7 +2088,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="63" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="63" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -2096,7 +2099,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="42" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -2104,7 +2107,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="63" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="63" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -2112,7 +2115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="42" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>23</v>
       </c>

--- a/TableauDeBord.xlsx
+++ b/TableauDeBord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PHP\S3D_MyWishList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\GitHub\S3D_MyWishList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61AEAD6-7979-45A8-892F-BC939F50FF8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCAA2A1-57E2-43BC-97F8-CD9705724370}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableauBord" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="87">
   <si>
     <t>BOUSSETTA Nael</t>
   </si>
@@ -279,6 +279,15 @@
   </si>
   <si>
     <t>Fonctionnalité Uploader Image</t>
+  </si>
+  <si>
+    <t>correction suppression login</t>
+  </si>
+  <si>
+    <t>correction modification login</t>
+  </si>
+  <si>
+    <t>ajout vue Erreur</t>
   </si>
 </sst>
 </file>
@@ -493,13 +502,13 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -863,1130 +872,1148 @@
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="62.5546875" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="62.5703125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.5546875" style="11"/>
-    <col min="2" max="2" width="1.77734375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="62.5546875" style="12"/>
-    <col min="4" max="4" width="1.77734375" style="12" customWidth="1"/>
-    <col min="5" max="5" width="62.5546875" style="12"/>
-    <col min="6" max="6" width="1.77734375" style="12" customWidth="1"/>
-    <col min="7" max="7" width="62.5546875" style="12"/>
-    <col min="8" max="8" width="1.77734375" style="12" customWidth="1"/>
-    <col min="9" max="9" width="10.21875" style="13" customWidth="1"/>
-    <col min="10" max="10" width="1.77734375" style="12" customWidth="1"/>
-    <col min="11" max="16384" width="62.5546875" style="12"/>
+    <col min="1" max="1" width="62.5703125" style="11"/>
+    <col min="2" max="2" width="1.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="62.5703125" style="12"/>
+    <col min="4" max="4" width="1.7109375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="62.5703125" style="12"/>
+    <col min="6" max="6" width="1.7109375" style="12" customWidth="1"/>
+    <col min="7" max="7" width="62.5703125" style="12"/>
+    <col min="8" max="8" width="1.7109375" style="12" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="1.7109375" style="12" customWidth="1"/>
+    <col min="11" max="16384" width="62.5703125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-    </row>
-    <row r="2" spans="1:10" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+    </row>
+    <row r="2" spans="1:10" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="20"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="20"/>
+      <c r="F2" s="18"/>
       <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="20"/>
+      <c r="H2" s="18"/>
       <c r="I2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="20"/>
-    </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="20"/>
+      <c r="D3" s="18"/>
       <c r="E3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="20"/>
+      <c r="F3" s="18"/>
       <c r="G3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="J3" s="20"/>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="18"/>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="20"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="20"/>
+      <c r="F4" s="18"/>
       <c r="G4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="J4" s="20"/>
-    </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="18"/>
+      <c r="J4" s="18"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="20"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="20"/>
+      <c r="F5" s="18"/>
       <c r="G5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="20"/>
+      <c r="H5" s="18"/>
       <c r="I5" s="17">
         <v>44199</v>
       </c>
-      <c r="J5" s="20"/>
-    </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="20"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="20"/>
+      <c r="F6" s="18"/>
       <c r="G6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="20"/>
+      <c r="H6" s="18"/>
       <c r="I6" s="17">
         <v>44199</v>
       </c>
-      <c r="J6" s="20"/>
-    </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="20"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="20"/>
+      <c r="F7" s="18"/>
       <c r="G7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="20"/>
+      <c r="H7" s="18"/>
       <c r="I7" s="17">
         <v>44201</v>
       </c>
-      <c r="J7" s="20"/>
-    </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="20"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="20"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="20"/>
+      <c r="F8" s="18"/>
       <c r="G8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="20"/>
-      <c r="J8" s="20"/>
-    </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="18"/>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="20"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="20"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="20"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="18"/>
       <c r="I9" s="17">
         <v>44203</v>
       </c>
-      <c r="J9" s="20"/>
-    </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J9" s="18"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="20"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="20"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="20"/>
+      <c r="F10" s="18"/>
       <c r="G10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="20"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="17">
         <v>44203</v>
       </c>
-      <c r="J10" s="20"/>
-    </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J10" s="18"/>
+    </row>
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="20"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="20"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="20"/>
+      <c r="F11" s="18"/>
       <c r="G11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="20"/>
+      <c r="H11" s="18"/>
       <c r="I11" s="17">
         <v>44206</v>
       </c>
-      <c r="J11" s="20"/>
-    </row>
-    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J11" s="18"/>
+    </row>
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="20"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="20"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="20"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="20"/>
+      <c r="H12" s="18"/>
       <c r="I12" s="17">
         <v>44208</v>
       </c>
-      <c r="J12" s="20"/>
-    </row>
-    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J12" s="18"/>
+    </row>
+    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="20"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="20"/>
+      <c r="D13" s="18"/>
       <c r="E13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="20"/>
+      <c r="F13" s="18"/>
       <c r="G13" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="20"/>
+      <c r="H13" s="18"/>
       <c r="I13" s="17">
         <v>44208</v>
       </c>
-      <c r="J13" s="20"/>
-    </row>
-    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J13" s="18"/>
+    </row>
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="20"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="20"/>
+      <c r="D14" s="18"/>
       <c r="E14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="20"/>
+      <c r="F14" s="18"/>
       <c r="G14" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="20"/>
+      <c r="H14" s="18"/>
       <c r="I14" s="17">
         <v>44208</v>
       </c>
-      <c r="J14" s="20"/>
-    </row>
-    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J14" s="18"/>
+    </row>
+    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="20"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="20"/>
+      <c r="D15" s="18"/>
       <c r="E15" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="20"/>
+      <c r="F15" s="18"/>
       <c r="G15" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="20"/>
+      <c r="H15" s="18"/>
       <c r="I15" s="17">
         <v>44211</v>
       </c>
-      <c r="J15" s="20"/>
-    </row>
-    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J15" s="18"/>
+    </row>
+    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="20"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="20"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="20"/>
+      <c r="F16" s="18"/>
       <c r="G16" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="20"/>
+      <c r="H16" s="18"/>
       <c r="I16" s="17">
         <v>44212</v>
       </c>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J16" s="18"/>
+    </row>
+    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="20"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="20"/>
+      <c r="D17" s="18"/>
       <c r="E17" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="20"/>
+      <c r="F17" s="18"/>
       <c r="G17" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="20"/>
+      <c r="H17" s="18"/>
       <c r="I17" s="17">
         <v>44212</v>
       </c>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J17" s="18"/>
+    </row>
+    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="20"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="20"/>
+      <c r="D18" s="18"/>
       <c r="E18" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="20"/>
+      <c r="F18" s="18"/>
       <c r="G18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="20"/>
+      <c r="H18" s="18"/>
       <c r="I18" s="17">
         <v>44213</v>
       </c>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J18" s="18"/>
+    </row>
+    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="20"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="20"/>
+      <c r="D19" s="18"/>
       <c r="E19" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="20"/>
+      <c r="F19" s="18"/>
       <c r="G19" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H19" s="20"/>
+      <c r="H19" s="18"/>
       <c r="I19" s="17">
         <v>44214</v>
       </c>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J19" s="18"/>
+    </row>
+    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="20"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="20"/>
+      <c r="D20" s="18"/>
       <c r="E20" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="20"/>
+      <c r="F20" s="18"/>
       <c r="G20" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="H20" s="20"/>
+      <c r="H20" s="18"/>
       <c r="I20" s="17">
         <v>44214</v>
       </c>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J20" s="18"/>
+    </row>
+    <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="20"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="20"/>
+      <c r="D21" s="18"/>
       <c r="E21" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="20"/>
+      <c r="F21" s="18"/>
       <c r="G21" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="20"/>
+      <c r="H21" s="18"/>
       <c r="I21" s="17">
         <v>44214</v>
       </c>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J21" s="18"/>
+    </row>
+    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="20"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="20"/>
+      <c r="D22" s="18"/>
       <c r="E22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="20"/>
+      <c r="F22" s="18"/>
       <c r="G22" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="20"/>
+      <c r="H22" s="18"/>
       <c r="I22" s="17">
         <v>44215</v>
       </c>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J22" s="18"/>
+    </row>
+    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="20"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="20"/>
+      <c r="D23" s="18"/>
       <c r="E23" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="20"/>
+      <c r="F23" s="18"/>
       <c r="G23" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="20"/>
+      <c r="H23" s="18"/>
       <c r="I23" s="17">
         <v>44215</v>
       </c>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J23" s="18"/>
+    </row>
+    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="20"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="20"/>
+      <c r="D24" s="18"/>
       <c r="E24" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="20"/>
+      <c r="F24" s="18"/>
       <c r="G24" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H24" s="20"/>
+      <c r="H24" s="18"/>
       <c r="I24" s="17">
         <v>44215</v>
       </c>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J24" s="18"/>
+    </row>
+    <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="20"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="20"/>
+      <c r="D25" s="18"/>
       <c r="E25" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="20"/>
+      <c r="F25" s="18"/>
       <c r="G25" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H25" s="20"/>
+      <c r="H25" s="18"/>
       <c r="I25" s="17">
         <v>44215</v>
       </c>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J25" s="18"/>
+    </row>
+    <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="20"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="20"/>
+      <c r="D26" s="18"/>
       <c r="E26" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="20"/>
+      <c r="F26" s="18"/>
       <c r="G26" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="H26" s="20"/>
+      <c r="H26" s="18"/>
       <c r="I26" s="17">
         <v>44215</v>
       </c>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J26" s="18"/>
+    </row>
+    <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="20"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="20"/>
+      <c r="D27" s="18"/>
       <c r="E27" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="20"/>
+      <c r="F27" s="18"/>
       <c r="G27" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="20"/>
+      <c r="H27" s="18"/>
       <c r="I27" s="17">
         <v>44215</v>
       </c>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J27" s="18"/>
+    </row>
+    <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="20"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="20"/>
+      <c r="D28" s="18"/>
       <c r="E28" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="20"/>
+      <c r="F28" s="18"/>
       <c r="G28" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="H28" s="20"/>
+      <c r="H28" s="18"/>
       <c r="I28" s="17">
         <v>44215</v>
       </c>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J28" s="18"/>
+    </row>
+    <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="20"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="20"/>
+      <c r="D29" s="18"/>
       <c r="E29" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="20"/>
+      <c r="F29" s="18"/>
       <c r="G29" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H29" s="20"/>
+      <c r="H29" s="18"/>
       <c r="I29" s="17">
         <v>44215</v>
       </c>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J29" s="18"/>
+    </row>
+    <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="20"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="20"/>
+      <c r="D30" s="18"/>
       <c r="E30" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F30" s="20"/>
+      <c r="F30" s="18"/>
       <c r="G30" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="H30" s="20"/>
+      <c r="H30" s="18"/>
       <c r="I30" s="17">
         <v>44215</v>
       </c>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J30" s="18"/>
+    </row>
+    <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="20"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="20"/>
+      <c r="D31" s="18"/>
       <c r="E31" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F31" s="20"/>
+      <c r="F31" s="18"/>
       <c r="G31" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="H31" s="20"/>
+      <c r="H31" s="18"/>
       <c r="I31" s="17">
         <v>44215</v>
       </c>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J31" s="18"/>
+    </row>
+    <row r="32" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="20"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="20"/>
+      <c r="D32" s="18"/>
       <c r="E32" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F32" s="20"/>
+      <c r="F32" s="18"/>
       <c r="G32" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="H32" s="20"/>
+      <c r="H32" s="18"/>
       <c r="I32" s="17">
         <v>44215</v>
       </c>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J32" s="18"/>
+    </row>
+    <row r="33" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="20"/>
+      <c r="B33" s="18"/>
       <c r="C33" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="20"/>
+      <c r="D33" s="18"/>
       <c r="E33" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F33" s="20"/>
+      <c r="F33" s="18"/>
       <c r="G33" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H33" s="20"/>
+      <c r="H33" s="18"/>
       <c r="I33" s="17">
         <v>44215</v>
       </c>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J33" s="18"/>
+    </row>
+    <row r="34" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="20"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="20"/>
+      <c r="D34" s="18"/>
       <c r="E34" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="20"/>
+      <c r="F34" s="18"/>
       <c r="G34" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="H34" s="20"/>
+      <c r="H34" s="18"/>
       <c r="I34" s="17">
         <v>44215</v>
       </c>
-      <c r="J34" s="20"/>
-    </row>
-    <row r="35" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J34" s="18"/>
+    </row>
+    <row r="35" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="20"/>
+      <c r="B35" s="18"/>
       <c r="C35" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="20"/>
+      <c r="D35" s="18"/>
       <c r="E35" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="20"/>
+      <c r="F35" s="18"/>
       <c r="G35" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="H35" s="20"/>
+      <c r="H35" s="18"/>
       <c r="I35" s="17">
         <v>44215</v>
       </c>
-      <c r="J35" s="20"/>
-    </row>
-    <row r="36" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J35" s="18"/>
+    </row>
+    <row r="36" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="20"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="20"/>
+      <c r="D36" s="18"/>
       <c r="E36" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F36" s="20"/>
+      <c r="F36" s="18"/>
       <c r="G36" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="H36" s="20"/>
+      <c r="H36" s="18"/>
       <c r="I36" s="17">
         <v>44215</v>
       </c>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J36" s="18"/>
+    </row>
+    <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="20"/>
+      <c r="B37" s="18"/>
       <c r="C37" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="20"/>
+      <c r="D37" s="18"/>
       <c r="E37" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F37" s="20"/>
+      <c r="F37" s="18"/>
       <c r="G37" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="H37" s="20"/>
+      <c r="H37" s="18"/>
       <c r="I37" s="17">
         <v>44215</v>
       </c>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J37" s="18"/>
+    </row>
+    <row r="38" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="20"/>
+      <c r="B38" s="18"/>
       <c r="C38" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="20"/>
+      <c r="D38" s="18"/>
       <c r="E38" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F38" s="20"/>
+      <c r="F38" s="18"/>
       <c r="G38" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="H38" s="20"/>
+      <c r="H38" s="18"/>
       <c r="I38" s="17">
         <v>44215</v>
       </c>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J38" s="18"/>
+    </row>
+    <row r="39" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="20"/>
+      <c r="B39" s="18"/>
       <c r="C39" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="20"/>
+      <c r="D39" s="18"/>
       <c r="E39" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="20"/>
+      <c r="F39" s="18"/>
       <c r="G39" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="H39" s="20"/>
+      <c r="H39" s="18"/>
       <c r="I39" s="17">
         <v>44215</v>
       </c>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J39" s="18"/>
+    </row>
+    <row r="40" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="20"/>
+      <c r="B40" s="18"/>
       <c r="C40" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="20"/>
+      <c r="D40" s="18"/>
       <c r="E40" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F40" s="20"/>
+      <c r="F40" s="18"/>
       <c r="G40" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="H40" s="20"/>
+      <c r="H40" s="18"/>
       <c r="I40" s="17">
         <v>44215</v>
       </c>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J40" s="18"/>
+    </row>
+    <row r="41" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="20"/>
+      <c r="B41" s="18"/>
       <c r="C41" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="20"/>
+      <c r="D41" s="18"/>
       <c r="E41" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F41" s="20"/>
+      <c r="F41" s="18"/>
       <c r="G41" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H41" s="20"/>
+      <c r="H41" s="18"/>
       <c r="I41" s="17">
         <v>44215</v>
       </c>
-      <c r="J41" s="20"/>
-    </row>
-    <row r="42" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J41" s="18"/>
+    </row>
+    <row r="42" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="18"/>
       <c r="C42" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="20"/>
+      <c r="D42" s="18"/>
       <c r="E42" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F42" s="20"/>
+      <c r="F42" s="18"/>
       <c r="G42" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="H42" s="20"/>
+      <c r="H42" s="18"/>
       <c r="I42" s="17">
         <v>44215</v>
       </c>
-      <c r="J42" s="20"/>
-    </row>
-    <row r="43" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J42" s="18"/>
+    </row>
+    <row r="43" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B43" s="20"/>
+      <c r="B43" s="18"/>
       <c r="C43" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="20"/>
+      <c r="D43" s="18"/>
       <c r="E43" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F43" s="20"/>
+      <c r="F43" s="18"/>
       <c r="G43" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="H43" s="20"/>
+      <c r="H43" s="18"/>
       <c r="I43" s="17">
         <v>44215</v>
       </c>
-      <c r="J43" s="20"/>
-    </row>
-    <row r="44" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J43" s="18"/>
+    </row>
+    <row r="44" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="20"/>
+      <c r="B44" s="18"/>
       <c r="C44" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D44" s="20"/>
+      <c r="D44" s="18"/>
       <c r="E44" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F44" s="20"/>
+      <c r="F44" s="18"/>
       <c r="G44" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H44" s="20"/>
+        <v>84</v>
+      </c>
+      <c r="H44" s="18"/>
       <c r="I44" s="17">
         <v>44216</v>
       </c>
-      <c r="J44" s="20"/>
-    </row>
-    <row r="45" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J44" s="18"/>
+    </row>
+    <row r="45" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
-      <c r="B45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="J45" s="20"/>
-    </row>
-    <row r="46" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="18"/>
+      <c r="C45" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H45" s="18"/>
+      <c r="I45" s="17">
+        <v>44216</v>
+      </c>
+      <c r="J45" s="18"/>
+    </row>
+    <row r="46" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
-      <c r="B46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="J46" s="20"/>
-    </row>
-    <row r="47" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="18"/>
+      <c r="C46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H46" s="18"/>
+      <c r="I46" s="17">
+        <v>44216</v>
+      </c>
+      <c r="J46" s="18"/>
+    </row>
+    <row r="47" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
-      <c r="B47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="J47" s="20"/>
-    </row>
-    <row r="48" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="J47" s="18"/>
+    </row>
+    <row r="48" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
-      <c r="B48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="J48" s="20"/>
-    </row>
-    <row r="49" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="H49" s="20"/>
+      <c r="B48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="J48" s="18"/>
+    </row>
+    <row r="49" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="H49" s="18"/>
       <c r="I49" s="13"/>
-      <c r="J49" s="20"/>
-    </row>
-    <row r="50" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="H50" s="20"/>
+      <c r="J49" s="18"/>
+    </row>
+    <row r="50" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="H50" s="18"/>
       <c r="I50" s="13"/>
-      <c r="J50" s="20"/>
-    </row>
-    <row r="51" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="H51" s="20"/>
+      <c r="J50" s="18"/>
+    </row>
+    <row r="51" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="H51" s="18"/>
       <c r="I51" s="13"/>
-      <c r="J51" s="20"/>
-    </row>
-    <row r="52" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="H52" s="20"/>
+      <c r="J51" s="18"/>
+    </row>
+    <row r="52" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="H52" s="18"/>
       <c r="I52" s="13"/>
-      <c r="J52" s="20"/>
-    </row>
-    <row r="53" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="H53" s="20"/>
+      <c r="J52" s="18"/>
+    </row>
+    <row r="53" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="H53" s="18"/>
       <c r="I53" s="13"/>
-      <c r="J53" s="20"/>
-    </row>
-    <row r="54" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="H54" s="20"/>
+      <c r="J53" s="18"/>
+    </row>
+    <row r="54" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="H54" s="18"/>
       <c r="I54" s="13"/>
-      <c r="J54" s="20"/>
-    </row>
-    <row r="55" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="H55" s="20"/>
+      <c r="J54" s="18"/>
+    </row>
+    <row r="55" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="H55" s="18"/>
       <c r="I55" s="13"/>
-      <c r="J55" s="20"/>
-    </row>
-    <row r="56" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="H56" s="20"/>
+      <c r="J55" s="18"/>
+    </row>
+    <row r="56" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="H56" s="18"/>
       <c r="I56" s="13"/>
-      <c r="J56" s="20"/>
-    </row>
-    <row r="57" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="H57" s="20"/>
+      <c r="J56" s="18"/>
+    </row>
+    <row r="57" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="H57" s="18"/>
       <c r="I57" s="13"/>
-      <c r="J57" s="20"/>
-    </row>
-    <row r="58" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="H58" s="20"/>
+      <c r="J57" s="18"/>
+    </row>
+    <row r="58" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="H58" s="18"/>
       <c r="I58" s="13"/>
-      <c r="J58" s="20"/>
-    </row>
-    <row r="59" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="H59" s="20"/>
+      <c r="J58" s="18"/>
+    </row>
+    <row r="59" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="H59" s="18"/>
       <c r="I59" s="13"/>
-      <c r="J59" s="20"/>
-    </row>
-    <row r="60" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="H60" s="20"/>
+      <c r="J59" s="18"/>
+    </row>
+    <row r="60" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="H60" s="18"/>
       <c r="I60" s="13"/>
-      <c r="J60" s="20"/>
-    </row>
-    <row r="61" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="H61" s="20"/>
+      <c r="J60" s="18"/>
+    </row>
+    <row r="61" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="H61" s="18"/>
       <c r="I61" s="13"/>
-      <c r="J61" s="20"/>
+      <c r="J61" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="H32:H61"/>
-    <mergeCell ref="F32:F61"/>
-    <mergeCell ref="D32:D61"/>
-    <mergeCell ref="B32:B61"/>
-    <mergeCell ref="J32:J61"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="J2:J31"/>
     <mergeCell ref="D2:D31"/>
     <mergeCell ref="F2:F31"/>
     <mergeCell ref="H2:H31"/>
     <mergeCell ref="B2:B31"/>
+    <mergeCell ref="H32:H61"/>
+    <mergeCell ref="F32:F61"/>
+    <mergeCell ref="D32:D61"/>
+    <mergeCell ref="B32:B61"/>
+    <mergeCell ref="J32:J61"/>
   </mergeCells>
-  <conditionalFormatting sqref="A2:I2 A1:G1 K1:XFD2 K5:XFD1048576 A5:I10 A11:B11 D11:I11 A12:I31 A62:I1048576 I32:I61 H32 H35:H61 G32:G61 F32 F35:F61 D32 D35:D61 B32 B35:B61 E31:E61 C31:C61 A30:A61">
+  <conditionalFormatting sqref="A2:I2 A1:G1 K1:XFD2 K5:XFD1048576 A5:I10 A11:B11 D11:I11 A12:I31 A62:I1048576 I32:I61 H32 H35:H61 G32:G61 F32 F35:F61 D32 D35:D61 B32 B35:B61 E31:E61 A30:A61 C31:C61">
     <cfRule type="cellIs" dxfId="10" priority="19" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C10 G5:G81 E5:E81 C12:C81 A5:A81">
+  <conditionalFormatting sqref="C5:C10 G5:G81 E5:E81 A5:A81 C12:C81">
     <cfRule type="containsBlanks" priority="17" stopIfTrue="1">
       <formula>LEN(TRIM(A5))=0</formula>
     </cfRule>
@@ -2061,12 +2088,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="22.77734375" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="22.7109375" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="22.77734375" style="1"/>
+    <col min="1" max="16384" width="22.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -2077,7 +2104,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -2088,7 +2115,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="63" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -2099,7 +2126,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -2107,7 +2134,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="63" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,7 +2142,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>23</v>
       </c>

--- a/TableauDeBord.xlsx
+++ b/TableauDeBord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\GitHub\S3D_MyWishList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCAA2A1-57E2-43BC-97F8-CD9705724370}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008DAC41-C150-4950-AF95-D01795EFA3BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="87">
   <si>
     <t>BOUSSETTA Nael</t>
   </si>
@@ -502,13 +502,13 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -872,7 +872,7 @@
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="62.5703125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -891,1122 +891,1132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:10" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="18"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="18"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="20"/>
       <c r="I2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="18"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="18"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="18"/>
+      <c r="F3" s="20"/>
       <c r="G3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="H3" s="20"/>
+      <c r="J3" s="20"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="18"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="18"/>
+      <c r="F4" s="20"/>
       <c r="G4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="J4" s="18"/>
+      <c r="H4" s="20"/>
+      <c r="J4" s="20"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="18"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="18"/>
+      <c r="F5" s="20"/>
       <c r="G5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="18"/>
+      <c r="H5" s="20"/>
       <c r="I5" s="17">
         <v>44199</v>
       </c>
-      <c r="J5" s="18"/>
+      <c r="J5" s="20"/>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="18"/>
+      <c r="D6" s="20"/>
       <c r="E6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="18"/>
+      <c r="F6" s="20"/>
       <c r="G6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="18"/>
+      <c r="H6" s="20"/>
       <c r="I6" s="17">
         <v>44199</v>
       </c>
-      <c r="J6" s="18"/>
+      <c r="J6" s="20"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="18"/>
+      <c r="D7" s="20"/>
       <c r="E7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="18"/>
+      <c r="F7" s="20"/>
       <c r="G7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="18"/>
+      <c r="H7" s="20"/>
       <c r="I7" s="17">
         <v>44201</v>
       </c>
-      <c r="J7" s="18"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="18"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="18"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="18"/>
-      <c r="J8" s="18"/>
+      <c r="H8" s="20"/>
+      <c r="J8" s="20"/>
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="18"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="18"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="18"/>
+      <c r="F9" s="20"/>
       <c r="G9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="18"/>
+      <c r="H9" s="20"/>
       <c r="I9" s="17">
         <v>44203</v>
       </c>
-      <c r="J9" s="18"/>
+      <c r="J9" s="20"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="18"/>
+      <c r="D10" s="20"/>
       <c r="E10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="18"/>
+      <c r="F10" s="20"/>
       <c r="G10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="18"/>
+      <c r="H10" s="20"/>
       <c r="I10" s="17">
         <v>44203</v>
       </c>
-      <c r="J10" s="18"/>
+      <c r="J10" s="20"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="18"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="18"/>
+      <c r="D11" s="20"/>
       <c r="E11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="18"/>
+      <c r="F11" s="20"/>
       <c r="G11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="18"/>
+      <c r="H11" s="20"/>
       <c r="I11" s="17">
         <v>44206</v>
       </c>
-      <c r="J11" s="18"/>
+      <c r="J11" s="20"/>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="18"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="18"/>
+      <c r="F12" s="20"/>
       <c r="G12" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="18"/>
+      <c r="H12" s="20"/>
       <c r="I12" s="17">
         <v>44208</v>
       </c>
-      <c r="J12" s="18"/>
+      <c r="J12" s="20"/>
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="18"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="18"/>
+      <c r="D13" s="20"/>
       <c r="E13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="18"/>
+      <c r="F13" s="20"/>
       <c r="G13" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="18"/>
+      <c r="H13" s="20"/>
       <c r="I13" s="17">
         <v>44208</v>
       </c>
-      <c r="J13" s="18"/>
+      <c r="J13" s="20"/>
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="18"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="18"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="18"/>
+      <c r="F14" s="20"/>
       <c r="G14" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="18"/>
+      <c r="H14" s="20"/>
       <c r="I14" s="17">
         <v>44208</v>
       </c>
-      <c r="J14" s="18"/>
+      <c r="J14" s="20"/>
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="18"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="18"/>
+      <c r="D15" s="20"/>
       <c r="E15" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="18"/>
+      <c r="F15" s="20"/>
       <c r="G15" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="18"/>
+      <c r="H15" s="20"/>
       <c r="I15" s="17">
         <v>44211</v>
       </c>
-      <c r="J15" s="18"/>
+      <c r="J15" s="20"/>
     </row>
     <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="18"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="18"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="18"/>
+      <c r="F16" s="20"/>
       <c r="G16" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="18"/>
+      <c r="H16" s="20"/>
       <c r="I16" s="17">
         <v>44212</v>
       </c>
-      <c r="J16" s="18"/>
+      <c r="J16" s="20"/>
     </row>
     <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="18"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="18"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="18"/>
+      <c r="F17" s="20"/>
       <c r="G17" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="18"/>
+      <c r="H17" s="20"/>
       <c r="I17" s="17">
         <v>44212</v>
       </c>
-      <c r="J17" s="18"/>
+      <c r="J17" s="20"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="18"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="18"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="18"/>
+      <c r="F18" s="20"/>
       <c r="G18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="18"/>
+      <c r="H18" s="20"/>
       <c r="I18" s="17">
         <v>44213</v>
       </c>
-      <c r="J18" s="18"/>
+      <c r="J18" s="20"/>
     </row>
     <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="18"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="18"/>
+      <c r="D19" s="20"/>
       <c r="E19" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="18"/>
+      <c r="F19" s="20"/>
       <c r="G19" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H19" s="18"/>
+      <c r="H19" s="20"/>
       <c r="I19" s="17">
         <v>44214</v>
       </c>
-      <c r="J19" s="18"/>
+      <c r="J19" s="20"/>
     </row>
     <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="18"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="18"/>
+      <c r="D20" s="20"/>
       <c r="E20" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="18"/>
+      <c r="F20" s="20"/>
       <c r="G20" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="H20" s="18"/>
+      <c r="H20" s="20"/>
       <c r="I20" s="17">
         <v>44214</v>
       </c>
-      <c r="J20" s="18"/>
+      <c r="J20" s="20"/>
     </row>
     <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="18"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="18"/>
+      <c r="D21" s="20"/>
       <c r="E21" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="18"/>
+      <c r="F21" s="20"/>
       <c r="G21" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="18"/>
+      <c r="H21" s="20"/>
       <c r="I21" s="17">
         <v>44214</v>
       </c>
-      <c r="J21" s="18"/>
+      <c r="J21" s="20"/>
     </row>
     <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="18"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="18"/>
+      <c r="D22" s="20"/>
       <c r="E22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="18"/>
+      <c r="F22" s="20"/>
       <c r="G22" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="18"/>
+      <c r="H22" s="20"/>
       <c r="I22" s="17">
         <v>44215</v>
       </c>
-      <c r="J22" s="18"/>
+      <c r="J22" s="20"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="18"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="18"/>
+      <c r="D23" s="20"/>
       <c r="E23" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="18"/>
+      <c r="F23" s="20"/>
       <c r="G23" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="18"/>
+      <c r="H23" s="20"/>
       <c r="I23" s="17">
         <v>44215</v>
       </c>
-      <c r="J23" s="18"/>
+      <c r="J23" s="20"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="18"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="18"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="20"/>
       <c r="G24" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H24" s="18"/>
+      <c r="H24" s="20"/>
       <c r="I24" s="17">
         <v>44215</v>
       </c>
-      <c r="J24" s="18"/>
+      <c r="J24" s="20"/>
     </row>
     <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="18"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="18"/>
+      <c r="D25" s="20"/>
       <c r="E25" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="18"/>
+      <c r="F25" s="20"/>
       <c r="G25" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H25" s="18"/>
+      <c r="H25" s="20"/>
       <c r="I25" s="17">
         <v>44215</v>
       </c>
-      <c r="J25" s="18"/>
+      <c r="J25" s="20"/>
     </row>
     <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="18"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="18"/>
+      <c r="D26" s="20"/>
       <c r="E26" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="20"/>
       <c r="G26" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="H26" s="18"/>
+      <c r="H26" s="20"/>
       <c r="I26" s="17">
         <v>44215</v>
       </c>
-      <c r="J26" s="18"/>
+      <c r="J26" s="20"/>
     </row>
     <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="18"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="18"/>
+      <c r="D27" s="20"/>
       <c r="E27" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="18"/>
+      <c r="F27" s="20"/>
       <c r="G27" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="18"/>
+      <c r="H27" s="20"/>
       <c r="I27" s="17">
         <v>44215</v>
       </c>
-      <c r="J27" s="18"/>
+      <c r="J27" s="20"/>
     </row>
     <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="18"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="18"/>
+      <c r="D28" s="20"/>
       <c r="E28" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="18"/>
+      <c r="F28" s="20"/>
       <c r="G28" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="H28" s="18"/>
+      <c r="H28" s="20"/>
       <c r="I28" s="17">
         <v>44215</v>
       </c>
-      <c r="J28" s="18"/>
+      <c r="J28" s="20"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="18"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="18"/>
+      <c r="D29" s="20"/>
       <c r="E29" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="18"/>
+      <c r="F29" s="20"/>
       <c r="G29" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H29" s="18"/>
+      <c r="H29" s="20"/>
       <c r="I29" s="17">
         <v>44215</v>
       </c>
-      <c r="J29" s="18"/>
+      <c r="J29" s="20"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="18"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="18"/>
+      <c r="D30" s="20"/>
       <c r="E30" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F30" s="18"/>
+      <c r="F30" s="20"/>
       <c r="G30" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="H30" s="18"/>
+      <c r="H30" s="20"/>
       <c r="I30" s="17">
         <v>44215</v>
       </c>
-      <c r="J30" s="18"/>
+      <c r="J30" s="20"/>
     </row>
     <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="18"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="18"/>
+      <c r="D31" s="20"/>
       <c r="E31" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F31" s="18"/>
+      <c r="F31" s="20"/>
       <c r="G31" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="H31" s="18"/>
+      <c r="H31" s="20"/>
       <c r="I31" s="17">
         <v>44215</v>
       </c>
-      <c r="J31" s="18"/>
+      <c r="J31" s="20"/>
     </row>
     <row r="32" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="18"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="18"/>
+      <c r="D32" s="20"/>
       <c r="E32" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F32" s="18"/>
+      <c r="F32" s="20"/>
       <c r="G32" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="H32" s="18"/>
+      <c r="H32" s="20"/>
       <c r="I32" s="17">
         <v>44215</v>
       </c>
-      <c r="J32" s="18"/>
+      <c r="J32" s="20"/>
     </row>
     <row r="33" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="18"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="18"/>
+      <c r="D33" s="20"/>
       <c r="E33" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F33" s="18"/>
+      <c r="F33" s="20"/>
       <c r="G33" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H33" s="18"/>
+      <c r="H33" s="20"/>
       <c r="I33" s="17">
         <v>44215</v>
       </c>
-      <c r="J33" s="18"/>
+      <c r="J33" s="20"/>
     </row>
     <row r="34" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="18"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="18"/>
+      <c r="D34" s="20"/>
       <c r="E34" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="18"/>
+      <c r="F34" s="20"/>
       <c r="G34" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="H34" s="18"/>
+      <c r="H34" s="20"/>
       <c r="I34" s="17">
         <v>44215</v>
       </c>
-      <c r="J34" s="18"/>
+      <c r="J34" s="20"/>
     </row>
     <row r="35" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="18"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="18"/>
+      <c r="D35" s="20"/>
       <c r="E35" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="18"/>
+      <c r="F35" s="20"/>
       <c r="G35" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="H35" s="18"/>
+      <c r="H35" s="20"/>
       <c r="I35" s="17">
         <v>44215</v>
       </c>
-      <c r="J35" s="18"/>
+      <c r="J35" s="20"/>
     </row>
     <row r="36" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="18"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="18"/>
+      <c r="D36" s="20"/>
       <c r="E36" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F36" s="18"/>
+      <c r="F36" s="20"/>
       <c r="G36" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="H36" s="18"/>
+      <c r="H36" s="20"/>
       <c r="I36" s="17">
         <v>44215</v>
       </c>
-      <c r="J36" s="18"/>
+      <c r="J36" s="20"/>
     </row>
     <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="18"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="18"/>
+      <c r="D37" s="20"/>
       <c r="E37" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F37" s="18"/>
+      <c r="F37" s="20"/>
       <c r="G37" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="H37" s="18"/>
+      <c r="H37" s="20"/>
       <c r="I37" s="17">
         <v>44215</v>
       </c>
-      <c r="J37" s="18"/>
+      <c r="J37" s="20"/>
     </row>
     <row r="38" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="18"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="18"/>
+      <c r="D38" s="20"/>
       <c r="E38" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F38" s="18"/>
+      <c r="F38" s="20"/>
       <c r="G38" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="H38" s="18"/>
+      <c r="H38" s="20"/>
       <c r="I38" s="17">
         <v>44215</v>
       </c>
-      <c r="J38" s="18"/>
+      <c r="J38" s="20"/>
     </row>
     <row r="39" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="18"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="18"/>
+      <c r="D39" s="20"/>
       <c r="E39" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="18"/>
+      <c r="F39" s="20"/>
       <c r="G39" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="H39" s="18"/>
+      <c r="H39" s="20"/>
       <c r="I39" s="17">
         <v>44215</v>
       </c>
-      <c r="J39" s="18"/>
+      <c r="J39" s="20"/>
     </row>
     <row r="40" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="18"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="18"/>
+      <c r="D40" s="20"/>
       <c r="E40" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F40" s="18"/>
+      <c r="F40" s="20"/>
       <c r="G40" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="H40" s="18"/>
+      <c r="H40" s="20"/>
       <c r="I40" s="17">
         <v>44215</v>
       </c>
-      <c r="J40" s="18"/>
+      <c r="J40" s="20"/>
     </row>
     <row r="41" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="18"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="18"/>
+      <c r="D41" s="20"/>
       <c r="E41" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F41" s="18"/>
+      <c r="F41" s="20"/>
       <c r="G41" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H41" s="18"/>
+      <c r="H41" s="20"/>
       <c r="I41" s="17">
         <v>44215</v>
       </c>
-      <c r="J41" s="18"/>
+      <c r="J41" s="20"/>
     </row>
     <row r="42" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="18"/>
+      <c r="B42" s="20"/>
       <c r="C42" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="18"/>
+      <c r="D42" s="20"/>
       <c r="E42" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F42" s="18"/>
+      <c r="F42" s="20"/>
       <c r="G42" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="H42" s="18"/>
+      <c r="H42" s="20"/>
       <c r="I42" s="17">
         <v>44215</v>
       </c>
-      <c r="J42" s="18"/>
+      <c r="J42" s="20"/>
     </row>
     <row r="43" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B43" s="18"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="18"/>
+      <c r="D43" s="20"/>
       <c r="E43" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F43" s="18"/>
+      <c r="F43" s="20"/>
       <c r="G43" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="H43" s="18"/>
+      <c r="H43" s="20"/>
       <c r="I43" s="17">
         <v>44215</v>
       </c>
-      <c r="J43" s="18"/>
+      <c r="J43" s="20"/>
     </row>
     <row r="44" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="18"/>
+      <c r="B44" s="20"/>
       <c r="C44" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D44" s="18"/>
+      <c r="D44" s="20"/>
       <c r="E44" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F44" s="18"/>
+      <c r="F44" s="20"/>
       <c r="G44" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="H44" s="18"/>
+      <c r="H44" s="20"/>
       <c r="I44" s="17">
         <v>44216</v>
       </c>
-      <c r="J44" s="18"/>
+      <c r="J44" s="20"/>
     </row>
     <row r="45" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="18"/>
+      <c r="A45" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="20"/>
       <c r="C45" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D45" s="18"/>
-      <c r="F45" s="18"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="20"/>
       <c r="G45" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="H45" s="18"/>
+      <c r="H45" s="20"/>
       <c r="I45" s="17">
         <v>44216</v>
       </c>
-      <c r="J45" s="18"/>
+      <c r="J45" s="20"/>
     </row>
     <row r="46" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-      <c r="B46" s="18"/>
+      <c r="A46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="20"/>
       <c r="C46" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="18"/>
-      <c r="F46" s="18"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" s="20"/>
       <c r="G46" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="H46" s="18"/>
+      <c r="H46" s="20"/>
       <c r="I46" s="17">
         <v>44216</v>
       </c>
-      <c r="J46" s="18"/>
+      <c r="J46" s="20"/>
     </row>
     <row r="47" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
-      <c r="B47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="J47" s="18"/>
+      <c r="B47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="J47" s="20"/>
     </row>
     <row r="48" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
-      <c r="B48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="J48" s="18"/>
+      <c r="B48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="J48" s="20"/>
     </row>
     <row r="49" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="H49" s="18"/>
+      <c r="B49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="H49" s="20"/>
       <c r="I49" s="13"/>
-      <c r="J49" s="18"/>
+      <c r="J49" s="20"/>
     </row>
     <row r="50" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="H50" s="18"/>
+      <c r="B50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="H50" s="20"/>
       <c r="I50" s="13"/>
-      <c r="J50" s="18"/>
+      <c r="J50" s="20"/>
     </row>
     <row r="51" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="H51" s="18"/>
+      <c r="B51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="H51" s="20"/>
       <c r="I51" s="13"/>
-      <c r="J51" s="18"/>
+      <c r="J51" s="20"/>
     </row>
     <row r="52" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="H52" s="18"/>
+      <c r="B52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="H52" s="20"/>
       <c r="I52" s="13"/>
-      <c r="J52" s="18"/>
+      <c r="J52" s="20"/>
     </row>
     <row r="53" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="H53" s="18"/>
+      <c r="B53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="H53" s="20"/>
       <c r="I53" s="13"/>
-      <c r="J53" s="18"/>
+      <c r="J53" s="20"/>
     </row>
     <row r="54" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="H54" s="18"/>
+      <c r="B54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="H54" s="20"/>
       <c r="I54" s="13"/>
-      <c r="J54" s="18"/>
+      <c r="J54" s="20"/>
     </row>
     <row r="55" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="H55" s="18"/>
+      <c r="B55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="H55" s="20"/>
       <c r="I55" s="13"/>
-      <c r="J55" s="18"/>
+      <c r="J55" s="20"/>
     </row>
     <row r="56" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="H56" s="18"/>
+      <c r="B56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="H56" s="20"/>
       <c r="I56" s="13"/>
-      <c r="J56" s="18"/>
+      <c r="J56" s="20"/>
     </row>
     <row r="57" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="H57" s="18"/>
+      <c r="B57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="H57" s="20"/>
       <c r="I57" s="13"/>
-      <c r="J57" s="18"/>
+      <c r="J57" s="20"/>
     </row>
     <row r="58" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="H58" s="18"/>
+      <c r="B58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="H58" s="20"/>
       <c r="I58" s="13"/>
-      <c r="J58" s="18"/>
+      <c r="J58" s="20"/>
     </row>
     <row r="59" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="H59" s="18"/>
+      <c r="B59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="H59" s="20"/>
       <c r="I59" s="13"/>
-      <c r="J59" s="18"/>
+      <c r="J59" s="20"/>
     </row>
     <row r="60" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="H60" s="18"/>
+      <c r="B60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="H60" s="20"/>
       <c r="I60" s="13"/>
-      <c r="J60" s="18"/>
+      <c r="J60" s="20"/>
     </row>
     <row r="61" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="H61" s="18"/>
+      <c r="B61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="H61" s="20"/>
       <c r="I61" s="13"/>
-      <c r="J61" s="18"/>
+      <c r="J61" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="H32:H61"/>
+    <mergeCell ref="F32:F61"/>
+    <mergeCell ref="D32:D61"/>
+    <mergeCell ref="B32:B61"/>
+    <mergeCell ref="J32:J61"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="J2:J31"/>
     <mergeCell ref="D2:D31"/>
     <mergeCell ref="F2:F31"/>
     <mergeCell ref="H2:H31"/>
     <mergeCell ref="B2:B31"/>
-    <mergeCell ref="H32:H61"/>
-    <mergeCell ref="F32:F61"/>
-    <mergeCell ref="D32:D61"/>
-    <mergeCell ref="B32:B61"/>
-    <mergeCell ref="J32:J61"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:I2 A1:G1 K1:XFD2 K5:XFD1048576 A5:I10 A11:B11 D11:I11 A12:I31 A62:I1048576 I32:I61 H32 H35:H61 G32:G61 F32 F35:F61 D32 D35:D61 B32 B35:B61 E31:E61 A30:A61 C31:C61">
     <cfRule type="cellIs" dxfId="10" priority="19" operator="equal">

--- a/TableauDeBord.xlsx
+++ b/TableauDeBord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\GitHub\S3D_MyWishList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5344a3cd4eb43387/Bureau/Git/S3D_MyWishList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCAA2A1-57E2-43BC-97F8-CD9705724370}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{5DCAA2A1-57E2-43BC-97F8-CD9705724370}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AECD7B05-F300-4566-A6CD-62B6AA01F6CC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableauBord" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="90">
   <si>
     <t>BOUSSETTA Nael</t>
   </si>
@@ -288,6 +288,15 @@
   </si>
   <si>
     <t>ajout vue Erreur</t>
+  </si>
+  <si>
+    <t>Modifications pour le CSS</t>
+  </si>
+  <si>
+    <t>Correction des erreurs</t>
+  </si>
+  <si>
+    <t>Finalisation projet</t>
   </si>
 </sst>
 </file>
@@ -502,13 +511,13 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -871,1149 +880,1173 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="62.5703125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="62.54296875" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="62.5703125" style="11"/>
-    <col min="2" max="2" width="1.7109375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="62.5703125" style="12"/>
-    <col min="4" max="4" width="1.7109375" style="12" customWidth="1"/>
-    <col min="5" max="5" width="62.5703125" style="12"/>
-    <col min="6" max="6" width="1.7109375" style="12" customWidth="1"/>
-    <col min="7" max="7" width="62.5703125" style="12"/>
-    <col min="8" max="8" width="1.7109375" style="12" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="13" customWidth="1"/>
-    <col min="10" max="10" width="1.7109375" style="12" customWidth="1"/>
-    <col min="11" max="16384" width="62.5703125" style="12"/>
+    <col min="1" max="1" width="62.54296875" style="11"/>
+    <col min="2" max="2" width="1.7265625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="62.54296875" style="12"/>
+    <col min="4" max="4" width="1.7265625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="62.54296875" style="12"/>
+    <col min="6" max="6" width="1.7265625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="62.54296875" style="12"/>
+    <col min="8" max="8" width="1.7265625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="10.26953125" style="13" customWidth="1"/>
+    <col min="10" max="10" width="1.7265625" style="12" customWidth="1"/>
+    <col min="11" max="16384" width="62.54296875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-    </row>
-    <row r="2" spans="1:10" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+    </row>
+    <row r="2" spans="1:10" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="18"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="18"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="18"/>
+      <c r="H2" s="20"/>
       <c r="I2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="18"/>
-    </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="20"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="18"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="18"/>
+      <c r="F3" s="20"/>
       <c r="G3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="20"/>
+      <c r="J3" s="20"/>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="18"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="18"/>
+      <c r="F4" s="20"/>
       <c r="G4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="J4" s="18"/>
-    </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="20"/>
+      <c r="J4" s="20"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="18"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="18"/>
+      <c r="F5" s="20"/>
       <c r="G5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="18"/>
+      <c r="H5" s="20"/>
       <c r="I5" s="17">
         <v>44199</v>
       </c>
-      <c r="J5" s="18"/>
-    </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="20"/>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="18"/>
+      <c r="D6" s="20"/>
       <c r="E6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="18"/>
+      <c r="F6" s="20"/>
       <c r="G6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="18"/>
+      <c r="H6" s="20"/>
       <c r="I6" s="17">
         <v>44199</v>
       </c>
-      <c r="J6" s="18"/>
-    </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="20"/>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="18"/>
+      <c r="D7" s="20"/>
       <c r="E7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="18"/>
+      <c r="F7" s="20"/>
       <c r="G7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="18"/>
+      <c r="H7" s="20"/>
       <c r="I7" s="17">
         <v>44201</v>
       </c>
-      <c r="J7" s="18"/>
-    </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="20"/>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="18"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="18"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="18"/>
-      <c r="J8" s="18"/>
-    </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="20"/>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="18"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="18"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="18"/>
+      <c r="F9" s="20"/>
       <c r="G9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="18"/>
+      <c r="H9" s="20"/>
       <c r="I9" s="17">
         <v>44203</v>
       </c>
-      <c r="J9" s="18"/>
-    </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="20"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="18"/>
+      <c r="D10" s="20"/>
       <c r="E10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="18"/>
+      <c r="F10" s="20"/>
       <c r="G10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="18"/>
+      <c r="H10" s="20"/>
       <c r="I10" s="17">
         <v>44203</v>
       </c>
-      <c r="J10" s="18"/>
-    </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J10" s="20"/>
+    </row>
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="18"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="18"/>
+      <c r="D11" s="20"/>
       <c r="E11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="18"/>
+      <c r="F11" s="20"/>
       <c r="G11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="18"/>
+      <c r="H11" s="20"/>
       <c r="I11" s="17">
         <v>44206</v>
       </c>
-      <c r="J11" s="18"/>
-    </row>
-    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="20"/>
+    </row>
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="18"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="18"/>
+      <c r="F12" s="20"/>
       <c r="G12" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="18"/>
+      <c r="H12" s="20"/>
       <c r="I12" s="17">
         <v>44208</v>
       </c>
-      <c r="J12" s="18"/>
-    </row>
-    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="20"/>
+    </row>
+    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="18"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="18"/>
+      <c r="D13" s="20"/>
       <c r="E13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="18"/>
+      <c r="F13" s="20"/>
       <c r="G13" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="18"/>
+      <c r="H13" s="20"/>
       <c r="I13" s="17">
         <v>44208</v>
       </c>
-      <c r="J13" s="18"/>
-    </row>
-    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="20"/>
+    </row>
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="18"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="18"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="18"/>
+      <c r="F14" s="20"/>
       <c r="G14" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="18"/>
+      <c r="H14" s="20"/>
       <c r="I14" s="17">
         <v>44208</v>
       </c>
-      <c r="J14" s="18"/>
-    </row>
-    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J14" s="20"/>
+    </row>
+    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="18"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="18"/>
+      <c r="D15" s="20"/>
       <c r="E15" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="18"/>
+      <c r="F15" s="20"/>
       <c r="G15" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="18"/>
+      <c r="H15" s="20"/>
       <c r="I15" s="17">
         <v>44211</v>
       </c>
-      <c r="J15" s="18"/>
-    </row>
-    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J15" s="20"/>
+    </row>
+    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="18"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="18"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="18"/>
+      <c r="F16" s="20"/>
       <c r="G16" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="18"/>
+      <c r="H16" s="20"/>
       <c r="I16" s="17">
         <v>44212</v>
       </c>
-      <c r="J16" s="18"/>
-    </row>
-    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="20"/>
+    </row>
+    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="18"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="18"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="18"/>
+      <c r="F17" s="20"/>
       <c r="G17" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="18"/>
+      <c r="H17" s="20"/>
       <c r="I17" s="17">
         <v>44212</v>
       </c>
-      <c r="J17" s="18"/>
-    </row>
-    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J17" s="20"/>
+    </row>
+    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="18"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="18"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="18"/>
+      <c r="F18" s="20"/>
       <c r="G18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="18"/>
+      <c r="H18" s="20"/>
       <c r="I18" s="17">
         <v>44213</v>
       </c>
-      <c r="J18" s="18"/>
-    </row>
-    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J18" s="20"/>
+    </row>
+    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="18"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="18"/>
+      <c r="D19" s="20"/>
       <c r="E19" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="18"/>
+      <c r="F19" s="20"/>
       <c r="G19" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H19" s="18"/>
+      <c r="H19" s="20"/>
       <c r="I19" s="17">
         <v>44214</v>
       </c>
-      <c r="J19" s="18"/>
-    </row>
-    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J19" s="20"/>
+    </row>
+    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="18"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="18"/>
+      <c r="D20" s="20"/>
       <c r="E20" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="18"/>
+      <c r="F20" s="20"/>
       <c r="G20" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="H20" s="18"/>
+      <c r="H20" s="20"/>
       <c r="I20" s="17">
         <v>44214</v>
       </c>
-      <c r="J20" s="18"/>
-    </row>
-    <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J20" s="20"/>
+    </row>
+    <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="18"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="18"/>
+      <c r="D21" s="20"/>
       <c r="E21" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="18"/>
+      <c r="F21" s="20"/>
       <c r="G21" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="18"/>
+      <c r="H21" s="20"/>
       <c r="I21" s="17">
         <v>44214</v>
       </c>
-      <c r="J21" s="18"/>
-    </row>
-    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J21" s="20"/>
+    </row>
+    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="18"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="18"/>
+      <c r="D22" s="20"/>
       <c r="E22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="18"/>
+      <c r="F22" s="20"/>
       <c r="G22" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="18"/>
+      <c r="H22" s="20"/>
       <c r="I22" s="17">
         <v>44215</v>
       </c>
-      <c r="J22" s="18"/>
-    </row>
-    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J22" s="20"/>
+    </row>
+    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="18"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="18"/>
+      <c r="D23" s="20"/>
       <c r="E23" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="18"/>
+      <c r="F23" s="20"/>
       <c r="G23" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="18"/>
+      <c r="H23" s="20"/>
       <c r="I23" s="17">
         <v>44215</v>
       </c>
-      <c r="J23" s="18"/>
-    </row>
-    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J23" s="20"/>
+    </row>
+    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="18"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="18"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="20"/>
       <c r="G24" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H24" s="18"/>
+      <c r="H24" s="20"/>
       <c r="I24" s="17">
         <v>44215</v>
       </c>
-      <c r="J24" s="18"/>
-    </row>
-    <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J24" s="20"/>
+    </row>
+    <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="18"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="18"/>
+      <c r="D25" s="20"/>
       <c r="E25" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="18"/>
+      <c r="F25" s="20"/>
       <c r="G25" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H25" s="18"/>
+      <c r="H25" s="20"/>
       <c r="I25" s="17">
         <v>44215</v>
       </c>
-      <c r="J25" s="18"/>
-    </row>
-    <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="18"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="18"/>
+      <c r="D26" s="20"/>
       <c r="E26" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="20"/>
       <c r="G26" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="H26" s="18"/>
+      <c r="H26" s="20"/>
       <c r="I26" s="17">
         <v>44215</v>
       </c>
-      <c r="J26" s="18"/>
-    </row>
-    <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J26" s="20"/>
+    </row>
+    <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="18"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="18"/>
+      <c r="D27" s="20"/>
       <c r="E27" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="18"/>
+      <c r="F27" s="20"/>
       <c r="G27" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="18"/>
+      <c r="H27" s="20"/>
       <c r="I27" s="17">
         <v>44215</v>
       </c>
-      <c r="J27" s="18"/>
-    </row>
-    <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J27" s="20"/>
+    </row>
+    <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="18"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="18"/>
+      <c r="D28" s="20"/>
       <c r="E28" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="18"/>
+      <c r="F28" s="20"/>
       <c r="G28" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="H28" s="18"/>
+      <c r="H28" s="20"/>
       <c r="I28" s="17">
         <v>44215</v>
       </c>
-      <c r="J28" s="18"/>
-    </row>
-    <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J28" s="20"/>
+    </row>
+    <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="18"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="18"/>
+      <c r="D29" s="20"/>
       <c r="E29" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="18"/>
+      <c r="F29" s="20"/>
       <c r="G29" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H29" s="18"/>
+      <c r="H29" s="20"/>
       <c r="I29" s="17">
         <v>44215</v>
       </c>
-      <c r="J29" s="18"/>
-    </row>
-    <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J29" s="20"/>
+    </row>
+    <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="18"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="18"/>
+      <c r="D30" s="20"/>
       <c r="E30" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F30" s="18"/>
+      <c r="F30" s="20"/>
       <c r="G30" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="H30" s="18"/>
+      <c r="H30" s="20"/>
       <c r="I30" s="17">
         <v>44215</v>
       </c>
-      <c r="J30" s="18"/>
-    </row>
-    <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J30" s="20"/>
+    </row>
+    <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="18"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="18"/>
+      <c r="D31" s="20"/>
       <c r="E31" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F31" s="18"/>
+      <c r="F31" s="20"/>
       <c r="G31" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="H31" s="18"/>
+      <c r="H31" s="20"/>
       <c r="I31" s="17">
         <v>44215</v>
       </c>
-      <c r="J31" s="18"/>
-    </row>
-    <row r="32" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="20"/>
+    </row>
+    <row r="32" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="18"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="18"/>
+      <c r="D32" s="20"/>
       <c r="E32" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F32" s="18"/>
+      <c r="F32" s="20"/>
       <c r="G32" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="H32" s="18"/>
+      <c r="H32" s="20"/>
       <c r="I32" s="17">
         <v>44215</v>
       </c>
-      <c r="J32" s="18"/>
-    </row>
-    <row r="33" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J32" s="20"/>
+    </row>
+    <row r="33" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="18"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="18"/>
+      <c r="D33" s="20"/>
       <c r="E33" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F33" s="18"/>
+      <c r="F33" s="20"/>
       <c r="G33" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H33" s="18"/>
+      <c r="H33" s="20"/>
       <c r="I33" s="17">
         <v>44215</v>
       </c>
-      <c r="J33" s="18"/>
-    </row>
-    <row r="34" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J33" s="20"/>
+    </row>
+    <row r="34" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="18"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="18"/>
+      <c r="D34" s="20"/>
       <c r="E34" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="18"/>
+      <c r="F34" s="20"/>
       <c r="G34" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="H34" s="18"/>
+      <c r="H34" s="20"/>
       <c r="I34" s="17">
         <v>44215</v>
       </c>
-      <c r="J34" s="18"/>
-    </row>
-    <row r="35" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J34" s="20"/>
+    </row>
+    <row r="35" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="18"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="18"/>
+      <c r="D35" s="20"/>
       <c r="E35" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="18"/>
+      <c r="F35" s="20"/>
       <c r="G35" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="H35" s="18"/>
+      <c r="H35" s="20"/>
       <c r="I35" s="17">
         <v>44215</v>
       </c>
-      <c r="J35" s="18"/>
-    </row>
-    <row r="36" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J35" s="20"/>
+    </row>
+    <row r="36" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="18"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="18"/>
+      <c r="D36" s="20"/>
       <c r="E36" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F36" s="18"/>
+      <c r="F36" s="20"/>
       <c r="G36" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="H36" s="18"/>
+      <c r="H36" s="20"/>
       <c r="I36" s="17">
         <v>44215</v>
       </c>
-      <c r="J36" s="18"/>
-    </row>
-    <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J36" s="20"/>
+    </row>
+    <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="18"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="18"/>
+      <c r="D37" s="20"/>
       <c r="E37" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F37" s="18"/>
+      <c r="F37" s="20"/>
       <c r="G37" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="H37" s="18"/>
+      <c r="H37" s="20"/>
       <c r="I37" s="17">
         <v>44215</v>
       </c>
-      <c r="J37" s="18"/>
-    </row>
-    <row r="38" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J37" s="20"/>
+    </row>
+    <row r="38" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="18"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="18"/>
+      <c r="D38" s="20"/>
       <c r="E38" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F38" s="18"/>
+      <c r="F38" s="20"/>
       <c r="G38" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="H38" s="18"/>
+      <c r="H38" s="20"/>
       <c r="I38" s="17">
         <v>44215</v>
       </c>
-      <c r="J38" s="18"/>
-    </row>
-    <row r="39" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J38" s="20"/>
+    </row>
+    <row r="39" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="18"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="18"/>
+      <c r="D39" s="20"/>
       <c r="E39" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="18"/>
+      <c r="F39" s="20"/>
       <c r="G39" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="H39" s="18"/>
+      <c r="H39" s="20"/>
       <c r="I39" s="17">
         <v>44215</v>
       </c>
-      <c r="J39" s="18"/>
-    </row>
-    <row r="40" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J39" s="20"/>
+    </row>
+    <row r="40" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="18"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="18"/>
+      <c r="D40" s="20"/>
       <c r="E40" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F40" s="18"/>
+      <c r="F40" s="20"/>
       <c r="G40" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="H40" s="18"/>
+      <c r="H40" s="20"/>
       <c r="I40" s="17">
         <v>44215</v>
       </c>
-      <c r="J40" s="18"/>
-    </row>
-    <row r="41" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J40" s="20"/>
+    </row>
+    <row r="41" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="18"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="18"/>
+      <c r="D41" s="20"/>
       <c r="E41" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F41" s="18"/>
+      <c r="F41" s="20"/>
       <c r="G41" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H41" s="18"/>
+      <c r="H41" s="20"/>
       <c r="I41" s="17">
         <v>44215</v>
       </c>
-      <c r="J41" s="18"/>
-    </row>
-    <row r="42" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J41" s="20"/>
+    </row>
+    <row r="42" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="18"/>
+      <c r="B42" s="20"/>
       <c r="C42" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="18"/>
+      <c r="D42" s="20"/>
       <c r="E42" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F42" s="18"/>
+      <c r="F42" s="20"/>
       <c r="G42" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="H42" s="18"/>
+      <c r="H42" s="20"/>
       <c r="I42" s="17">
         <v>44215</v>
       </c>
-      <c r="J42" s="18"/>
-    </row>
-    <row r="43" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J42" s="20"/>
+    </row>
+    <row r="43" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B43" s="18"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="18"/>
+      <c r="D43" s="20"/>
       <c r="E43" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F43" s="18"/>
+      <c r="F43" s="20"/>
       <c r="G43" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="H43" s="18"/>
+      <c r="H43" s="20"/>
       <c r="I43" s="17">
         <v>44215</v>
       </c>
-      <c r="J43" s="18"/>
-    </row>
-    <row r="44" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J43" s="20"/>
+    </row>
+    <row r="44" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="18"/>
+      <c r="B44" s="20"/>
       <c r="C44" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D44" s="18"/>
+      <c r="D44" s="20"/>
       <c r="E44" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F44" s="18"/>
+      <c r="F44" s="20"/>
       <c r="G44" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="H44" s="18"/>
+      <c r="H44" s="20"/>
       <c r="I44" s="17">
         <v>44216</v>
       </c>
-      <c r="J44" s="18"/>
-    </row>
-    <row r="45" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="18"/>
+      <c r="J44" s="20"/>
+    </row>
+    <row r="45" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="20"/>
       <c r="C45" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D45" s="18"/>
-      <c r="F45" s="18"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="20"/>
       <c r="G45" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="H45" s="18"/>
+      <c r="H45" s="20"/>
       <c r="I45" s="17">
         <v>44216</v>
       </c>
-      <c r="J45" s="18"/>
-    </row>
-    <row r="46" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-      <c r="B46" s="18"/>
+      <c r="J45" s="20"/>
+    </row>
+    <row r="46" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="20"/>
       <c r="C46" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="18"/>
-      <c r="F46" s="18"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" s="20"/>
       <c r="G46" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="H46" s="18"/>
+      <c r="H46" s="20"/>
       <c r="I46" s="17">
         <v>44216</v>
       </c>
-      <c r="J46" s="18"/>
-    </row>
-    <row r="47" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
-      <c r="B47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="J47" s="18"/>
-    </row>
-    <row r="48" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J46" s="20"/>
+    </row>
+    <row r="47" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="20"/>
+      <c r="C47" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" s="20"/>
+      <c r="E47" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F47" s="20"/>
+      <c r="G47" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="17">
+        <v>44216</v>
+      </c>
+      <c r="J47" s="20"/>
+    </row>
+    <row r="48" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="12"/>
-      <c r="B48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="J48" s="18"/>
-    </row>
-    <row r="49" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="H49" s="18"/>
+      <c r="B48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="J48" s="20"/>
+    </row>
+    <row r="49" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="H49" s="20"/>
       <c r="I49" s="13"/>
-      <c r="J49" s="18"/>
-    </row>
-    <row r="50" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="H50" s="18"/>
+      <c r="J49" s="20"/>
+    </row>
+    <row r="50" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="H50" s="20"/>
       <c r="I50" s="13"/>
-      <c r="J50" s="18"/>
-    </row>
-    <row r="51" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="H51" s="18"/>
+      <c r="J50" s="20"/>
+    </row>
+    <row r="51" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="H51" s="20"/>
       <c r="I51" s="13"/>
-      <c r="J51" s="18"/>
-    </row>
-    <row r="52" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="H52" s="18"/>
+      <c r="J51" s="20"/>
+    </row>
+    <row r="52" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="H52" s="20"/>
       <c r="I52" s="13"/>
-      <c r="J52" s="18"/>
-    </row>
-    <row r="53" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="H53" s="18"/>
+      <c r="J52" s="20"/>
+    </row>
+    <row r="53" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="H53" s="20"/>
       <c r="I53" s="13"/>
-      <c r="J53" s="18"/>
-    </row>
-    <row r="54" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="H54" s="18"/>
+      <c r="J53" s="20"/>
+    </row>
+    <row r="54" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="H54" s="20"/>
       <c r="I54" s="13"/>
-      <c r="J54" s="18"/>
-    </row>
-    <row r="55" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="H55" s="18"/>
+      <c r="J54" s="20"/>
+    </row>
+    <row r="55" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="H55" s="20"/>
       <c r="I55" s="13"/>
-      <c r="J55" s="18"/>
-    </row>
-    <row r="56" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="H56" s="18"/>
+      <c r="J55" s="20"/>
+    </row>
+    <row r="56" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="H56" s="20"/>
       <c r="I56" s="13"/>
-      <c r="J56" s="18"/>
-    </row>
-    <row r="57" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="H57" s="18"/>
+      <c r="J56" s="20"/>
+    </row>
+    <row r="57" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="H57" s="20"/>
       <c r="I57" s="13"/>
-      <c r="J57" s="18"/>
-    </row>
-    <row r="58" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="H58" s="18"/>
+      <c r="J57" s="20"/>
+    </row>
+    <row r="58" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="H58" s="20"/>
       <c r="I58" s="13"/>
-      <c r="J58" s="18"/>
-    </row>
-    <row r="59" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="H59" s="18"/>
+      <c r="J58" s="20"/>
+    </row>
+    <row r="59" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="H59" s="20"/>
       <c r="I59" s="13"/>
-      <c r="J59" s="18"/>
-    </row>
-    <row r="60" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="H60" s="18"/>
+      <c r="J59" s="20"/>
+    </row>
+    <row r="60" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="H60" s="20"/>
       <c r="I60" s="13"/>
-      <c r="J60" s="18"/>
-    </row>
-    <row r="61" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="H61" s="18"/>
+      <c r="J60" s="20"/>
+    </row>
+    <row r="61" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="H61" s="20"/>
       <c r="I61" s="13"/>
-      <c r="J61" s="18"/>
+      <c r="J61" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="H32:H61"/>
+    <mergeCell ref="F32:F61"/>
+    <mergeCell ref="D32:D61"/>
+    <mergeCell ref="B32:B61"/>
+    <mergeCell ref="J32:J61"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="J2:J31"/>
     <mergeCell ref="D2:D31"/>
     <mergeCell ref="F2:F31"/>
     <mergeCell ref="H2:H31"/>
     <mergeCell ref="B2:B31"/>
-    <mergeCell ref="H32:H61"/>
-    <mergeCell ref="F32:F61"/>
-    <mergeCell ref="D32:D61"/>
-    <mergeCell ref="B32:B61"/>
-    <mergeCell ref="J32:J61"/>
   </mergeCells>
-  <conditionalFormatting sqref="A2:I2 A1:G1 K1:XFD2 K5:XFD1048576 A5:I10 A11:B11 D11:I11 A12:I31 A62:I1048576 I32:I61 H32 H35:H61 G32:G61 F32 F35:F61 D32 D35:D61 B32 B35:B61 E31:E61 A30:A61 C31:C61">
+  <conditionalFormatting sqref="A2:I2 A1:G1 K1:XFD2 K5:XFD1048576 A5:I10 A11:B11 D11:I11 A12:I31 A62:I1048576 I32:I61 H32 H35:H61 G32:G61 F32 F35:F61 D32 D35:D61 B32 B35:B61 E31:E61 C31:C61 A30:A61">
     <cfRule type="cellIs" dxfId="10" priority="19" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C10 G5:G81 E5:E81 A5:A81 C12:C81">
+  <conditionalFormatting sqref="C5:C10 G5:G81 E5:E81 C12:C81 A5:A81">
     <cfRule type="containsBlanks" priority="17" stopIfTrue="1">
       <formula>LEN(TRIM(A5))=0</formula>
     </cfRule>
@@ -2088,12 +2121,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="22.7109375" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="22.7265625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="22.7109375" style="1"/>
+    <col min="1" max="16384" width="22.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -2104,7 +2137,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -2115,7 +2148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="63" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -2126,7 +2159,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="42" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -2134,7 +2167,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="63" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -2142,7 +2175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="42" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>23</v>
       </c>

--- a/TableauDeBord.xlsx
+++ b/TableauDeBord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5344a3cd4eb43387/Bureau/Git/S3D_MyWishList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{5DCAA2A1-57E2-43BC-97F8-CD9705724370}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AECD7B05-F300-4566-A6CD-62B6AA01F6CC}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{5DCAA2A1-57E2-43BC-97F8-CD9705724370}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F7850D54-0724-4AB3-9F90-F61688372E68}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -511,13 +511,13 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -881,7 +881,7 @@
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="62.54296875" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -900,1146 +900,1146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:10" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="20"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="20"/>
+      <c r="F2" s="18"/>
       <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="20"/>
+      <c r="H2" s="18"/>
       <c r="I2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="20"/>
+      <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="20"/>
+      <c r="D3" s="18"/>
       <c r="E3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="20"/>
+      <c r="F3" s="18"/>
       <c r="G3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="J3" s="20"/>
+      <c r="H3" s="18"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="20"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="20"/>
+      <c r="F4" s="18"/>
       <c r="G4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="J4" s="20"/>
+      <c r="H4" s="18"/>
+      <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="20"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="20"/>
+      <c r="F5" s="18"/>
       <c r="G5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="20"/>
+      <c r="H5" s="18"/>
       <c r="I5" s="17">
         <v>44199</v>
       </c>
-      <c r="J5" s="20"/>
+      <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="20"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="20"/>
+      <c r="F6" s="18"/>
       <c r="G6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="20"/>
+      <c r="H6" s="18"/>
       <c r="I6" s="17">
         <v>44199</v>
       </c>
-      <c r="J6" s="20"/>
+      <c r="J6" s="18"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="20"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="20"/>
+      <c r="F7" s="18"/>
       <c r="G7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="20"/>
+      <c r="H7" s="18"/>
       <c r="I7" s="17">
         <v>44201</v>
       </c>
-      <c r="J7" s="20"/>
+      <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="20"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="20"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="20"/>
+      <c r="F8" s="18"/>
       <c r="G8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="20"/>
-      <c r="J8" s="20"/>
+      <c r="H8" s="18"/>
+      <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="20"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="20"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="20"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="18"/>
       <c r="I9" s="17">
         <v>44203</v>
       </c>
-      <c r="J9" s="20"/>
+      <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="20"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="20"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="20"/>
+      <c r="F10" s="18"/>
       <c r="G10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="20"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="17">
         <v>44203</v>
       </c>
-      <c r="J10" s="20"/>
+      <c r="J10" s="18"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="20"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="20"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="20"/>
+      <c r="F11" s="18"/>
       <c r="G11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="20"/>
+      <c r="H11" s="18"/>
       <c r="I11" s="17">
         <v>44206</v>
       </c>
-      <c r="J11" s="20"/>
+      <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="20"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="20"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="20"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="20"/>
+      <c r="H12" s="18"/>
       <c r="I12" s="17">
         <v>44208</v>
       </c>
-      <c r="J12" s="20"/>
+      <c r="J12" s="18"/>
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="20"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="20"/>
+      <c r="D13" s="18"/>
       <c r="E13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="20"/>
+      <c r="F13" s="18"/>
       <c r="G13" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="20"/>
+      <c r="H13" s="18"/>
       <c r="I13" s="17">
         <v>44208</v>
       </c>
-      <c r="J13" s="20"/>
+      <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="20"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="20"/>
+      <c r="D14" s="18"/>
       <c r="E14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="20"/>
+      <c r="F14" s="18"/>
       <c r="G14" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="20"/>
+      <c r="H14" s="18"/>
       <c r="I14" s="17">
         <v>44208</v>
       </c>
-      <c r="J14" s="20"/>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="20"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="20"/>
+      <c r="D15" s="18"/>
       <c r="E15" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="20"/>
+      <c r="F15" s="18"/>
       <c r="G15" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="20"/>
+      <c r="H15" s="18"/>
       <c r="I15" s="17">
         <v>44211</v>
       </c>
-      <c r="J15" s="20"/>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="20"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="20"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="20"/>
+      <c r="F16" s="18"/>
       <c r="G16" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="20"/>
+      <c r="H16" s="18"/>
       <c r="I16" s="17">
         <v>44212</v>
       </c>
-      <c r="J16" s="20"/>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="20"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="20"/>
+      <c r="D17" s="18"/>
       <c r="E17" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="20"/>
+      <c r="F17" s="18"/>
       <c r="G17" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="20"/>
+      <c r="H17" s="18"/>
       <c r="I17" s="17">
         <v>44212</v>
       </c>
-      <c r="J17" s="20"/>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="20"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="20"/>
+      <c r="D18" s="18"/>
       <c r="E18" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="20"/>
+      <c r="F18" s="18"/>
       <c r="G18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="20"/>
+      <c r="H18" s="18"/>
       <c r="I18" s="17">
         <v>44213</v>
       </c>
-      <c r="J18" s="20"/>
+      <c r="J18" s="18"/>
     </row>
     <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="20"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="20"/>
+      <c r="D19" s="18"/>
       <c r="E19" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="20"/>
+      <c r="F19" s="18"/>
       <c r="G19" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H19" s="20"/>
+      <c r="H19" s="18"/>
       <c r="I19" s="17">
         <v>44214</v>
       </c>
-      <c r="J19" s="20"/>
+      <c r="J19" s="18"/>
     </row>
     <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="20"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="20"/>
+      <c r="D20" s="18"/>
       <c r="E20" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="20"/>
+      <c r="F20" s="18"/>
       <c r="G20" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="H20" s="20"/>
+      <c r="H20" s="18"/>
       <c r="I20" s="17">
         <v>44214</v>
       </c>
-      <c r="J20" s="20"/>
+      <c r="J20" s="18"/>
     </row>
     <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="20"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="20"/>
+      <c r="D21" s="18"/>
       <c r="E21" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="20"/>
+      <c r="F21" s="18"/>
       <c r="G21" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="20"/>
+      <c r="H21" s="18"/>
       <c r="I21" s="17">
         <v>44214</v>
       </c>
-      <c r="J21" s="20"/>
+      <c r="J21" s="18"/>
     </row>
     <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="20"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="20"/>
+      <c r="D22" s="18"/>
       <c r="E22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="20"/>
+      <c r="F22" s="18"/>
       <c r="G22" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="20"/>
+      <c r="H22" s="18"/>
       <c r="I22" s="17">
         <v>44215</v>
       </c>
-      <c r="J22" s="20"/>
+      <c r="J22" s="18"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="20"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="20"/>
+      <c r="D23" s="18"/>
       <c r="E23" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="20"/>
+      <c r="F23" s="18"/>
       <c r="G23" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="20"/>
+      <c r="H23" s="18"/>
       <c r="I23" s="17">
         <v>44215</v>
       </c>
-      <c r="J23" s="20"/>
+      <c r="J23" s="18"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="20"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="20"/>
+      <c r="D24" s="18"/>
       <c r="E24" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="20"/>
+      <c r="F24" s="18"/>
       <c r="G24" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H24" s="20"/>
+      <c r="H24" s="18"/>
       <c r="I24" s="17">
         <v>44215</v>
       </c>
-      <c r="J24" s="20"/>
+      <c r="J24" s="18"/>
     </row>
     <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="20"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="20"/>
+      <c r="D25" s="18"/>
       <c r="E25" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="20"/>
+      <c r="F25" s="18"/>
       <c r="G25" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H25" s="20"/>
+      <c r="H25" s="18"/>
       <c r="I25" s="17">
         <v>44215</v>
       </c>
-      <c r="J25" s="20"/>
+      <c r="J25" s="18"/>
     </row>
     <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="20"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="20"/>
+      <c r="D26" s="18"/>
       <c r="E26" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="20"/>
+      <c r="F26" s="18"/>
       <c r="G26" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="H26" s="20"/>
+      <c r="H26" s="18"/>
       <c r="I26" s="17">
         <v>44215</v>
       </c>
-      <c r="J26" s="20"/>
+      <c r="J26" s="18"/>
     </row>
     <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="20"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="20"/>
+      <c r="D27" s="18"/>
       <c r="E27" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="20"/>
+      <c r="F27" s="18"/>
       <c r="G27" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="20"/>
+      <c r="H27" s="18"/>
       <c r="I27" s="17">
         <v>44215</v>
       </c>
-      <c r="J27" s="20"/>
+      <c r="J27" s="18"/>
     </row>
     <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="20"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="20"/>
+      <c r="D28" s="18"/>
       <c r="E28" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="20"/>
+      <c r="F28" s="18"/>
       <c r="G28" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="H28" s="20"/>
+      <c r="H28" s="18"/>
       <c r="I28" s="17">
         <v>44215</v>
       </c>
-      <c r="J28" s="20"/>
+      <c r="J28" s="18"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="20"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="20"/>
+      <c r="D29" s="18"/>
       <c r="E29" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="20"/>
+      <c r="F29" s="18"/>
       <c r="G29" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H29" s="20"/>
+      <c r="H29" s="18"/>
       <c r="I29" s="17">
         <v>44215</v>
       </c>
-      <c r="J29" s="20"/>
+      <c r="J29" s="18"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="20"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="20"/>
+      <c r="D30" s="18"/>
       <c r="E30" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F30" s="20"/>
+      <c r="F30" s="18"/>
       <c r="G30" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="H30" s="20"/>
+      <c r="H30" s="18"/>
       <c r="I30" s="17">
         <v>44215</v>
       </c>
-      <c r="J30" s="20"/>
+      <c r="J30" s="18"/>
     </row>
     <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="20"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="20"/>
+      <c r="D31" s="18"/>
       <c r="E31" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F31" s="20"/>
+      <c r="F31" s="18"/>
       <c r="G31" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="H31" s="20"/>
+      <c r="H31" s="18"/>
       <c r="I31" s="17">
         <v>44215</v>
       </c>
-      <c r="J31" s="20"/>
+      <c r="J31" s="18"/>
     </row>
     <row r="32" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="20"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="20"/>
+      <c r="D32" s="18"/>
       <c r="E32" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F32" s="20"/>
+      <c r="F32" s="18"/>
       <c r="G32" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="H32" s="20"/>
+      <c r="H32" s="18"/>
       <c r="I32" s="17">
         <v>44215</v>
       </c>
-      <c r="J32" s="20"/>
+      <c r="J32" s="18"/>
     </row>
     <row r="33" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="20"/>
+      <c r="B33" s="18"/>
       <c r="C33" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="20"/>
+      <c r="D33" s="18"/>
       <c r="E33" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F33" s="20"/>
+      <c r="F33" s="18"/>
       <c r="G33" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H33" s="20"/>
+      <c r="H33" s="18"/>
       <c r="I33" s="17">
         <v>44215</v>
       </c>
-      <c r="J33" s="20"/>
+      <c r="J33" s="18"/>
     </row>
     <row r="34" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="20"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="20"/>
+      <c r="D34" s="18"/>
       <c r="E34" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="20"/>
+      <c r="F34" s="18"/>
       <c r="G34" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="H34" s="20"/>
+      <c r="H34" s="18"/>
       <c r="I34" s="17">
         <v>44215</v>
       </c>
-      <c r="J34" s="20"/>
+      <c r="J34" s="18"/>
     </row>
     <row r="35" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="20"/>
+      <c r="B35" s="18"/>
       <c r="C35" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="20"/>
+      <c r="D35" s="18"/>
       <c r="E35" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="20"/>
+      <c r="F35" s="18"/>
       <c r="G35" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="H35" s="20"/>
+      <c r="H35" s="18"/>
       <c r="I35" s="17">
         <v>44215</v>
       </c>
-      <c r="J35" s="20"/>
+      <c r="J35" s="18"/>
     </row>
     <row r="36" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="20"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="20"/>
+      <c r="D36" s="18"/>
       <c r="E36" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F36" s="20"/>
+      <c r="F36" s="18"/>
       <c r="G36" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="H36" s="20"/>
+      <c r="H36" s="18"/>
       <c r="I36" s="17">
         <v>44215</v>
       </c>
-      <c r="J36" s="20"/>
+      <c r="J36" s="18"/>
     </row>
     <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="20"/>
+      <c r="B37" s="18"/>
       <c r="C37" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="20"/>
+      <c r="D37" s="18"/>
       <c r="E37" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F37" s="20"/>
+      <c r="F37" s="18"/>
       <c r="G37" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="H37" s="20"/>
+      <c r="H37" s="18"/>
       <c r="I37" s="17">
         <v>44215</v>
       </c>
-      <c r="J37" s="20"/>
+      <c r="J37" s="18"/>
     </row>
     <row r="38" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="20"/>
+      <c r="B38" s="18"/>
       <c r="C38" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="20"/>
+      <c r="D38" s="18"/>
       <c r="E38" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F38" s="20"/>
+      <c r="F38" s="18"/>
       <c r="G38" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="H38" s="20"/>
+      <c r="H38" s="18"/>
       <c r="I38" s="17">
         <v>44215</v>
       </c>
-      <c r="J38" s="20"/>
+      <c r="J38" s="18"/>
     </row>
     <row r="39" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="20"/>
+      <c r="B39" s="18"/>
       <c r="C39" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="20"/>
+      <c r="D39" s="18"/>
       <c r="E39" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="20"/>
+      <c r="F39" s="18"/>
       <c r="G39" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="H39" s="20"/>
+      <c r="H39" s="18"/>
       <c r="I39" s="17">
         <v>44215</v>
       </c>
-      <c r="J39" s="20"/>
+      <c r="J39" s="18"/>
     </row>
     <row r="40" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="20"/>
+      <c r="B40" s="18"/>
       <c r="C40" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="20"/>
+      <c r="D40" s="18"/>
       <c r="E40" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F40" s="20"/>
+      <c r="F40" s="18"/>
       <c r="G40" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="H40" s="20"/>
+      <c r="H40" s="18"/>
       <c r="I40" s="17">
         <v>44215</v>
       </c>
-      <c r="J40" s="20"/>
+      <c r="J40" s="18"/>
     </row>
     <row r="41" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="20"/>
+      <c r="B41" s="18"/>
       <c r="C41" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="20"/>
+      <c r="D41" s="18"/>
       <c r="E41" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F41" s="20"/>
+      <c r="F41" s="18"/>
       <c r="G41" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H41" s="20"/>
+      <c r="H41" s="18"/>
       <c r="I41" s="17">
         <v>44215</v>
       </c>
-      <c r="J41" s="20"/>
+      <c r="J41" s="18"/>
     </row>
     <row r="42" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="18"/>
       <c r="C42" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="20"/>
+      <c r="D42" s="18"/>
       <c r="E42" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F42" s="20"/>
+      <c r="F42" s="18"/>
       <c r="G42" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="H42" s="20"/>
+      <c r="H42" s="18"/>
       <c r="I42" s="17">
         <v>44215</v>
       </c>
-      <c r="J42" s="20"/>
+      <c r="J42" s="18"/>
     </row>
     <row r="43" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B43" s="20"/>
+      <c r="B43" s="18"/>
       <c r="C43" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="20"/>
+      <c r="D43" s="18"/>
       <c r="E43" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F43" s="20"/>
+      <c r="F43" s="18"/>
       <c r="G43" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="H43" s="20"/>
+      <c r="H43" s="18"/>
       <c r="I43" s="17">
         <v>44215</v>
       </c>
-      <c r="J43" s="20"/>
+      <c r="J43" s="18"/>
     </row>
     <row r="44" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="20"/>
+      <c r="B44" s="18"/>
       <c r="C44" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D44" s="20"/>
+      <c r="D44" s="18"/>
       <c r="E44" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F44" s="20"/>
+      <c r="F44" s="18"/>
       <c r="G44" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="H44" s="20"/>
+      <c r="H44" s="18"/>
       <c r="I44" s="17">
         <v>44216</v>
       </c>
-      <c r="J44" s="20"/>
+      <c r="J44" s="18"/>
     </row>
     <row r="45" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="20"/>
+      <c r="B45" s="18"/>
       <c r="C45" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D45" s="20"/>
+      <c r="D45" s="18"/>
       <c r="E45" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F45" s="20"/>
+      <c r="F45" s="18"/>
       <c r="G45" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="H45" s="20"/>
+      <c r="H45" s="18"/>
       <c r="I45" s="17">
         <v>44216</v>
       </c>
-      <c r="J45" s="20"/>
+      <c r="J45" s="18"/>
     </row>
     <row r="46" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B46" s="20"/>
+      <c r="B46" s="18"/>
       <c r="C46" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="20"/>
+      <c r="D46" s="18"/>
       <c r="E46" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F46" s="20"/>
+      <c r="F46" s="18"/>
       <c r="G46" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="H46" s="20"/>
+      <c r="H46" s="18"/>
       <c r="I46" s="17">
         <v>44216</v>
       </c>
-      <c r="J46" s="20"/>
+      <c r="J46" s="18"/>
     </row>
     <row r="47" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B47" s="20"/>
+      <c r="B47" s="18"/>
       <c r="C47" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D47" s="20"/>
+        <v>6</v>
+      </c>
+      <c r="D47" s="18"/>
       <c r="E47" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F47" s="20"/>
+      <c r="F47" s="18"/>
       <c r="G47" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="H47" s="20"/>
+      <c r="H47" s="18"/>
       <c r="I47" s="17">
         <v>44216</v>
       </c>
-      <c r="J47" s="20"/>
+      <c r="J47" s="18"/>
     </row>
     <row r="48" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="12"/>
-      <c r="B48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="J48" s="20"/>
+      <c r="B48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="J48" s="18"/>
     </row>
     <row r="49" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="H49" s="20"/>
+      <c r="B49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="H49" s="18"/>
       <c r="I49" s="13"/>
-      <c r="J49" s="20"/>
+      <c r="J49" s="18"/>
     </row>
     <row r="50" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="H50" s="20"/>
+      <c r="B50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="H50" s="18"/>
       <c r="I50" s="13"/>
-      <c r="J50" s="20"/>
+      <c r="J50" s="18"/>
     </row>
     <row r="51" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="H51" s="20"/>
+      <c r="B51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="H51" s="18"/>
       <c r="I51" s="13"/>
-      <c r="J51" s="20"/>
+      <c r="J51" s="18"/>
     </row>
     <row r="52" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="H52" s="20"/>
+      <c r="B52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="H52" s="18"/>
       <c r="I52" s="13"/>
-      <c r="J52" s="20"/>
+      <c r="J52" s="18"/>
     </row>
     <row r="53" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="H53" s="20"/>
+      <c r="B53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="H53" s="18"/>
       <c r="I53" s="13"/>
-      <c r="J53" s="20"/>
+      <c r="J53" s="18"/>
     </row>
     <row r="54" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="H54" s="20"/>
+      <c r="B54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="H54" s="18"/>
       <c r="I54" s="13"/>
-      <c r="J54" s="20"/>
+      <c r="J54" s="18"/>
     </row>
     <row r="55" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="H55" s="20"/>
+      <c r="B55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="H55" s="18"/>
       <c r="I55" s="13"/>
-      <c r="J55" s="20"/>
+      <c r="J55" s="18"/>
     </row>
     <row r="56" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="H56" s="20"/>
+      <c r="B56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="H56" s="18"/>
       <c r="I56" s="13"/>
-      <c r="J56" s="20"/>
+      <c r="J56" s="18"/>
     </row>
     <row r="57" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="H57" s="20"/>
+      <c r="B57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="H57" s="18"/>
       <c r="I57" s="13"/>
-      <c r="J57" s="20"/>
+      <c r="J57" s="18"/>
     </row>
     <row r="58" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="H58" s="20"/>
+      <c r="B58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="H58" s="18"/>
       <c r="I58" s="13"/>
-      <c r="J58" s="20"/>
+      <c r="J58" s="18"/>
     </row>
     <row r="59" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="H59" s="20"/>
+      <c r="B59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="H59" s="18"/>
       <c r="I59" s="13"/>
-      <c r="J59" s="20"/>
+      <c r="J59" s="18"/>
     </row>
     <row r="60" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="H60" s="20"/>
+      <c r="B60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="H60" s="18"/>
       <c r="I60" s="13"/>
-      <c r="J60" s="20"/>
+      <c r="J60" s="18"/>
     </row>
     <row r="61" spans="2:10" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="H61" s="20"/>
+      <c r="B61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="H61" s="18"/>
       <c r="I61" s="13"/>
-      <c r="J61" s="20"/>
+      <c r="J61" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="H32:H61"/>
-    <mergeCell ref="F32:F61"/>
-    <mergeCell ref="D32:D61"/>
-    <mergeCell ref="B32:B61"/>
-    <mergeCell ref="J32:J61"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="J2:J31"/>
     <mergeCell ref="D2:D31"/>
     <mergeCell ref="F2:F31"/>
     <mergeCell ref="H2:H31"/>
     <mergeCell ref="B2:B31"/>
+    <mergeCell ref="H32:H61"/>
+    <mergeCell ref="F32:F61"/>
+    <mergeCell ref="D32:D61"/>
+    <mergeCell ref="B32:B61"/>
+    <mergeCell ref="J32:J61"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:I2 A1:G1 K1:XFD2 K5:XFD1048576 A5:I10 A11:B11 D11:I11 A12:I31 A62:I1048576 I32:I61 H32 H35:H61 G32:G61 F32 F35:F61 D32 D35:D61 B32 B35:B61 E31:E61 C31:C61 A30:A61">
     <cfRule type="cellIs" dxfId="10" priority="19" operator="equal">
